--- a/LP-Ergebnisse-Edge.xlsx
+++ b/LP-Ergebnisse-Edge.xlsx
@@ -8,13 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D1F118-4C6A-4403-BD9C-E7BD363F36E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBA4ACE-20B3-4A3D-A314-636E8E7B8AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -114,6 +130,838 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Vergleich FTP-Algorithmen in LP - Randdaten</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Vergleich FTP-Algorithmen in LP - Randdaten</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E55AC990-FCA2-4B54-88F2-CCF5D80A1563}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>best_next_aktive_robot</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{9EC4FE51-D1D0-45BA-8AF7-F46CB299416F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>on_roboter_permutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B7B447A0-0DA8-4F7D-80DF-CEA609685B87}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Anzahl Roboter</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Anzahl Roboter</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Approximationsfaktor</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Diagramm 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2485D2F-C863-27F9-A7CC-2239EFD13CEC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3584575" y="676275"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5404,7 +6252,7 @@
         <v>9</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J182" si="6">D131/C131</f>
+        <f t="shared" ref="J131:J181" si="6">D131/C131</f>
         <v>1.0149812734082397</v>
       </c>
       <c r="K131">
@@ -7318,5 +8166,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LP-Ergebnisse-Edge.xlsx
+++ b/LP-Ergebnisse-Edge.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7444810F-B855-486F-940A-5B82C8D00552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F22D9EB-DD3A-42DB-9E9F-1E2D819F2BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$I$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Experiment</t>
   </si>
@@ -57,10 +66,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,8 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -103,6 +121,838 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Vergleich FTP-Algorithmen in LP - Randdaten</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Vergleich FTP-Algorithmen in LP - Randdaten</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{BC7E8F83-7F1C-4719-BCEF-37C37EDBE494}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>best_next_aktive_robot</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{09000A59-1F1E-4432-8D2F-802ACC363A2C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>on_roboter_permutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{42D20F8F-BC99-4F7C-BBAE-9DBB3EC7948A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Anzahl Roboter</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Anzahl Roboter</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Approximationsfaktor</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1000">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Diagramm 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C919C20-626C-8917-A93D-95132B69D2CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5216525" y="663575"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K451"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,7 +1296,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -468,6 +1330,9 @@
       </c>
       <c r="F2">
         <v>170</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
       </c>
       <c r="I2">
         <f>D2/C2</f>
@@ -501,6 +1366,9 @@
       <c r="F3">
         <v>251</v>
       </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="0">D3/C3</f>
         <v>1</v>
@@ -533,6 +1401,9 @@
       <c r="F4">
         <v>267</v>
       </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
       <c r="I4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -565,6 +1436,9 @@
       <c r="F5">
         <v>204</v>
       </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
       <c r="I5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -597,6 +1471,9 @@
       <c r="F6">
         <v>191</v>
       </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
       <c r="I6">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -629,6 +1506,9 @@
       <c r="F7">
         <v>232</v>
       </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
       <c r="I7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -661,6 +1541,9 @@
       <c r="F8">
         <v>197</v>
       </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
       <c r="I8">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -693,6 +1576,9 @@
       <c r="F9">
         <v>193</v>
       </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
       <c r="I9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -725,6 +1611,9 @@
       <c r="F10">
         <v>104</v>
       </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
       <c r="I10">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -757,6 +1646,9 @@
       <c r="F11">
         <v>94</v>
       </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
       <c r="I11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -789,6 +1681,9 @@
       <c r="F12">
         <v>253</v>
       </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -821,6 +1716,9 @@
       <c r="F13">
         <v>201</v>
       </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -853,6 +1751,9 @@
       <c r="F14">
         <v>207</v>
       </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -885,6 +1786,9 @@
       <c r="F15">
         <v>253</v>
       </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
       <c r="I15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -917,6 +1821,9 @@
       <c r="F16">
         <v>114</v>
       </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -949,6 +1856,9 @@
       <c r="F17">
         <v>277</v>
       </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -981,6 +1891,9 @@
       <c r="F18">
         <v>176</v>
       </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1013,6 +1926,9 @@
       <c r="F19">
         <v>275</v>
       </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1045,6 +1961,9 @@
       <c r="F20">
         <v>166</v>
       </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
       <c r="I20">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1077,6 +1996,9 @@
       <c r="F21">
         <v>284</v>
       </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1109,6 +2031,9 @@
       <c r="F22">
         <v>165</v>
       </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1141,6 +2066,9 @@
       <c r="F23">
         <v>259</v>
       </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1173,6 +2101,9 @@
       <c r="F24">
         <v>261</v>
       </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1205,6 +2136,9 @@
       <c r="F25">
         <v>167</v>
       </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
       <c r="I25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1237,6 +2171,9 @@
       <c r="F26">
         <v>120</v>
       </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
       <c r="I26">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1269,6 +2206,9 @@
       <c r="F27">
         <v>203</v>
       </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1301,6 +2241,9 @@
       <c r="F28">
         <v>135</v>
       </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1333,6 +2276,9 @@
       <c r="F29">
         <v>221</v>
       </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1365,6 +2311,9 @@
       <c r="F30">
         <v>93</v>
       </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
       <c r="I30">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1397,6 +2346,9 @@
       <c r="F31">
         <v>256</v>
       </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1429,6 +2381,9 @@
       <c r="F32">
         <v>201</v>
       </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
       <c r="I32">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1461,6 +2416,9 @@
       <c r="F33">
         <v>165</v>
       </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1493,6 +2451,9 @@
       <c r="F34">
         <v>267</v>
       </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1525,6 +2486,9 @@
       <c r="F35">
         <v>205</v>
       </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
       <c r="I35">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1557,6 +2521,9 @@
       <c r="F36">
         <v>153</v>
       </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
       <c r="I36">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1589,6 +2556,9 @@
       <c r="F37">
         <v>193</v>
       </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
       <c r="I37">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1621,6 +2591,9 @@
       <c r="F38">
         <v>272</v>
       </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
       <c r="I38">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1653,6 +2626,9 @@
       <c r="F39">
         <v>266</v>
       </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
       <c r="I39">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1685,6 +2661,9 @@
       <c r="F40">
         <v>255</v>
       </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
       <c r="I40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1717,6 +2696,9 @@
       <c r="F41">
         <v>199</v>
       </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
       <c r="I41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1749,6 +2731,9 @@
       <c r="F42">
         <v>111</v>
       </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
       <c r="I42">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1781,6 +2766,9 @@
       <c r="F43">
         <v>289</v>
       </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
       <c r="I43">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1813,6 +2801,9 @@
       <c r="F44">
         <v>151</v>
       </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
       <c r="I44">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1845,6 +2836,9 @@
       <c r="F45">
         <v>170</v>
       </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
       <c r="I45">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1877,6 +2871,9 @@
       <c r="F46">
         <v>184</v>
       </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
       <c r="I46">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1909,6 +2906,9 @@
       <c r="F47">
         <v>93</v>
       </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
       <c r="I47">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1941,6 +2941,9 @@
       <c r="F48">
         <v>290</v>
       </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
       <c r="I48">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1973,6 +2976,9 @@
       <c r="F49">
         <v>277</v>
       </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
       <c r="I49">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2005,6 +3011,9 @@
       <c r="F50">
         <v>123</v>
       </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
       <c r="I50">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2037,6 +3046,9 @@
       <c r="F51">
         <v>270</v>
       </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
       <c r="I51">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2068,6 +3080,9 @@
       </c>
       <c r="F52">
         <v>197</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
@@ -2101,6 +3116,9 @@
       <c r="F53">
         <v>251</v>
       </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
       <c r="I53">
         <f t="shared" si="0"/>
         <v>1.0039840637450199</v>
@@ -2133,6 +3151,9 @@
       <c r="F54">
         <v>184</v>
       </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
       <c r="I54">
         <f t="shared" si="0"/>
         <v>1.1875</v>
@@ -2165,6 +3186,9 @@
       <c r="F55">
         <v>222</v>
       </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
       <c r="I55">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2197,6 +3221,9 @@
       <c r="F56">
         <v>152</v>
       </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
       <c r="I56">
         <f t="shared" si="0"/>
         <v>1.1176470588235294</v>
@@ -2229,6 +3256,9 @@
       <c r="F57">
         <v>246</v>
       </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
       <c r="I57">
         <f t="shared" si="0"/>
         <v>1.4464285714285714</v>
@@ -2261,6 +3291,9 @@
       <c r="F58">
         <v>257</v>
       </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
       <c r="I58">
         <f t="shared" si="0"/>
         <v>1.4654377880184333</v>
@@ -2293,6 +3326,9 @@
       <c r="F59">
         <v>261</v>
       </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
       <c r="I59">
         <f t="shared" si="0"/>
         <v>1.2850241545893719</v>
@@ -2325,6 +3361,9 @@
       <c r="F60">
         <v>175</v>
       </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
       <c r="I60">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2357,6 +3396,9 @@
       <c r="F61">
         <v>262</v>
       </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
       <c r="I61">
         <f t="shared" si="0"/>
         <v>1.40625</v>
@@ -2389,6 +3431,9 @@
       <c r="F62">
         <v>109</v>
       </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
       <c r="I62">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2421,6 +3466,9 @@
       <c r="F63">
         <v>244</v>
       </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
       <c r="I63">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2453,6 +3501,9 @@
       <c r="F64">
         <v>222</v>
       </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
       <c r="I64">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2485,6 +3536,9 @@
       <c r="F65">
         <v>178</v>
       </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
       <c r="I65">
         <f t="shared" si="0"/>
         <v>1.2108843537414966</v>
@@ -2517,6 +3571,9 @@
       <c r="F66">
         <v>183</v>
       </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
       <c r="I66">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2549,6 +3606,9 @@
       <c r="F67">
         <v>257</v>
       </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
       <c r="I67">
         <f t="shared" ref="I67:I130" si="3">D67/C67</f>
         <v>1.5467289719626167</v>
@@ -2581,6 +3641,9 @@
       <c r="F68">
         <v>192</v>
       </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
       <c r="I68">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2613,6 +3676,9 @@
       <c r="F69">
         <v>240</v>
       </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
       <c r="I69">
         <f t="shared" si="3"/>
         <v>1.3658536585365855</v>
@@ -2645,6 +3711,9 @@
       <c r="F70">
         <v>197</v>
       </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
       <c r="I70">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2677,6 +3746,9 @@
       <c r="F71">
         <v>259</v>
       </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
       <c r="I71">
         <f t="shared" si="3"/>
         <v>1.5522388059701493</v>
@@ -2709,6 +3781,9 @@
       <c r="F72">
         <v>186</v>
       </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
       <c r="I72">
         <f t="shared" si="3"/>
         <v>1.1341463414634145</v>
@@ -2741,6 +3816,9 @@
       <c r="F73">
         <v>166</v>
       </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
       <c r="I73">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2773,6 +3851,9 @@
       <c r="F74">
         <v>220</v>
       </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
       <c r="I74">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2805,6 +3886,9 @@
       <c r="F75">
         <v>244</v>
       </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
       <c r="I75">
         <f t="shared" si="3"/>
         <v>1.4824561403508771</v>
@@ -2837,6 +3921,9 @@
       <c r="F76">
         <v>276</v>
       </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
       <c r="I76">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2869,6 +3956,9 @@
       <c r="F77">
         <v>251</v>
       </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
       <c r="I77">
         <f t="shared" si="3"/>
         <v>1.4764705882352942</v>
@@ -2901,6 +3991,9 @@
       <c r="F78">
         <v>183</v>
       </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
       <c r="I78">
         <f t="shared" si="3"/>
         <v>1.2171052631578947</v>
@@ -2933,6 +4026,9 @@
       <c r="F79">
         <v>115</v>
       </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
       <c r="I79">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2965,6 +4061,9 @@
       <c r="F80">
         <v>259</v>
       </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
       <c r="I80">
         <f t="shared" si="3"/>
         <v>1.0193050193050193</v>
@@ -2997,6 +4096,9 @@
       <c r="F81">
         <v>149</v>
       </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
       <c r="I81">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3029,6 +4131,9 @@
       <c r="F82">
         <v>170</v>
       </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
       <c r="I82">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3061,6 +4166,9 @@
       <c r="F83">
         <v>197</v>
       </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
       <c r="I83">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3093,6 +4201,9 @@
       <c r="F84">
         <v>260</v>
       </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
       <c r="I84">
         <f t="shared" si="3"/>
         <v>1.4207650273224044</v>
@@ -3125,6 +4236,9 @@
       <c r="F85">
         <v>262</v>
       </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
       <c r="I85">
         <f t="shared" si="3"/>
         <v>1.5874439461883407</v>
@@ -3157,6 +4271,9 @@
       <c r="F86">
         <v>209</v>
       </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
       <c r="I86">
         <f t="shared" si="3"/>
         <v>1.1581632653061225</v>
@@ -3189,6 +4306,9 @@
       <c r="F87">
         <v>186</v>
       </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
       <c r="I87">
         <f t="shared" si="3"/>
         <v>1.2906976744186047</v>
@@ -3221,6 +4341,9 @@
       <c r="F88">
         <v>217</v>
       </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
       <c r="I88">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3253,6 +4376,9 @@
       <c r="F89">
         <v>258</v>
       </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
       <c r="I89">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3285,6 +4411,9 @@
       <c r="F90">
         <v>258</v>
       </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
       <c r="I90">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3317,6 +4446,9 @@
       <c r="F91">
         <v>228</v>
       </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
       <c r="I91">
         <f t="shared" si="3"/>
         <v>1.1014492753623188</v>
@@ -3349,6 +4481,9 @@
       <c r="F92">
         <v>162</v>
       </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
       <c r="I92">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3381,6 +4516,9 @@
       <c r="F93">
         <v>254</v>
       </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
       <c r="I93">
         <f t="shared" si="3"/>
         <v>1.3025641025641026</v>
@@ -3413,6 +4551,9 @@
       <c r="F94">
         <v>250</v>
       </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
       <c r="I94">
         <f t="shared" si="3"/>
         <v>1.4705882352941178</v>
@@ -3445,6 +4586,9 @@
       <c r="F95">
         <v>236</v>
       </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
       <c r="I95">
         <f t="shared" si="3"/>
         <v>1.0630630630630631</v>
@@ -3477,6 +4621,9 @@
       <c r="F96">
         <v>131</v>
       </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
       <c r="I96">
         <f t="shared" si="3"/>
         <v>1.1196581196581197</v>
@@ -3509,6 +4656,9 @@
       <c r="F97">
         <v>198</v>
       </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
       <c r="I97">
         <f t="shared" si="3"/>
         <v>1.2666666666666666</v>
@@ -3541,6 +4691,9 @@
       <c r="F98">
         <v>221</v>
       </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
       <c r="I98">
         <f t="shared" si="3"/>
         <v>1.3478260869565217</v>
@@ -3573,6 +4726,9 @@
       <c r="F99">
         <v>208</v>
       </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
       <c r="I99">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3605,6 +4761,9 @@
       <c r="F100">
         <v>168</v>
       </c>
+      <c r="H100">
+        <v>4</v>
+      </c>
       <c r="I100">
         <f t="shared" si="3"/>
         <v>1.0909090909090908</v>
@@ -3637,6 +4796,9 @@
       <c r="F101">
         <v>191</v>
       </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
       <c r="I101">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3668,6 +4830,9 @@
       </c>
       <c r="F102">
         <v>207</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
       </c>
       <c r="I102">
         <f t="shared" si="3"/>
@@ -3701,6 +4866,9 @@
       <c r="F103">
         <v>292</v>
       </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
       <c r="I103">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3733,6 +4901,9 @@
       <c r="F104">
         <v>308</v>
       </c>
+      <c r="H104">
+        <v>5</v>
+      </c>
       <c r="I104">
         <f t="shared" si="3"/>
         <v>1.4149377593360997</v>
@@ -3765,6 +4936,9 @@
       <c r="F105">
         <v>345</v>
       </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
       <c r="I105">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3795,7 +4969,10 @@
         <v>326</v>
       </c>
       <c r="F106">
-        <v>254</v>
+        <v>265</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
       </c>
       <c r="I106">
         <f t="shared" si="3"/>
@@ -3807,7 +4984,7 @@
       </c>
       <c r="K106">
         <f t="shared" si="5"/>
-        <v>0.95849056603773586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
@@ -3827,7 +5004,10 @@
         <v>333</v>
       </c>
       <c r="F107">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="H107">
+        <v>5</v>
       </c>
       <c r="I107">
         <f t="shared" si="3"/>
@@ -3839,7 +5019,7 @@
       </c>
       <c r="K107">
         <f t="shared" si="5"/>
-        <v>0.99645390070921991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
@@ -3861,6 +5041,9 @@
       <c r="F108">
         <v>218</v>
       </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
       <c r="I108">
         <f t="shared" si="3"/>
         <v>1.0738916256157636</v>
@@ -3893,6 +5076,9 @@
       <c r="F109">
         <v>214</v>
       </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
       <c r="I109">
         <f t="shared" si="3"/>
         <v>1.3349753694581281</v>
@@ -3925,6 +5111,9 @@
       <c r="F110">
         <v>300</v>
       </c>
+      <c r="H110">
+        <v>5</v>
+      </c>
       <c r="I110">
         <f t="shared" si="3"/>
         <v>1.4360189573459716</v>
@@ -3957,6 +5146,9 @@
       <c r="F111">
         <v>326</v>
       </c>
+      <c r="H111">
+        <v>5</v>
+      </c>
       <c r="I111">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3989,6 +5181,9 @@
       <c r="F112">
         <v>179</v>
       </c>
+      <c r="H112">
+        <v>5</v>
+      </c>
       <c r="I112">
         <f t="shared" si="3"/>
         <v>1.0591715976331362</v>
@@ -4021,6 +5216,9 @@
       <c r="F113">
         <v>256</v>
       </c>
+      <c r="H113">
+        <v>5</v>
+      </c>
       <c r="I113">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4053,6 +5251,9 @@
       <c r="F114">
         <v>298</v>
       </c>
+      <c r="H114">
+        <v>5</v>
+      </c>
       <c r="I114">
         <f t="shared" si="3"/>
         <v>1.4825870646766168</v>
@@ -4085,6 +5286,9 @@
       <c r="F115">
         <v>308</v>
       </c>
+      <c r="H115">
+        <v>5</v>
+      </c>
       <c r="I115">
         <f t="shared" si="3"/>
         <v>1.0340909090909092</v>
@@ -4117,6 +5321,9 @@
       <c r="F116">
         <v>336</v>
       </c>
+      <c r="H116">
+        <v>5</v>
+      </c>
       <c r="I116">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4149,6 +5356,9 @@
       <c r="F117">
         <v>203</v>
       </c>
+      <c r="H117">
+        <v>5</v>
+      </c>
       <c r="I117">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4181,6 +5391,9 @@
       <c r="F118">
         <v>305</v>
       </c>
+      <c r="H118">
+        <v>5</v>
+      </c>
       <c r="I118">
         <f t="shared" si="3"/>
         <v>1.2938775510204081</v>
@@ -4213,6 +5426,9 @@
       <c r="F119">
         <v>175</v>
       </c>
+      <c r="H119">
+        <v>5</v>
+      </c>
       <c r="I119">
         <f t="shared" si="3"/>
         <v>1.0479041916167664</v>
@@ -4245,6 +5461,9 @@
       <c r="F120">
         <v>182</v>
       </c>
+      <c r="H120">
+        <v>5</v>
+      </c>
       <c r="I120">
         <f t="shared" si="3"/>
         <v>1.0340909090909092</v>
@@ -4277,6 +5496,9 @@
       <c r="F121">
         <v>318</v>
       </c>
+      <c r="H121">
+        <v>5</v>
+      </c>
       <c r="I121">
         <f t="shared" si="3"/>
         <v>1.2569169960474309</v>
@@ -4309,6 +5531,9 @@
       <c r="F122">
         <v>291</v>
       </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
       <c r="I122">
         <f t="shared" si="3"/>
         <v>1.1687763713080168</v>
@@ -4341,6 +5566,9 @@
       <c r="F123">
         <v>266</v>
       </c>
+      <c r="H123">
+        <v>5</v>
+      </c>
       <c r="I123">
         <f t="shared" si="3"/>
         <v>1.4444444444444444</v>
@@ -4373,6 +5601,9 @@
       <c r="F124">
         <v>207</v>
       </c>
+      <c r="H124">
+        <v>5</v>
+      </c>
       <c r="I124">
         <f t="shared" si="3"/>
         <v>1.0298507462686568</v>
@@ -4405,6 +5636,9 @@
       <c r="F125">
         <v>220</v>
       </c>
+      <c r="H125">
+        <v>5</v>
+      </c>
       <c r="I125">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4437,6 +5671,9 @@
       <c r="F126">
         <v>309</v>
       </c>
+      <c r="H126">
+        <v>5</v>
+      </c>
       <c r="I126">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4469,6 +5706,9 @@
       <c r="F127">
         <v>211</v>
       </c>
+      <c r="H127">
+        <v>5</v>
+      </c>
       <c r="I127">
         <f t="shared" si="3"/>
         <v>1.0932642487046633</v>
@@ -4501,6 +5741,9 @@
       <c r="F128">
         <v>312</v>
       </c>
+      <c r="H128">
+        <v>5</v>
+      </c>
       <c r="I128">
         <f t="shared" si="3"/>
         <v>1.3359375</v>
@@ -4533,6 +5776,9 @@
       <c r="F129">
         <v>282</v>
       </c>
+      <c r="H129">
+        <v>5</v>
+      </c>
       <c r="I129">
         <f t="shared" si="3"/>
         <v>1.4070351758793971</v>
@@ -4565,6 +5811,9 @@
       <c r="F130">
         <v>261</v>
       </c>
+      <c r="H130">
+        <v>5</v>
+      </c>
       <c r="I130">
         <f t="shared" si="3"/>
         <v>1.4108108108108108</v>
@@ -4597,6 +5846,9 @@
       <c r="F131">
         <v>248</v>
       </c>
+      <c r="H131">
+        <v>5</v>
+      </c>
       <c r="I131">
         <f t="shared" ref="I131:I194" si="6">D131/C131</f>
         <v>1</v>
@@ -4629,6 +5881,9 @@
       <c r="F132">
         <v>264</v>
       </c>
+      <c r="H132">
+        <v>5</v>
+      </c>
       <c r="I132">
         <f t="shared" si="6"/>
         <v>1.3463414634146342</v>
@@ -4661,6 +5916,9 @@
       <c r="F133">
         <v>278</v>
       </c>
+      <c r="H133">
+        <v>5</v>
+      </c>
       <c r="I133">
         <f t="shared" si="6"/>
         <v>1.3195876288659794</v>
@@ -4693,6 +5951,9 @@
       <c r="F134">
         <v>266</v>
       </c>
+      <c r="H134">
+        <v>5</v>
+      </c>
       <c r="I134">
         <f t="shared" si="6"/>
         <v>1.0946502057613168</v>
@@ -4725,6 +5986,9 @@
       <c r="F135">
         <v>288</v>
       </c>
+      <c r="H135">
+        <v>5</v>
+      </c>
       <c r="I135">
         <f t="shared" si="6"/>
         <v>1.0282685512367491</v>
@@ -4757,6 +6021,9 @@
       <c r="F136">
         <v>135</v>
       </c>
+      <c r="H136">
+        <v>5</v>
+      </c>
       <c r="I136">
         <f t="shared" si="6"/>
         <v>1.0074626865671641</v>
@@ -4789,6 +6056,9 @@
       <c r="F137">
         <v>308</v>
       </c>
+      <c r="H137">
+        <v>5</v>
+      </c>
       <c r="I137">
         <f t="shared" si="6"/>
         <v>1.178082191780822</v>
@@ -4821,6 +6091,9 @@
       <c r="F138">
         <v>288</v>
       </c>
+      <c r="H138">
+        <v>5</v>
+      </c>
       <c r="I138">
         <f t="shared" si="6"/>
         <v>1.1932367149758454</v>
@@ -4853,6 +6126,9 @@
       <c r="F139">
         <v>335</v>
       </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
       <c r="I139">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -4885,6 +6161,9 @@
       <c r="F140">
         <v>364</v>
       </c>
+      <c r="H140">
+        <v>5</v>
+      </c>
       <c r="I140">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -4917,6 +6196,9 @@
       <c r="F141">
         <v>303</v>
       </c>
+      <c r="H141">
+        <v>5</v>
+      </c>
       <c r="I141">
         <f t="shared" si="6"/>
         <v>1.1319999999999999</v>
@@ -4949,6 +6231,9 @@
       <c r="F142">
         <v>250</v>
       </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
       <c r="I142">
         <f t="shared" si="6"/>
         <v>1.1013215859030836</v>
@@ -4981,6 +6266,9 @@
       <c r="F143">
         <v>264</v>
       </c>
+      <c r="H143">
+        <v>5</v>
+      </c>
       <c r="I143">
         <f t="shared" si="6"/>
         <v>1.2831050228310503</v>
@@ -5013,6 +6301,9 @@
       <c r="F144">
         <v>301</v>
       </c>
+      <c r="H144">
+        <v>5</v>
+      </c>
       <c r="I144">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5045,6 +6336,9 @@
       <c r="F145">
         <v>215</v>
       </c>
+      <c r="H145">
+        <v>5</v>
+      </c>
       <c r="I145">
         <f t="shared" si="6"/>
         <v>1.2584269662921348</v>
@@ -5077,6 +6371,9 @@
       <c r="F146">
         <v>189</v>
       </c>
+      <c r="H146">
+        <v>5</v>
+      </c>
       <c r="I146">
         <f t="shared" si="6"/>
         <v>1.2797202797202798</v>
@@ -5107,7 +6404,10 @@
         <v>305</v>
       </c>
       <c r="F147">
-        <v>274</v>
+        <v>279</v>
+      </c>
+      <c r="H147">
+        <v>5</v>
       </c>
       <c r="I147">
         <f t="shared" si="6"/>
@@ -5119,7 +6419,7 @@
       </c>
       <c r="K147">
         <f t="shared" si="8"/>
-        <v>0.98207885304659504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
@@ -5141,6 +6441,9 @@
       <c r="F148">
         <v>349</v>
       </c>
+      <c r="H148">
+        <v>5</v>
+      </c>
       <c r="I148">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5173,6 +6476,9 @@
       <c r="F149">
         <v>237</v>
       </c>
+      <c r="H149">
+        <v>5</v>
+      </c>
       <c r="I149">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5205,6 +6511,9 @@
       <c r="F150">
         <v>293</v>
       </c>
+      <c r="H150">
+        <v>5</v>
+      </c>
       <c r="I150">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5237,6 +6546,9 @@
       <c r="F151">
         <v>219</v>
       </c>
+      <c r="H151">
+        <v>5</v>
+      </c>
       <c r="I151">
         <f t="shared" si="6"/>
         <v>1.0895522388059702</v>
@@ -5269,6 +6581,9 @@
       <c r="F152">
         <v>314</v>
       </c>
+      <c r="H152">
+        <v>6</v>
+      </c>
       <c r="I152">
         <f t="shared" si="6"/>
         <v>1.2611940298507462</v>
@@ -5301,6 +6616,9 @@
       <c r="F153">
         <v>269</v>
       </c>
+      <c r="H153">
+        <v>6</v>
+      </c>
       <c r="I153">
         <f t="shared" si="6"/>
         <v>1.2450592885375493</v>
@@ -5333,6 +6651,9 @@
       <c r="F154">
         <v>248</v>
       </c>
+      <c r="H154">
+        <v>6</v>
+      </c>
       <c r="I154">
         <f t="shared" si="6"/>
         <v>1.3701657458563536</v>
@@ -5365,6 +6686,9 @@
       <c r="F155">
         <v>319</v>
       </c>
+      <c r="H155">
+        <v>6</v>
+      </c>
       <c r="I155">
         <f t="shared" si="6"/>
         <v>1.4396551724137931</v>
@@ -5397,6 +6721,9 @@
       <c r="F156">
         <v>359</v>
       </c>
+      <c r="H156">
+        <v>6</v>
+      </c>
       <c r="I156">
         <f t="shared" si="6"/>
         <v>1.0732600732600732</v>
@@ -5429,6 +6756,9 @@
       <c r="F157">
         <v>276</v>
       </c>
+      <c r="H157">
+        <v>6</v>
+      </c>
       <c r="I157">
         <f t="shared" si="6"/>
         <v>1.3823529411764706</v>
@@ -5461,6 +6791,9 @@
       <c r="F158">
         <v>269</v>
       </c>
+      <c r="H158">
+        <v>6</v>
+      </c>
       <c r="I158">
         <f t="shared" si="6"/>
         <v>1.0267175572519085</v>
@@ -5493,6 +6826,9 @@
       <c r="F159">
         <v>283</v>
       </c>
+      <c r="H159">
+        <v>6</v>
+      </c>
       <c r="I159">
         <f t="shared" si="6"/>
         <v>1.2818181818181817</v>
@@ -5525,6 +6861,9 @@
       <c r="F160">
         <v>288</v>
       </c>
+      <c r="H160">
+        <v>6</v>
+      </c>
       <c r="I160">
         <f t="shared" si="6"/>
         <v>1.3766233766233766</v>
@@ -5557,6 +6896,9 @@
       <c r="F161">
         <v>289</v>
       </c>
+      <c r="H161">
+        <v>6</v>
+      </c>
       <c r="I161">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5589,6 +6931,9 @@
       <c r="F162">
         <v>269</v>
       </c>
+      <c r="H162">
+        <v>6</v>
+      </c>
       <c r="I162">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5621,6 +6966,9 @@
       <c r="F163">
         <v>288</v>
       </c>
+      <c r="H163">
+        <v>6</v>
+      </c>
       <c r="I163">
         <f t="shared" si="6"/>
         <v>1.0354609929078014</v>
@@ -5653,6 +7001,9 @@
       <c r="F164">
         <v>284</v>
       </c>
+      <c r="H164">
+        <v>6</v>
+      </c>
       <c r="I164">
         <f t="shared" si="6"/>
         <v>1.0760456273764258</v>
@@ -5685,6 +7036,9 @@
       <c r="F165">
         <v>293</v>
       </c>
+      <c r="H165">
+        <v>6</v>
+      </c>
       <c r="I165">
         <f t="shared" si="6"/>
         <v>1.123015873015873</v>
@@ -5717,6 +7071,9 @@
       <c r="F166">
         <v>204</v>
       </c>
+      <c r="H166">
+        <v>6</v>
+      </c>
       <c r="I166">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5749,6 +7106,9 @@
       <c r="F167">
         <v>323</v>
       </c>
+      <c r="H167">
+        <v>6</v>
+      </c>
       <c r="I167">
         <f t="shared" si="6"/>
         <v>1.5091743119266054</v>
@@ -5781,6 +7141,9 @@
       <c r="F168">
         <v>319</v>
       </c>
+      <c r="H168">
+        <v>6</v>
+      </c>
       <c r="I168">
         <f t="shared" si="6"/>
         <v>1.3956834532374101</v>
@@ -5813,6 +7176,9 @@
       <c r="F169">
         <v>311</v>
       </c>
+      <c r="H169">
+        <v>6</v>
+      </c>
       <c r="I169">
         <f t="shared" si="6"/>
         <v>1.5097087378640777</v>
@@ -5845,6 +7211,9 @@
       <c r="F170">
         <v>297</v>
       </c>
+      <c r="H170">
+        <v>6</v>
+      </c>
       <c r="I170">
         <f t="shared" si="6"/>
         <v>1.4779116465863453</v>
@@ -5877,6 +7246,9 @@
       <c r="F171">
         <v>279</v>
       </c>
+      <c r="H171">
+        <v>6</v>
+      </c>
       <c r="I171">
         <f t="shared" si="6"/>
         <v>1.4684210526315788</v>
@@ -5909,6 +7281,9 @@
       <c r="F172">
         <v>306</v>
       </c>
+      <c r="H172">
+        <v>6</v>
+      </c>
       <c r="I172">
         <f t="shared" si="6"/>
         <v>1.3133640552995391</v>
@@ -5941,6 +7316,9 @@
       <c r="F173">
         <v>240</v>
       </c>
+      <c r="H173">
+        <v>6</v>
+      </c>
       <c r="I173">
         <f t="shared" si="6"/>
         <v>1.0480349344978166</v>
@@ -5973,6 +7351,9 @@
       <c r="F174">
         <v>321</v>
       </c>
+      <c r="H174">
+        <v>6</v>
+      </c>
       <c r="I174">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -6005,6 +7386,9 @@
       <c r="F175">
         <v>225</v>
       </c>
+      <c r="H175">
+        <v>6</v>
+      </c>
       <c r="I175">
         <f t="shared" si="6"/>
         <v>1.2205128205128206</v>
@@ -6037,6 +7421,9 @@
       <c r="F176">
         <v>287</v>
       </c>
+      <c r="H176">
+        <v>6</v>
+      </c>
       <c r="I176">
         <f t="shared" si="6"/>
         <v>1.4444444444444444</v>
@@ -6069,6 +7456,9 @@
       <c r="F177">
         <v>378</v>
       </c>
+      <c r="H177">
+        <v>6</v>
+      </c>
       <c r="I177">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -6101,6 +7491,9 @@
       <c r="F178">
         <v>305</v>
       </c>
+      <c r="H178">
+        <v>6</v>
+      </c>
       <c r="I178">
         <f t="shared" si="6"/>
         <v>1.2612612612612613</v>
@@ -6133,6 +7526,9 @@
       <c r="F179">
         <v>354</v>
       </c>
+      <c r="H179">
+        <v>6</v>
+      </c>
       <c r="I179">
         <f t="shared" si="6"/>
         <v>1.3688888888888888</v>
@@ -6165,6 +7561,9 @@
       <c r="F180">
         <v>312</v>
       </c>
+      <c r="H180">
+        <v>6</v>
+      </c>
       <c r="I180">
         <f t="shared" si="6"/>
         <v>1.0850202429149798</v>
@@ -6197,6 +7596,9 @@
       <c r="F181">
         <v>271</v>
       </c>
+      <c r="H181">
+        <v>6</v>
+      </c>
       <c r="I181">
         <f t="shared" si="6"/>
         <v>1.5463917525773196</v>
@@ -6229,6 +7631,9 @@
       <c r="F182">
         <v>321</v>
       </c>
+      <c r="H182">
+        <v>6</v>
+      </c>
       <c r="I182">
         <f t="shared" si="6"/>
         <v>1.0487804878048781</v>
@@ -6261,6 +7666,9 @@
       <c r="F183">
         <v>313</v>
       </c>
+      <c r="H183">
+        <v>6</v>
+      </c>
       <c r="I183">
         <f t="shared" si="6"/>
         <v>1.0856031128404668</v>
@@ -6293,6 +7701,9 @@
       <c r="F184">
         <v>344</v>
       </c>
+      <c r="H184">
+        <v>6</v>
+      </c>
       <c r="I184">
         <f t="shared" si="6"/>
         <v>1.4841269841269842</v>
@@ -6325,6 +7736,9 @@
       <c r="F185">
         <v>368</v>
       </c>
+      <c r="H185">
+        <v>6</v>
+      </c>
       <c r="I185">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -6357,6 +7771,9 @@
       <c r="F186">
         <v>290</v>
       </c>
+      <c r="H186">
+        <v>6</v>
+      </c>
       <c r="I186">
         <f t="shared" si="6"/>
         <v>1.4427860696517414</v>
@@ -6389,6 +7806,9 @@
       <c r="F187">
         <v>318</v>
       </c>
+      <c r="H187">
+        <v>6</v>
+      </c>
       <c r="I187">
         <f t="shared" si="6"/>
         <v>1.0866425992779782</v>
@@ -6421,6 +7841,9 @@
       <c r="F188">
         <v>276</v>
       </c>
+      <c r="H188">
+        <v>6</v>
+      </c>
       <c r="I188">
         <f t="shared" si="6"/>
         <v>1.0615384615384615</v>
@@ -6453,6 +7876,9 @@
       <c r="F189">
         <v>294</v>
       </c>
+      <c r="H189">
+        <v>6</v>
+      </c>
       <c r="I189">
         <f t="shared" si="6"/>
         <v>1.0068493150684932</v>
@@ -6485,6 +7911,9 @@
       <c r="F190">
         <v>201</v>
       </c>
+      <c r="H190">
+        <v>6</v>
+      </c>
       <c r="I190">
         <f t="shared" si="6"/>
         <v>1.1318681318681318</v>
@@ -6517,6 +7946,9 @@
       <c r="F191">
         <v>318</v>
       </c>
+      <c r="H191">
+        <v>6</v>
+      </c>
       <c r="I191">
         <f t="shared" si="6"/>
         <v>1.4008620689655173</v>
@@ -6549,6 +7981,9 @@
       <c r="F192">
         <v>126</v>
       </c>
+      <c r="H192">
+        <v>6</v>
+      </c>
       <c r="I192">
         <f t="shared" si="6"/>
         <v>1.2616822429906542</v>
@@ -6581,6 +8016,9 @@
       <c r="F193">
         <v>277</v>
       </c>
+      <c r="H193">
+        <v>6</v>
+      </c>
       <c r="I193">
         <f t="shared" si="6"/>
         <v>1.1660516605166051</v>
@@ -6613,6 +8051,9 @@
       <c r="F194">
         <v>231</v>
       </c>
+      <c r="H194">
+        <v>6</v>
+      </c>
       <c r="I194">
         <f t="shared" si="6"/>
         <v>1.0405405405405406</v>
@@ -6645,6 +8086,9 @@
       <c r="F195">
         <v>329</v>
       </c>
+      <c r="H195">
+        <v>6</v>
+      </c>
       <c r="I195">
         <f t="shared" ref="I195:I258" si="9">D195/C195</f>
         <v>1.1044176706827309</v>
@@ -6677,6 +8121,9 @@
       <c r="F196">
         <v>192</v>
       </c>
+      <c r="H196">
+        <v>6</v>
+      </c>
       <c r="I196">
         <f t="shared" si="9"/>
         <v>1.2011494252873562</v>
@@ -6709,6 +8156,9 @@
       <c r="F197">
         <v>258</v>
       </c>
+      <c r="H197">
+        <v>6</v>
+      </c>
       <c r="I197">
         <f t="shared" si="9"/>
         <v>1.3163265306122449</v>
@@ -6741,6 +8191,9 @@
       <c r="F198">
         <v>322</v>
       </c>
+      <c r="H198">
+        <v>6</v>
+      </c>
       <c r="I198">
         <f t="shared" si="9"/>
         <v>1.4608695652173913</v>
@@ -6773,6 +8226,9 @@
       <c r="F199">
         <v>263</v>
       </c>
+      <c r="H199">
+        <v>6</v>
+      </c>
       <c r="I199">
         <f t="shared" si="9"/>
         <v>1</v>
@@ -6805,6 +8261,9 @@
       <c r="F200">
         <v>307</v>
       </c>
+      <c r="H200">
+        <v>6</v>
+      </c>
       <c r="I200">
         <f t="shared" si="9"/>
         <v>1.5219512195121951</v>
@@ -6837,6 +8296,9 @@
       <c r="F201">
         <v>372</v>
       </c>
+      <c r="H201">
+        <v>6</v>
+      </c>
       <c r="I201">
         <f t="shared" si="9"/>
         <v>1.0363636363636364</v>
@@ -6864,10 +8326,13 @@
         <v>255</v>
       </c>
       <c r="E202">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F202">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="H202">
+        <v>7</v>
       </c>
       <c r="I202">
         <f t="shared" si="9"/>
@@ -6875,11 +8340,11 @@
       </c>
       <c r="J202">
         <f t="shared" si="10"/>
-        <v>0.98604651162790702</v>
+        <v>1</v>
       </c>
       <c r="K202">
         <f t="shared" si="11"/>
-        <v>0.98604651162790702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
@@ -6901,6 +8366,9 @@
       <c r="F203">
         <v>286</v>
       </c>
+      <c r="H203">
+        <v>7</v>
+      </c>
       <c r="I203">
         <f t="shared" si="9"/>
         <v>1.3740458015267176</v>
@@ -6933,6 +8401,9 @@
       <c r="F204">
         <v>352</v>
       </c>
+      <c r="H204">
+        <v>7</v>
+      </c>
       <c r="I204">
         <f t="shared" si="9"/>
         <v>1.308300395256917</v>
@@ -6965,6 +8436,9 @@
       <c r="F205">
         <v>264</v>
       </c>
+      <c r="H205">
+        <v>7</v>
+      </c>
       <c r="I205">
         <f t="shared" si="9"/>
         <v>1.1724137931034482</v>
@@ -6997,6 +8471,9 @@
       <c r="F206">
         <v>327</v>
       </c>
+      <c r="H206">
+        <v>7</v>
+      </c>
       <c r="I206">
         <f t="shared" si="9"/>
         <v>1.4034334763948497</v>
@@ -7029,6 +8506,9 @@
       <c r="F207">
         <v>265</v>
       </c>
+      <c r="H207">
+        <v>7</v>
+      </c>
       <c r="I207">
         <f t="shared" si="9"/>
         <v>1.0474308300395256</v>
@@ -7061,6 +8541,9 @@
       <c r="F208">
         <v>364</v>
       </c>
+      <c r="H208">
+        <v>7</v>
+      </c>
       <c r="I208">
         <f t="shared" si="9"/>
         <v>1.25</v>
@@ -7093,6 +8576,9 @@
       <c r="F209">
         <v>277</v>
       </c>
+      <c r="H209">
+        <v>7</v>
+      </c>
       <c r="I209">
         <f t="shared" si="9"/>
         <v>1.4607843137254901</v>
@@ -7125,6 +8611,9 @@
       <c r="F210">
         <v>350</v>
       </c>
+      <c r="H210">
+        <v>7</v>
+      </c>
       <c r="I210">
         <f t="shared" si="9"/>
         <v>1.4449339207048457</v>
@@ -7157,6 +8646,9 @@
       <c r="F211">
         <v>376</v>
       </c>
+      <c r="H211">
+        <v>7</v>
+      </c>
       <c r="I211">
         <f t="shared" si="9"/>
         <v>1.0082644628099173</v>
@@ -7189,6 +8681,9 @@
       <c r="F212">
         <v>298</v>
       </c>
+      <c r="H212">
+        <v>7</v>
+      </c>
       <c r="I212">
         <f t="shared" si="9"/>
         <v>1.45</v>
@@ -7221,6 +8716,9 @@
       <c r="F213">
         <v>329</v>
       </c>
+      <c r="H213">
+        <v>7</v>
+      </c>
       <c r="I213">
         <f t="shared" si="9"/>
         <v>1.1081081081081081</v>
@@ -7253,6 +8751,9 @@
       <c r="F214">
         <v>328</v>
       </c>
+      <c r="H214">
+        <v>7</v>
+      </c>
       <c r="I214">
         <f t="shared" si="9"/>
         <v>1.08</v>
@@ -7285,6 +8786,9 @@
       <c r="F215">
         <v>375</v>
       </c>
+      <c r="H215">
+        <v>7</v>
+      </c>
       <c r="I215">
         <f t="shared" si="9"/>
         <v>1.0573770491803278</v>
@@ -7317,6 +8821,9 @@
       <c r="F216">
         <v>378</v>
       </c>
+      <c r="H216">
+        <v>7</v>
+      </c>
       <c r="I216">
         <f t="shared" si="9"/>
         <v>1.0534351145038168</v>
@@ -7349,6 +8856,9 @@
       <c r="F217">
         <v>294</v>
       </c>
+      <c r="H217">
+        <v>7</v>
+      </c>
       <c r="I217">
         <f t="shared" si="9"/>
         <v>1.4217391304347826</v>
@@ -7381,6 +8891,9 @@
       <c r="F218">
         <v>325</v>
       </c>
+      <c r="H218">
+        <v>7</v>
+      </c>
       <c r="I218">
         <f t="shared" si="9"/>
         <v>1.2357414448669202</v>
@@ -7413,6 +8926,9 @@
       <c r="F219">
         <v>332</v>
       </c>
+      <c r="H219">
+        <v>7</v>
+      </c>
       <c r="I219">
         <f t="shared" si="9"/>
         <v>1.0443548387096775</v>
@@ -7445,6 +8961,9 @@
       <c r="F220">
         <v>332</v>
       </c>
+      <c r="H220">
+        <v>7</v>
+      </c>
       <c r="I220">
         <f t="shared" si="9"/>
         <v>1.0945945945945945</v>
@@ -7477,6 +8996,9 @@
       <c r="F221">
         <v>264</v>
       </c>
+      <c r="H221">
+        <v>7</v>
+      </c>
       <c r="I221">
         <f t="shared" si="9"/>
         <v>1.071969696969697</v>
@@ -7509,6 +9031,9 @@
       <c r="F222">
         <v>276</v>
       </c>
+      <c r="H222">
+        <v>7</v>
+      </c>
       <c r="I222">
         <f t="shared" si="9"/>
         <v>1.3565217391304347</v>
@@ -7541,6 +9066,9 @@
       <c r="F223">
         <v>318</v>
       </c>
+      <c r="H223">
+        <v>7</v>
+      </c>
       <c r="I223">
         <f t="shared" si="9"/>
         <v>1.196</v>
@@ -7573,6 +9101,9 @@
       <c r="F224">
         <v>341</v>
       </c>
+      <c r="H224">
+        <v>7</v>
+      </c>
       <c r="I224">
         <f t="shared" si="9"/>
         <v>1.2073170731707317</v>
@@ -7605,6 +9136,9 @@
       <c r="F225">
         <v>320</v>
       </c>
+      <c r="H225">
+        <v>7</v>
+      </c>
       <c r="I225">
         <f t="shared" si="9"/>
         <v>1.2489795918367348</v>
@@ -7637,6 +9171,9 @@
       <c r="F226">
         <v>228</v>
       </c>
+      <c r="H226">
+        <v>7</v>
+      </c>
       <c r="I226">
         <f t="shared" si="9"/>
         <v>1.1442307692307692</v>
@@ -7669,6 +9206,9 @@
       <c r="F227">
         <v>292</v>
       </c>
+      <c r="H227">
+        <v>7</v>
+      </c>
       <c r="I227">
         <f t="shared" si="9"/>
         <v>1.1187739463601531</v>
@@ -7701,6 +9241,9 @@
       <c r="F228">
         <v>332</v>
       </c>
+      <c r="H228">
+        <v>7</v>
+      </c>
       <c r="I228">
         <f t="shared" si="9"/>
         <v>1</v>
@@ -7733,6 +9276,9 @@
       <c r="F229">
         <v>283</v>
       </c>
+      <c r="H229">
+        <v>7</v>
+      </c>
       <c r="I229">
         <f t="shared" si="9"/>
         <v>1</v>
@@ -7765,6 +9311,9 @@
       <c r="F230">
         <v>325</v>
       </c>
+      <c r="H230">
+        <v>7</v>
+      </c>
       <c r="I230">
         <f t="shared" si="9"/>
         <v>1.029535864978903</v>
@@ -7797,6 +9346,9 @@
       <c r="F231">
         <v>314</v>
       </c>
+      <c r="H231">
+        <v>7</v>
+      </c>
       <c r="I231">
         <f t="shared" si="9"/>
         <v>1.1946564885496183</v>
@@ -7829,6 +9381,9 @@
       <c r="F232">
         <v>298</v>
       </c>
+      <c r="H232">
+        <v>7</v>
+      </c>
       <c r="I232">
         <f t="shared" si="9"/>
         <v>1.3484162895927603</v>
@@ -7861,6 +9416,9 @@
       <c r="F233">
         <v>236</v>
       </c>
+      <c r="H233">
+        <v>7</v>
+      </c>
       <c r="I233">
         <f t="shared" si="9"/>
         <v>1.0047169811320755</v>
@@ -7893,6 +9451,9 @@
       <c r="F234">
         <v>314</v>
       </c>
+      <c r="H234">
+        <v>7</v>
+      </c>
       <c r="I234">
         <f t="shared" si="9"/>
         <v>1.3083333333333333</v>
@@ -7925,6 +9486,9 @@
       <c r="F235">
         <v>349</v>
       </c>
+      <c r="H235">
+        <v>7</v>
+      </c>
       <c r="I235">
         <f t="shared" si="9"/>
         <v>1.1940298507462686</v>
@@ -7957,6 +9521,9 @@
       <c r="F236">
         <v>299</v>
       </c>
+      <c r="H236">
+        <v>7</v>
+      </c>
       <c r="I236">
         <f t="shared" si="9"/>
         <v>1.2431372549019608</v>
@@ -7989,6 +9556,9 @@
       <c r="F237">
         <v>203</v>
       </c>
+      <c r="H237">
+        <v>7</v>
+      </c>
       <c r="I237">
         <f t="shared" si="9"/>
         <v>1.032258064516129</v>
@@ -8021,6 +9591,9 @@
       <c r="F238">
         <v>347</v>
       </c>
+      <c r="H238">
+        <v>7</v>
+      </c>
       <c r="I238">
         <f t="shared" si="9"/>
         <v>1.534412955465587</v>
@@ -8053,6 +9626,9 @@
       <c r="F239">
         <v>205</v>
       </c>
+      <c r="H239">
+        <v>7</v>
+      </c>
       <c r="I239">
         <f t="shared" si="9"/>
         <v>1.1021505376344085</v>
@@ -8085,6 +9661,9 @@
       <c r="F240">
         <v>266</v>
       </c>
+      <c r="H240">
+        <v>7</v>
+      </c>
       <c r="I240">
         <f t="shared" si="9"/>
         <v>1.1083333333333334</v>
@@ -8117,6 +9696,9 @@
       <c r="F241">
         <v>269</v>
       </c>
+      <c r="H241">
+        <v>7</v>
+      </c>
       <c r="I241">
         <f t="shared" si="9"/>
         <v>1.3886462882096069</v>
@@ -8149,6 +9731,9 @@
       <c r="F242">
         <v>186</v>
       </c>
+      <c r="H242">
+        <v>7</v>
+      </c>
       <c r="I242">
         <f t="shared" si="9"/>
         <v>1.128654970760234</v>
@@ -8181,6 +9766,9 @@
       <c r="F243">
         <v>293</v>
       </c>
+      <c r="H243">
+        <v>7</v>
+      </c>
       <c r="I243">
         <f t="shared" si="9"/>
         <v>1.1389961389961389</v>
@@ -8213,6 +9801,9 @@
       <c r="F244">
         <v>225</v>
       </c>
+      <c r="H244">
+        <v>7</v>
+      </c>
       <c r="I244">
         <f t="shared" si="9"/>
         <v>1.2192513368983957</v>
@@ -8245,6 +9836,9 @@
       <c r="F245">
         <v>349</v>
       </c>
+      <c r="H245">
+        <v>7</v>
+      </c>
       <c r="I245">
         <f t="shared" si="9"/>
         <v>1.5778688524590163</v>
@@ -8277,6 +9871,9 @@
       <c r="F246">
         <v>267</v>
       </c>
+      <c r="H246">
+        <v>7</v>
+      </c>
       <c r="I246">
         <f t="shared" si="9"/>
         <v>1.3217391304347825</v>
@@ -8309,6 +9906,9 @@
       <c r="F247">
         <v>266</v>
       </c>
+      <c r="H247">
+        <v>7</v>
+      </c>
       <c r="I247">
         <f t="shared" si="9"/>
         <v>1.0538461538461539</v>
@@ -8341,6 +9941,9 @@
       <c r="F248">
         <v>278</v>
       </c>
+      <c r="H248">
+        <v>7</v>
+      </c>
       <c r="I248">
         <f t="shared" si="9"/>
         <v>1.2213740458015268</v>
@@ -8373,6 +9976,9 @@
       <c r="F249">
         <v>222</v>
       </c>
+      <c r="H249">
+        <v>7</v>
+      </c>
       <c r="I249">
         <f t="shared" si="9"/>
         <v>1.0422535211267605</v>
@@ -8405,6 +10011,9 @@
       <c r="F250">
         <v>283</v>
       </c>
+      <c r="H250">
+        <v>7</v>
+      </c>
       <c r="I250">
         <f t="shared" si="9"/>
         <v>1.2029520295202951</v>
@@ -8437,6 +10046,9 @@
       <c r="F251">
         <v>265</v>
       </c>
+      <c r="H251">
+        <v>7</v>
+      </c>
       <c r="I251">
         <f t="shared" si="9"/>
         <v>1.0890052356020943</v>
@@ -8469,6 +10081,9 @@
       <c r="F252">
         <v>284</v>
       </c>
+      <c r="H252">
+        <v>8</v>
+      </c>
       <c r="I252">
         <f t="shared" si="9"/>
         <v>1.0038759689922481</v>
@@ -8501,6 +10116,9 @@
       <c r="F253">
         <v>274</v>
       </c>
+      <c r="H253">
+        <v>8</v>
+      </c>
       <c r="I253">
         <f t="shared" si="9"/>
         <v>1.48</v>
@@ -8533,6 +10151,9 @@
       <c r="F254">
         <v>329</v>
       </c>
+      <c r="H254">
+        <v>8</v>
+      </c>
       <c r="I254">
         <f t="shared" si="9"/>
         <v>1.0579710144927537</v>
@@ -8565,6 +10186,9 @@
       <c r="F255">
         <v>302</v>
       </c>
+      <c r="H255">
+        <v>8</v>
+      </c>
       <c r="I255">
         <f t="shared" si="9"/>
         <v>1.5778894472361809</v>
@@ -8597,6 +10221,9 @@
       <c r="F256">
         <v>299</v>
       </c>
+      <c r="H256">
+        <v>8</v>
+      </c>
       <c r="I256">
         <f t="shared" si="9"/>
         <v>1.1288659793814433</v>
@@ -8629,6 +10256,9 @@
       <c r="F257">
         <v>338</v>
       </c>
+      <c r="H257">
+        <v>8</v>
+      </c>
       <c r="I257">
         <f t="shared" si="9"/>
         <v>1.2295719844357977</v>
@@ -8661,6 +10291,9 @@
       <c r="F258">
         <v>337</v>
       </c>
+      <c r="H258">
+        <v>8</v>
+      </c>
       <c r="I258">
         <f t="shared" si="9"/>
         <v>1.1132075471698113</v>
@@ -8693,6 +10326,9 @@
       <c r="F259">
         <v>257</v>
       </c>
+      <c r="H259">
+        <v>8</v>
+      </c>
       <c r="I259">
         <f t="shared" ref="I259:I322" si="12">D259/C259</f>
         <v>1</v>
@@ -8725,6 +10361,9 @@
       <c r="F260">
         <v>289</v>
       </c>
+      <c r="H260">
+        <v>8</v>
+      </c>
       <c r="I260">
         <f t="shared" si="12"/>
         <v>1.6846473029045643</v>
@@ -8757,6 +10396,9 @@
       <c r="F261">
         <v>279</v>
       </c>
+      <c r="H261">
+        <v>8</v>
+      </c>
       <c r="I261">
         <f t="shared" si="12"/>
         <v>1.3395348837209302</v>
@@ -8789,6 +10431,9 @@
       <c r="F262">
         <v>256</v>
       </c>
+      <c r="H262">
+        <v>8</v>
+      </c>
       <c r="I262">
         <f t="shared" si="12"/>
         <v>1.3152709359605912</v>
@@ -8821,6 +10466,9 @@
       <c r="F263">
         <v>335</v>
       </c>
+      <c r="H263">
+        <v>8</v>
+      </c>
       <c r="I263">
         <f t="shared" si="12"/>
         <v>1.0892857142857142</v>
@@ -8853,6 +10501,9 @@
       <c r="F264">
         <v>209</v>
       </c>
+      <c r="H264">
+        <v>8</v>
+      </c>
       <c r="I264">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -8885,6 +10536,9 @@
       <c r="F265">
         <v>251</v>
       </c>
+      <c r="H265">
+        <v>8</v>
+      </c>
       <c r="I265">
         <f t="shared" si="12"/>
         <v>1.0166666666666666</v>
@@ -8917,6 +10571,9 @@
       <c r="F266">
         <v>272</v>
       </c>
+      <c r="H266">
+        <v>8</v>
+      </c>
       <c r="I266">
         <f t="shared" si="12"/>
         <v>1.4409090909090909</v>
@@ -8949,6 +10606,9 @@
       <c r="F267">
         <v>316</v>
       </c>
+      <c r="H267">
+        <v>8</v>
+      </c>
       <c r="I267">
         <f t="shared" si="12"/>
         <v>1.3913043478260869</v>
@@ -8981,6 +10641,9 @@
       <c r="F268">
         <v>272</v>
       </c>
+      <c r="H268">
+        <v>8</v>
+      </c>
       <c r="I268">
         <f t="shared" si="12"/>
         <v>1.5441860465116279</v>
@@ -9013,6 +10676,9 @@
       <c r="F269">
         <v>253</v>
       </c>
+      <c r="H269">
+        <v>8</v>
+      </c>
       <c r="I269">
         <f t="shared" si="12"/>
         <v>1.0869565217391304</v>
@@ -9045,6 +10711,9 @@
       <c r="F270">
         <v>278</v>
       </c>
+      <c r="H270">
+        <v>8</v>
+      </c>
       <c r="I270">
         <f t="shared" si="12"/>
         <v>1.430622009569378</v>
@@ -9077,6 +10746,9 @@
       <c r="F271">
         <v>315</v>
       </c>
+      <c r="H271">
+        <v>8</v>
+      </c>
       <c r="I271">
         <f t="shared" si="12"/>
         <v>1.1134453781512605</v>
@@ -9109,6 +10781,9 @@
       <c r="F272">
         <v>277</v>
       </c>
+      <c r="H272">
+        <v>8</v>
+      </c>
       <c r="I272">
         <f t="shared" si="12"/>
         <v>1.167300380228137</v>
@@ -9141,6 +10816,9 @@
       <c r="F273">
         <v>321</v>
       </c>
+      <c r="H273">
+        <v>8</v>
+      </c>
       <c r="I273">
         <f t="shared" si="12"/>
         <v>1.1074380165289257</v>
@@ -9173,6 +10851,9 @@
       <c r="F274">
         <v>310</v>
       </c>
+      <c r="H274">
+        <v>8</v>
+      </c>
       <c r="I274">
         <f t="shared" si="12"/>
         <v>1.3041666666666667</v>
@@ -9205,6 +10886,9 @@
       <c r="F275">
         <v>276</v>
       </c>
+      <c r="H275">
+        <v>8</v>
+      </c>
       <c r="I275">
         <f t="shared" si="12"/>
         <v>1.1358024691358024</v>
@@ -9237,6 +10921,9 @@
       <c r="F276">
         <v>259</v>
       </c>
+      <c r="H276">
+        <v>8</v>
+      </c>
       <c r="I276">
         <f t="shared" si="12"/>
         <v>1.4475138121546962</v>
@@ -9269,6 +10956,9 @@
       <c r="F277">
         <v>309</v>
       </c>
+      <c r="H277">
+        <v>8</v>
+      </c>
       <c r="I277">
         <f t="shared" si="12"/>
         <v>1.4341085271317831</v>
@@ -9301,6 +10991,9 @@
       <c r="F278">
         <v>269</v>
       </c>
+      <c r="H278">
+        <v>8</v>
+      </c>
       <c r="I278">
         <f t="shared" si="12"/>
         <v>1.403361344537815</v>
@@ -9333,6 +11026,9 @@
       <c r="F279">
         <v>300</v>
       </c>
+      <c r="H279">
+        <v>8</v>
+      </c>
       <c r="I279">
         <f t="shared" si="12"/>
         <v>1.594142259414226</v>
@@ -9365,6 +11061,9 @@
       <c r="F280">
         <v>264</v>
       </c>
+      <c r="H280">
+        <v>8</v>
+      </c>
       <c r="I280">
         <f t="shared" si="12"/>
         <v>1.1466666666666667</v>
@@ -9397,6 +11096,9 @@
       <c r="F281">
         <v>295</v>
       </c>
+      <c r="H281">
+        <v>8</v>
+      </c>
       <c r="I281">
         <f t="shared" si="12"/>
         <v>1.1793721973094171</v>
@@ -9429,6 +11131,9 @@
       <c r="F282">
         <v>370</v>
       </c>
+      <c r="H282">
+        <v>8</v>
+      </c>
       <c r="I282">
         <f t="shared" si="12"/>
         <v>1.2053231939163498</v>
@@ -9461,6 +11166,9 @@
       <c r="F283">
         <v>331</v>
       </c>
+      <c r="H283">
+        <v>8</v>
+      </c>
       <c r="I283">
         <f t="shared" si="12"/>
         <v>1.6820276497695852</v>
@@ -9493,6 +11201,9 @@
       <c r="F284">
         <v>266</v>
       </c>
+      <c r="H284">
+        <v>8</v>
+      </c>
       <c r="I284">
         <f t="shared" si="12"/>
         <v>1.527027027027027</v>
@@ -9525,6 +11236,9 @@
       <c r="F285">
         <v>279</v>
       </c>
+      <c r="H285">
+        <v>8</v>
+      </c>
       <c r="I285">
         <f t="shared" si="12"/>
         <v>1.1268656716417911</v>
@@ -9557,6 +11271,9 @@
       <c r="F286">
         <v>334</v>
       </c>
+      <c r="H286">
+        <v>8</v>
+      </c>
       <c r="I286">
         <f t="shared" si="12"/>
         <v>1.0104166666666667</v>
@@ -9589,6 +11306,9 @@
       <c r="F287">
         <v>275</v>
       </c>
+      <c r="H287">
+        <v>8</v>
+      </c>
       <c r="I287">
         <f t="shared" si="12"/>
         <v>1.537037037037037</v>
@@ -9621,6 +11341,9 @@
       <c r="F288">
         <v>286</v>
       </c>
+      <c r="H288">
+        <v>8</v>
+      </c>
       <c r="I288">
         <f t="shared" si="12"/>
         <v>1.4602510460251046</v>
@@ -9653,6 +11376,9 @@
       <c r="F289">
         <v>295</v>
       </c>
+      <c r="H289">
+        <v>8</v>
+      </c>
       <c r="I289">
         <f t="shared" si="12"/>
         <v>1.4304347826086956</v>
@@ -9685,6 +11411,9 @@
       <c r="F290">
         <v>278</v>
       </c>
+      <c r="H290">
+        <v>8</v>
+      </c>
       <c r="I290">
         <f t="shared" si="12"/>
         <v>1.3980582524271845</v>
@@ -9717,6 +11446,9 @@
       <c r="F291">
         <v>270</v>
       </c>
+      <c r="H291">
+        <v>8</v>
+      </c>
       <c r="I291">
         <f t="shared" si="12"/>
         <v>1.1754385964912282</v>
@@ -9749,6 +11481,9 @@
       <c r="F292">
         <v>257</v>
       </c>
+      <c r="H292">
+        <v>8</v>
+      </c>
       <c r="I292">
         <f t="shared" si="12"/>
         <v>1.028</v>
@@ -9781,6 +11516,9 @@
       <c r="F293">
         <v>294</v>
       </c>
+      <c r="H293">
+        <v>8</v>
+      </c>
       <c r="I293">
         <f t="shared" si="12"/>
         <v>1.2039215686274509</v>
@@ -9813,6 +11551,9 @@
       <c r="F294">
         <v>265</v>
       </c>
+      <c r="H294">
+        <v>8</v>
+      </c>
       <c r="I294">
         <f t="shared" si="12"/>
         <v>1.1485148514851484</v>
@@ -9845,6 +11586,9 @@
       <c r="F295">
         <v>270</v>
       </c>
+      <c r="H295">
+        <v>8</v>
+      </c>
       <c r="I295">
         <f t="shared" si="12"/>
         <v>1.403225806451613</v>
@@ -9877,6 +11621,9 @@
       <c r="F296">
         <v>305</v>
       </c>
+      <c r="H296">
+        <v>8</v>
+      </c>
       <c r="I296">
         <f t="shared" si="12"/>
         <v>1.2846153846153847</v>
@@ -9909,6 +11656,9 @@
       <c r="F297">
         <v>302</v>
       </c>
+      <c r="H297">
+        <v>8</v>
+      </c>
       <c r="I297">
         <f t="shared" si="12"/>
         <v>1.0992366412213741</v>
@@ -9941,6 +11691,9 @@
       <c r="F298">
         <v>331</v>
       </c>
+      <c r="H298">
+        <v>8</v>
+      </c>
       <c r="I298">
         <f t="shared" si="12"/>
         <v>1.2472324723247232</v>
@@ -9973,6 +11726,9 @@
       <c r="F299">
         <v>322</v>
       </c>
+      <c r="H299">
+        <v>8</v>
+      </c>
       <c r="I299">
         <f t="shared" si="12"/>
         <v>1.2334801762114538</v>
@@ -10005,6 +11761,9 @@
       <c r="F300">
         <v>293</v>
       </c>
+      <c r="H300">
+        <v>8</v>
+      </c>
       <c r="I300">
         <f t="shared" si="12"/>
         <v>1.1367521367521367</v>
@@ -10037,6 +11796,9 @@
       <c r="F301">
         <v>280</v>
       </c>
+      <c r="H301">
+        <v>8</v>
+      </c>
       <c r="I301">
         <f t="shared" si="12"/>
         <v>1.4192139737991267</v>
@@ -10069,6 +11831,9 @@
       <c r="F302">
         <v>298</v>
       </c>
+      <c r="H302">
+        <v>9</v>
+      </c>
       <c r="I302">
         <f t="shared" si="12"/>
         <v>1.3643724696356276</v>
@@ -10101,6 +11866,9 @@
       <c r="F303">
         <v>306</v>
       </c>
+      <c r="H303">
+        <v>9</v>
+      </c>
       <c r="I303">
         <f t="shared" si="12"/>
         <v>1.380281690140845</v>
@@ -10133,6 +11901,9 @@
       <c r="F304">
         <v>321</v>
       </c>
+      <c r="H304">
+        <v>9</v>
+      </c>
       <c r="I304">
         <f t="shared" si="12"/>
         <v>1.5866666666666667</v>
@@ -10165,6 +11936,9 @@
       <c r="F305">
         <v>254</v>
       </c>
+      <c r="H305">
+        <v>9</v>
+      </c>
       <c r="I305">
         <f t="shared" si="12"/>
         <v>1.0717299578059072</v>
@@ -10197,6 +11971,9 @@
       <c r="F306">
         <v>282</v>
       </c>
+      <c r="H306">
+        <v>9</v>
+      </c>
       <c r="I306">
         <f t="shared" si="12"/>
         <v>1.4930875576036866</v>
@@ -10229,6 +12006,9 @@
       <c r="F307">
         <v>426</v>
       </c>
+      <c r="H307">
+        <v>9</v>
+      </c>
       <c r="I307">
         <f t="shared" si="12"/>
         <v>0.99259259259259258</v>
@@ -10261,6 +12041,9 @@
       <c r="F308">
         <v>224</v>
       </c>
+      <c r="H308">
+        <v>9</v>
+      </c>
       <c r="I308">
         <f t="shared" si="12"/>
         <v>1.1571428571428573</v>
@@ -10293,6 +12076,9 @@
       <c r="F309">
         <v>328</v>
       </c>
+      <c r="H309">
+        <v>9</v>
+      </c>
       <c r="I309">
         <f t="shared" si="12"/>
         <v>1.7832512315270936</v>
@@ -10325,6 +12111,9 @@
       <c r="F310">
         <v>285</v>
       </c>
+      <c r="H310">
+        <v>9</v>
+      </c>
       <c r="I310">
         <f t="shared" si="12"/>
         <v>1.2333333333333334</v>
@@ -10357,6 +12146,9 @@
       <c r="F311">
         <v>324</v>
       </c>
+      <c r="H311">
+        <v>9</v>
+      </c>
       <c r="I311">
         <f t="shared" si="12"/>
         <v>1.3940677966101696</v>
@@ -10389,6 +12181,9 @@
       <c r="F312">
         <v>300</v>
       </c>
+      <c r="H312">
+        <v>9</v>
+      </c>
       <c r="I312">
         <f t="shared" si="12"/>
         <v>1.2168674698795181</v>
@@ -10421,6 +12216,9 @@
       <c r="F313">
         <v>340</v>
       </c>
+      <c r="H313">
+        <v>9</v>
+      </c>
       <c r="I313">
         <f t="shared" si="12"/>
         <v>1.2890995260663507</v>
@@ -10453,6 +12251,9 @@
       <c r="F314">
         <v>324</v>
       </c>
+      <c r="H314">
+        <v>9</v>
+      </c>
       <c r="I314">
         <f t="shared" si="12"/>
         <v>1.4093023255813955</v>
@@ -10485,6 +12286,9 @@
       <c r="F315">
         <v>295</v>
       </c>
+      <c r="H315">
+        <v>9</v>
+      </c>
       <c r="I315">
         <f t="shared" si="12"/>
         <v>1.203125</v>
@@ -10517,6 +12321,9 @@
       <c r="F316">
         <v>302</v>
       </c>
+      <c r="H316">
+        <v>9</v>
+      </c>
       <c r="I316">
         <f t="shared" si="12"/>
         <v>1.2183908045977012</v>
@@ -10549,6 +12356,9 @@
       <c r="F317">
         <v>345</v>
       </c>
+      <c r="H317">
+        <v>9</v>
+      </c>
       <c r="I317">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -10581,6 +12391,9 @@
       <c r="F318">
         <v>275</v>
       </c>
+      <c r="H318">
+        <v>9</v>
+      </c>
       <c r="I318">
         <f t="shared" si="12"/>
         <v>1.1333333333333333</v>
@@ -10613,6 +12426,9 @@
       <c r="F319">
         <v>386</v>
       </c>
+      <c r="H319">
+        <v>9</v>
+      </c>
       <c r="I319">
         <f t="shared" si="12"/>
         <v>1.3085501858736059</v>
@@ -10645,6 +12461,9 @@
       <c r="F320">
         <v>337</v>
       </c>
+      <c r="H320">
+        <v>9</v>
+      </c>
       <c r="I320">
         <f t="shared" si="12"/>
         <v>1.2401960784313726</v>
@@ -10677,6 +12496,9 @@
       <c r="F321">
         <v>364</v>
       </c>
+      <c r="H321">
+        <v>9</v>
+      </c>
       <c r="I321">
         <f t="shared" si="12"/>
         <v>1.6553398058252426</v>
@@ -10709,6 +12531,9 @@
       <c r="F322">
         <v>286</v>
       </c>
+      <c r="H322">
+        <v>9</v>
+      </c>
       <c r="I322">
         <f t="shared" si="12"/>
         <v>1.3781512605042017</v>
@@ -10741,6 +12566,9 @@
       <c r="F323">
         <v>272</v>
       </c>
+      <c r="H323">
+        <v>9</v>
+      </c>
       <c r="I323">
         <f t="shared" ref="I323:I386" si="15">D323/C323</f>
         <v>1.0454545454545454</v>
@@ -10773,6 +12601,9 @@
       <c r="F324">
         <v>312</v>
       </c>
+      <c r="H324">
+        <v>9</v>
+      </c>
       <c r="I324">
         <f t="shared" si="15"/>
         <v>1.7198067632850242</v>
@@ -10805,6 +12636,9 @@
       <c r="F325">
         <v>300</v>
       </c>
+      <c r="H325">
+        <v>9</v>
+      </c>
       <c r="I325">
         <f t="shared" si="15"/>
         <v>1.4907063197026023</v>
@@ -10837,6 +12671,9 @@
       <c r="F326">
         <v>306</v>
       </c>
+      <c r="H326">
+        <v>9</v>
+      </c>
       <c r="I326">
         <f t="shared" si="15"/>
         <v>1.2798165137614679</v>
@@ -10869,6 +12706,9 @@
       <c r="F327">
         <v>319</v>
       </c>
+      <c r="H327">
+        <v>9</v>
+      </c>
       <c r="I327">
         <f t="shared" si="15"/>
         <v>1.3070866141732282</v>
@@ -10901,6 +12741,9 @@
       <c r="F328">
         <v>241</v>
       </c>
+      <c r="H328">
+        <v>9</v>
+      </c>
       <c r="I328">
         <f t="shared" si="15"/>
         <v>1.1826923076923077</v>
@@ -10933,6 +12776,9 @@
       <c r="F329">
         <v>352</v>
       </c>
+      <c r="H329">
+        <v>9</v>
+      </c>
       <c r="I329">
         <f t="shared" si="15"/>
         <v>1.3679653679653681</v>
@@ -10965,6 +12811,9 @@
       <c r="F330">
         <v>289</v>
       </c>
+      <c r="H330">
+        <v>9</v>
+      </c>
       <c r="I330">
         <f t="shared" si="15"/>
         <v>1.0743494423791822</v>
@@ -10997,6 +12846,9 @@
       <c r="F331">
         <v>318</v>
       </c>
+      <c r="H331">
+        <v>9</v>
+      </c>
       <c r="I331">
         <f t="shared" si="15"/>
         <v>1.0459770114942528</v>
@@ -11029,6 +12881,9 @@
       <c r="F332">
         <v>351</v>
       </c>
+      <c r="H332">
+        <v>9</v>
+      </c>
       <c r="I332">
         <f t="shared" si="15"/>
         <v>1.6940639269406392</v>
@@ -11061,6 +12916,9 @@
       <c r="F333">
         <v>346</v>
       </c>
+      <c r="H333">
+        <v>9</v>
+      </c>
       <c r="I333">
         <f t="shared" si="15"/>
         <v>1.2137096774193548</v>
@@ -11093,6 +12951,9 @@
       <c r="F334">
         <v>298</v>
       </c>
+      <c r="H334">
+        <v>9</v>
+      </c>
       <c r="I334">
         <f t="shared" si="15"/>
         <v>1.1797235023041475</v>
@@ -11125,6 +12986,9 @@
       <c r="F335">
         <v>329</v>
       </c>
+      <c r="H335">
+        <v>9</v>
+      </c>
       <c r="I335">
         <f t="shared" si="15"/>
         <v>1.3188976377952757</v>
@@ -11157,6 +13021,9 @@
       <c r="F336">
         <v>305</v>
       </c>
+      <c r="H336">
+        <v>9</v>
+      </c>
       <c r="I336">
         <f t="shared" si="15"/>
         <v>1.4385964912280702</v>
@@ -11189,6 +13056,9 @@
       <c r="F337">
         <v>267</v>
       </c>
+      <c r="H337">
+        <v>9</v>
+      </c>
       <c r="I337">
         <f t="shared" si="15"/>
         <v>1.3714285714285714</v>
@@ -11221,6 +13091,9 @@
       <c r="F338">
         <v>218</v>
       </c>
+      <c r="H338">
+        <v>9</v>
+      </c>
       <c r="I338">
         <f t="shared" si="15"/>
         <v>1.0491803278688525</v>
@@ -11253,6 +13126,9 @@
       <c r="F339">
         <v>323</v>
       </c>
+      <c r="H339">
+        <v>9</v>
+      </c>
       <c r="I339">
         <f t="shared" si="15"/>
         <v>1.0121951219512195</v>
@@ -11285,6 +13161,9 @@
       <c r="F340">
         <v>370</v>
       </c>
+      <c r="H340">
+        <v>9</v>
+      </c>
       <c r="I340">
         <f t="shared" si="15"/>
         <v>1.3565217391304347</v>
@@ -11317,6 +13196,9 @@
       <c r="F341">
         <v>261</v>
       </c>
+      <c r="H341">
+        <v>9</v>
+      </c>
       <c r="I341">
         <f t="shared" si="15"/>
         <v>1.1875</v>
@@ -11349,6 +13231,9 @@
       <c r="F342">
         <v>299</v>
       </c>
+      <c r="H342">
+        <v>9</v>
+      </c>
       <c r="I342">
         <f t="shared" si="15"/>
         <v>1.4482758620689655</v>
@@ -11381,6 +13266,9 @@
       <c r="F343">
         <v>309</v>
       </c>
+      <c r="H343">
+        <v>9</v>
+      </c>
       <c r="I343">
         <f t="shared" si="15"/>
         <v>1.1908396946564885</v>
@@ -11413,6 +13301,9 @@
       <c r="F344">
         <v>235</v>
       </c>
+      <c r="H344">
+        <v>9</v>
+      </c>
       <c r="I344">
         <f t="shared" si="15"/>
         <v>1.345</v>
@@ -11445,6 +13336,9 @@
       <c r="F345">
         <v>366</v>
       </c>
+      <c r="H345">
+        <v>9</v>
+      </c>
       <c r="I345">
         <f t="shared" si="15"/>
         <v>1</v>
@@ -11477,6 +13371,9 @@
       <c r="F346">
         <v>303</v>
       </c>
+      <c r="H346">
+        <v>9</v>
+      </c>
       <c r="I346">
         <f t="shared" si="15"/>
         <v>1.069672131147541</v>
@@ -11509,6 +13406,9 @@
       <c r="F347">
         <v>309</v>
       </c>
+      <c r="H347">
+        <v>9</v>
+      </c>
       <c r="I347">
         <f t="shared" si="15"/>
         <v>1.2209302325581395</v>
@@ -11541,6 +13441,9 @@
       <c r="F348">
         <v>237</v>
       </c>
+      <c r="H348">
+        <v>9</v>
+      </c>
       <c r="I348">
         <f t="shared" si="15"/>
         <v>1.3316062176165804</v>
@@ -11573,6 +13476,9 @@
       <c r="F349">
         <v>386</v>
       </c>
+      <c r="H349">
+        <v>9</v>
+      </c>
       <c r="I349">
         <f t="shared" si="15"/>
         <v>1.1377952755905512</v>
@@ -11605,6 +13511,9 @@
       <c r="F350">
         <v>333</v>
       </c>
+      <c r="H350">
+        <v>9</v>
+      </c>
       <c r="I350">
         <f t="shared" si="15"/>
         <v>1.0743494423791822</v>
@@ -11637,6 +13546,9 @@
       <c r="F351">
         <v>356</v>
       </c>
+      <c r="H351">
+        <v>9</v>
+      </c>
       <c r="I351">
         <f t="shared" si="15"/>
         <v>1.073076923076923</v>
@@ -11669,6 +13581,9 @@
       <c r="F352">
         <v>339</v>
       </c>
+      <c r="H352">
+        <v>10</v>
+      </c>
       <c r="I352">
         <f t="shared" si="15"/>
         <v>1.2453703703703705</v>
@@ -11701,6 +13616,9 @@
       <c r="F353">
         <v>330</v>
       </c>
+      <c r="H353">
+        <v>10</v>
+      </c>
       <c r="I353">
         <f t="shared" si="15"/>
         <v>1.3793103448275863</v>
@@ -11733,6 +13651,9 @@
       <c r="F354">
         <v>308</v>
       </c>
+      <c r="H354">
+        <v>10</v>
+      </c>
       <c r="I354">
         <f t="shared" si="15"/>
         <v>1.1198347107438016</v>
@@ -11765,6 +13686,9 @@
       <c r="F355">
         <v>300</v>
       </c>
+      <c r="H355">
+        <v>10</v>
+      </c>
       <c r="I355">
         <f t="shared" si="15"/>
         <v>1.3710407239819005</v>
@@ -11797,6 +13721,9 @@
       <c r="F356">
         <v>301</v>
       </c>
+      <c r="H356">
+        <v>10</v>
+      </c>
       <c r="I356">
         <f t="shared" si="15"/>
         <v>1.2426778242677825</v>
@@ -11829,6 +13756,9 @@
       <c r="F357">
         <v>319</v>
       </c>
+      <c r="H357">
+        <v>10</v>
+      </c>
       <c r="I357">
         <f t="shared" si="15"/>
         <v>1.1428571428571428</v>
@@ -11861,6 +13791,9 @@
       <c r="F358">
         <v>341</v>
       </c>
+      <c r="H358">
+        <v>10</v>
+      </c>
       <c r="I358">
         <f t="shared" si="15"/>
         <v>1.1641025641025642</v>
@@ -11893,6 +13826,9 @@
       <c r="F359">
         <v>236</v>
       </c>
+      <c r="H359">
+        <v>10</v>
+      </c>
       <c r="I359">
         <f t="shared" si="15"/>
         <v>1.0880829015544042</v>
@@ -11925,6 +13861,9 @@
       <c r="F360">
         <v>370</v>
       </c>
+      <c r="H360">
+        <v>10</v>
+      </c>
       <c r="I360">
         <f t="shared" si="15"/>
         <v>1.0251046025104602</v>
@@ -11957,6 +13896,9 @@
       <c r="F361">
         <v>283</v>
       </c>
+      <c r="H361">
+        <v>10</v>
+      </c>
       <c r="I361">
         <f t="shared" si="15"/>
         <v>1.3488372093023255</v>
@@ -11989,6 +13931,9 @@
       <c r="F362">
         <v>352</v>
       </c>
+      <c r="H362">
+        <v>10</v>
+      </c>
       <c r="I362">
         <f t="shared" si="15"/>
         <v>1.25</v>
@@ -12021,6 +13966,9 @@
       <c r="F363">
         <v>271</v>
       </c>
+      <c r="H363">
+        <v>10</v>
+      </c>
       <c r="I363">
         <f t="shared" si="15"/>
         <v>1.0103626943005182</v>
@@ -12053,6 +14001,9 @@
       <c r="F364">
         <v>347</v>
       </c>
+      <c r="H364">
+        <v>10</v>
+      </c>
       <c r="I364">
         <f t="shared" si="15"/>
         <v>1.2352941176470589</v>
@@ -12085,6 +14036,9 @@
       <c r="F365">
         <v>362</v>
       </c>
+      <c r="H365">
+        <v>10</v>
+      </c>
       <c r="I365">
         <f t="shared" si="15"/>
         <v>1.1435643564356435</v>
@@ -12117,6 +14071,9 @@
       <c r="F366">
         <v>347</v>
       </c>
+      <c r="H366">
+        <v>10</v>
+      </c>
       <c r="I366">
         <f t="shared" si="15"/>
         <v>1.34</v>
@@ -12149,6 +14106,9 @@
       <c r="F367">
         <v>314</v>
       </c>
+      <c r="H367">
+        <v>10</v>
+      </c>
       <c r="I367">
         <f t="shared" si="15"/>
         <v>1.2627450980392156</v>
@@ -12181,6 +14141,9 @@
       <c r="F368">
         <v>248</v>
       </c>
+      <c r="H368">
+        <v>10</v>
+      </c>
       <c r="I368">
         <f t="shared" si="15"/>
         <v>1.065040650406504</v>
@@ -12213,6 +14176,9 @@
       <c r="F369">
         <v>344</v>
       </c>
+      <c r="H369">
+        <v>10</v>
+      </c>
       <c r="I369">
         <f t="shared" si="15"/>
         <v>1.0134529147982063</v>
@@ -12245,6 +14211,9 @@
       <c r="F370">
         <v>349</v>
       </c>
+      <c r="H370">
+        <v>10</v>
+      </c>
       <c r="I370">
         <f t="shared" si="15"/>
         <v>1.3664921465968587</v>
@@ -12277,6 +14246,9 @@
       <c r="F371">
         <v>284</v>
       </c>
+      <c r="H371">
+        <v>10</v>
+      </c>
       <c r="I371">
         <f t="shared" si="15"/>
         <v>1.2050209205020921</v>
@@ -12309,6 +14281,9 @@
       <c r="F372">
         <v>300</v>
       </c>
+      <c r="H372">
+        <v>10</v>
+      </c>
       <c r="I372">
         <f t="shared" si="15"/>
         <v>1.393574297188755</v>
@@ -12341,6 +14316,9 @@
       <c r="F373">
         <v>318</v>
       </c>
+      <c r="H373">
+        <v>10</v>
+      </c>
       <c r="I373">
         <f t="shared" si="15"/>
         <v>1.1911764705882353</v>
@@ -12373,6 +14351,9 @@
       <c r="F374">
         <v>299</v>
       </c>
+      <c r="H374">
+        <v>10</v>
+      </c>
       <c r="I374">
         <f t="shared" si="15"/>
         <v>1.4</v>
@@ -12405,6 +14386,9 @@
       <c r="F375">
         <v>325</v>
       </c>
+      <c r="H375">
+        <v>10</v>
+      </c>
       <c r="I375">
         <f t="shared" si="15"/>
         <v>1.3480176211453745</v>
@@ -12437,6 +14421,9 @@
       <c r="F376">
         <v>369</v>
       </c>
+      <c r="H376">
+        <v>10</v>
+      </c>
       <c r="I376">
         <f t="shared" si="15"/>
         <v>1.8854625550660793</v>
@@ -12469,6 +14456,9 @@
       <c r="F377">
         <v>299</v>
       </c>
+      <c r="H377">
+        <v>10</v>
+      </c>
       <c r="I377">
         <f t="shared" si="15"/>
         <v>1.2059925093632959</v>
@@ -12501,6 +14491,9 @@
       <c r="F378">
         <v>275</v>
       </c>
+      <c r="H378">
+        <v>10</v>
+      </c>
       <c r="I378">
         <f t="shared" si="15"/>
         <v>1.1904761904761905</v>
@@ -12533,6 +14526,9 @@
       <c r="F379">
         <v>259</v>
       </c>
+      <c r="H379">
+        <v>10</v>
+      </c>
       <c r="I379">
         <f t="shared" si="15"/>
         <v>1.2363636363636363</v>
@@ -12565,6 +14561,9 @@
       <c r="F380">
         <v>277</v>
       </c>
+      <c r="H380">
+        <v>10</v>
+      </c>
       <c r="I380">
         <f t="shared" si="15"/>
         <v>1.3224299065420562</v>
@@ -12597,6 +14596,9 @@
       <c r="F381">
         <v>280</v>
       </c>
+      <c r="H381">
+        <v>10</v>
+      </c>
       <c r="I381">
         <f t="shared" si="15"/>
         <v>1.4009009009009008</v>
@@ -12629,6 +14631,9 @@
       <c r="F382">
         <v>297</v>
       </c>
+      <c r="H382">
+        <v>10</v>
+      </c>
       <c r="I382">
         <f t="shared" si="15"/>
         <v>1.3258928571428572</v>
@@ -12661,6 +14666,9 @@
       <c r="F383">
         <v>372</v>
       </c>
+      <c r="H383">
+        <v>10</v>
+      </c>
       <c r="I383">
         <f t="shared" si="15"/>
         <v>1.1000000000000001</v>
@@ -12693,6 +14701,9 @@
       <c r="F384">
         <v>279</v>
       </c>
+      <c r="H384">
+        <v>10</v>
+      </c>
       <c r="I384">
         <f t="shared" si="15"/>
         <v>1.3490566037735849</v>
@@ -12725,6 +14736,9 @@
       <c r="F385">
         <v>301</v>
       </c>
+      <c r="H385">
+        <v>10</v>
+      </c>
       <c r="I385">
         <f t="shared" si="15"/>
         <v>1.2084942084942085</v>
@@ -12757,6 +14771,9 @@
       <c r="F386">
         <v>341</v>
       </c>
+      <c r="H386">
+        <v>10</v>
+      </c>
       <c r="I386">
         <f t="shared" si="15"/>
         <v>1.06</v>
@@ -12789,6 +14806,9 @@
       <c r="F387">
         <v>329</v>
       </c>
+      <c r="H387">
+        <v>10</v>
+      </c>
       <c r="I387">
         <f t="shared" ref="I387:I450" si="18">D387/C387</f>
         <v>1.3706896551724137</v>
@@ -12821,6 +14841,9 @@
       <c r="F388">
         <v>378</v>
       </c>
+      <c r="H388">
+        <v>10</v>
+      </c>
       <c r="I388">
         <f t="shared" si="18"/>
         <v>1.2945736434108528</v>
@@ -12853,6 +14876,9 @@
       <c r="F389">
         <v>282</v>
       </c>
+      <c r="H389">
+        <v>10</v>
+      </c>
       <c r="I389">
         <f t="shared" si="18"/>
         <v>1.2610619469026549</v>
@@ -12885,6 +14911,9 @@
       <c r="F390">
         <v>316</v>
       </c>
+      <c r="H390">
+        <v>10</v>
+      </c>
       <c r="I390">
         <f t="shared" si="18"/>
         <v>1.0720000000000001</v>
@@ -12917,6 +14946,9 @@
       <c r="F391">
         <v>295</v>
       </c>
+      <c r="H391">
+        <v>10</v>
+      </c>
       <c r="I391">
         <f t="shared" si="18"/>
         <v>1.1157894736842104</v>
@@ -12949,6 +14981,9 @@
       <c r="F392">
         <v>333</v>
       </c>
+      <c r="H392">
+        <v>10</v>
+      </c>
       <c r="I392">
         <f t="shared" si="18"/>
         <v>1.0352941176470589</v>
@@ -12981,6 +15016,9 @@
       <c r="F393">
         <v>357</v>
       </c>
+      <c r="H393">
+        <v>10</v>
+      </c>
       <c r="I393">
         <f t="shared" si="18"/>
         <v>1.1208333333333333</v>
@@ -13013,6 +15051,9 @@
       <c r="F394">
         <v>316</v>
       </c>
+      <c r="H394">
+        <v>10</v>
+      </c>
       <c r="I394">
         <f t="shared" si="18"/>
         <v>1.1325757575757576</v>
@@ -13045,6 +15086,9 @@
       <c r="F395">
         <v>278</v>
       </c>
+      <c r="H395">
+        <v>10</v>
+      </c>
       <c r="I395">
         <f t="shared" si="18"/>
         <v>1.3155339805825244</v>
@@ -13077,6 +15121,9 @@
       <c r="F396">
         <v>361</v>
       </c>
+      <c r="H396">
+        <v>10</v>
+      </c>
       <c r="I396">
         <f t="shared" si="18"/>
         <v>1.3284313725490196</v>
@@ -13109,6 +15156,9 @@
       <c r="F397">
         <v>287</v>
       </c>
+      <c r="H397">
+        <v>10</v>
+      </c>
       <c r="I397">
         <f t="shared" si="18"/>
         <v>1.1965811965811965</v>
@@ -13141,6 +15191,9 @@
       <c r="F398">
         <v>312</v>
       </c>
+      <c r="H398">
+        <v>10</v>
+      </c>
       <c r="I398">
         <f t="shared" si="18"/>
         <v>1.4838709677419355</v>
@@ -13173,6 +15226,9 @@
       <c r="F399">
         <v>365</v>
       </c>
+      <c r="H399">
+        <v>10</v>
+      </c>
       <c r="I399">
         <f t="shared" si="18"/>
         <v>1.0503875968992249</v>
@@ -13205,6 +15261,9 @@
       <c r="F400">
         <v>300</v>
       </c>
+      <c r="H400">
+        <v>10</v>
+      </c>
       <c r="I400">
         <f t="shared" si="18"/>
         <v>1.5076923076923077</v>
@@ -13237,6 +15296,9 @@
       <c r="F401">
         <v>296</v>
       </c>
+      <c r="H401">
+        <v>10</v>
+      </c>
       <c r="I401">
         <f t="shared" si="18"/>
         <v>1.3333333333333333</v>
@@ -13269,6 +15331,9 @@
       <c r="F402">
         <v>321</v>
       </c>
+      <c r="H402">
+        <v>11</v>
+      </c>
       <c r="I402">
         <f t="shared" si="18"/>
         <v>1.1411290322580645</v>
@@ -13301,6 +15366,9 @@
       <c r="F403">
         <v>323</v>
       </c>
+      <c r="H403">
+        <v>11</v>
+      </c>
       <c r="I403">
         <f t="shared" si="18"/>
         <v>1.4351851851851851</v>
@@ -13333,6 +15401,9 @@
       <c r="F404">
         <v>384</v>
       </c>
+      <c r="H404">
+        <v>11</v>
+      </c>
       <c r="I404">
         <f t="shared" si="18"/>
         <v>1.4747474747474747</v>
@@ -13365,6 +15436,9 @@
       <c r="F405">
         <v>358</v>
       </c>
+      <c r="H405">
+        <v>11</v>
+      </c>
       <c r="I405">
         <f t="shared" si="18"/>
         <v>1.1535087719298245</v>
@@ -13397,6 +15471,9 @@
       <c r="F406">
         <v>363</v>
       </c>
+      <c r="H406">
+        <v>11</v>
+      </c>
       <c r="I406">
         <f t="shared" si="18"/>
         <v>1.48</v>
@@ -13429,6 +15506,9 @@
       <c r="F407">
         <v>298</v>
       </c>
+      <c r="H407">
+        <v>11</v>
+      </c>
       <c r="I407">
         <f t="shared" si="18"/>
         <v>1.6020408163265305</v>
@@ -13461,6 +15541,9 @@
       <c r="F408">
         <v>329</v>
       </c>
+      <c r="H408">
+        <v>11</v>
+      </c>
       <c r="I408">
         <f t="shared" si="18"/>
         <v>1.2592592592592593</v>
@@ -13493,6 +15576,9 @@
       <c r="F409">
         <v>275</v>
       </c>
+      <c r="H409">
+        <v>11</v>
+      </c>
       <c r="I409">
         <f t="shared" si="18"/>
         <v>1.1551724137931034</v>
@@ -13525,6 +15611,9 @@
       <c r="F410">
         <v>363</v>
       </c>
+      <c r="H410">
+        <v>11</v>
+      </c>
       <c r="I410">
         <f t="shared" si="18"/>
         <v>1.2123552123552124</v>
@@ -13557,6 +15646,9 @@
       <c r="F411">
         <v>360</v>
       </c>
+      <c r="H411">
+        <v>11</v>
+      </c>
       <c r="I411">
         <f t="shared" si="18"/>
         <v>1.3012552301255229</v>
@@ -13589,6 +15681,9 @@
       <c r="F412">
         <v>355</v>
       </c>
+      <c r="H412">
+        <v>11</v>
+      </c>
       <c r="I412">
         <f t="shared" si="18"/>
         <v>1.8048780487804879</v>
@@ -13621,6 +15716,9 @@
       <c r="F413">
         <v>292</v>
       </c>
+      <c r="H413">
+        <v>11</v>
+      </c>
       <c r="I413">
         <f t="shared" si="18"/>
         <v>1.3794642857142858</v>
@@ -13653,6 +15751,9 @@
       <c r="F414">
         <v>324</v>
       </c>
+      <c r="H414">
+        <v>11</v>
+      </c>
       <c r="I414">
         <f t="shared" si="18"/>
         <v>1.1003717472118959</v>
@@ -13685,6 +15786,9 @@
       <c r="F415">
         <v>299</v>
       </c>
+      <c r="H415">
+        <v>11</v>
+      </c>
       <c r="I415">
         <f t="shared" si="18"/>
         <v>1.5114942528735633</v>
@@ -13717,6 +15821,9 @@
       <c r="F416">
         <v>283</v>
       </c>
+      <c r="H416">
+        <v>11</v>
+      </c>
       <c r="I416">
         <f t="shared" si="18"/>
         <v>1.2463768115942029</v>
@@ -13749,6 +15856,9 @@
       <c r="F417">
         <v>312</v>
       </c>
+      <c r="H417">
+        <v>11</v>
+      </c>
       <c r="I417">
         <f t="shared" si="18"/>
         <v>1.2592592592592593</v>
@@ -13781,6 +15891,9 @@
       <c r="F418">
         <v>383</v>
       </c>
+      <c r="H418">
+        <v>11</v>
+      </c>
       <c r="I418">
         <f t="shared" si="18"/>
         <v>1.3130081300813008</v>
@@ -13813,6 +15926,9 @@
       <c r="F419">
         <v>367</v>
       </c>
+      <c r="H419">
+        <v>11</v>
+      </c>
       <c r="I419">
         <f t="shared" si="18"/>
         <v>1.6080402010050252</v>
@@ -13845,6 +15961,9 @@
       <c r="F420">
         <v>374</v>
       </c>
+      <c r="H420">
+        <v>11</v>
+      </c>
       <c r="I420">
         <f t="shared" si="18"/>
         <v>1.1015625</v>
@@ -13877,6 +15996,9 @@
       <c r="F421">
         <v>362</v>
       </c>
+      <c r="H421">
+        <v>11</v>
+      </c>
       <c r="I421">
         <f t="shared" si="18"/>
         <v>1.3209876543209877</v>
@@ -13909,6 +16031,9 @@
       <c r="F422">
         <v>281</v>
       </c>
+      <c r="H422">
+        <v>11</v>
+      </c>
       <c r="I422">
         <f t="shared" si="18"/>
         <v>1.3577235772357723</v>
@@ -13941,6 +16066,9 @@
       <c r="F423">
         <v>298</v>
       </c>
+      <c r="H423">
+        <v>11</v>
+      </c>
       <c r="I423">
         <f t="shared" si="18"/>
         <v>1.1842105263157894</v>
@@ -13973,6 +16101,9 @@
       <c r="F424">
         <v>293</v>
       </c>
+      <c r="H424">
+        <v>11</v>
+      </c>
       <c r="I424">
         <f t="shared" si="18"/>
         <v>1.3080357142857142</v>
@@ -14005,6 +16136,9 @@
       <c r="F425">
         <v>280</v>
       </c>
+      <c r="H425">
+        <v>11</v>
+      </c>
       <c r="I425">
         <f t="shared" si="18"/>
         <v>1.1975308641975309</v>
@@ -14037,6 +16171,9 @@
       <c r="F426">
         <v>303</v>
       </c>
+      <c r="H426">
+        <v>11</v>
+      </c>
       <c r="I426">
         <f t="shared" si="18"/>
         <v>1.4457831325301205</v>
@@ -14069,6 +16206,9 @@
       <c r="F427">
         <v>310</v>
       </c>
+      <c r="H427">
+        <v>11</v>
+      </c>
       <c r="I427">
         <f t="shared" si="18"/>
         <v>1.6730769230769231</v>
@@ -14101,6 +16241,9 @@
       <c r="F428">
         <v>324</v>
       </c>
+      <c r="H428">
+        <v>11</v>
+      </c>
       <c r="I428">
         <f t="shared" si="18"/>
         <v>1.3441295546558705</v>
@@ -14133,6 +16276,9 @@
       <c r="F429">
         <v>323</v>
       </c>
+      <c r="H429">
+        <v>11</v>
+      </c>
       <c r="I429">
         <f t="shared" si="18"/>
         <v>1.3484162895927603</v>
@@ -14165,6 +16311,9 @@
       <c r="F430">
         <v>286</v>
       </c>
+      <c r="H430">
+        <v>11</v>
+      </c>
       <c r="I430">
         <f t="shared" si="18"/>
         <v>1.3728813559322033</v>
@@ -14197,6 +16346,9 @@
       <c r="F431">
         <v>325</v>
       </c>
+      <c r="H431">
+        <v>11</v>
+      </c>
       <c r="I431">
         <f t="shared" si="18"/>
         <v>1.54</v>
@@ -14229,6 +16381,9 @@
       <c r="F432">
         <v>327</v>
       </c>
+      <c r="H432">
+        <v>11</v>
+      </c>
       <c r="I432">
         <f t="shared" si="18"/>
         <v>1.2874015748031495</v>
@@ -14261,6 +16416,9 @@
       <c r="F433">
         <v>271</v>
       </c>
+      <c r="H433">
+        <v>11</v>
+      </c>
       <c r="I433">
         <f t="shared" si="18"/>
         <v>1</v>
@@ -14293,6 +16451,9 @@
       <c r="F434">
         <v>314</v>
       </c>
+      <c r="H434">
+        <v>11</v>
+      </c>
       <c r="I434">
         <f t="shared" si="18"/>
         <v>1.4356846473029046</v>
@@ -14325,6 +16486,9 @@
       <c r="F435">
         <v>322</v>
       </c>
+      <c r="H435">
+        <v>11</v>
+      </c>
       <c r="I435">
         <f t="shared" si="18"/>
         <v>1.2037735849056603</v>
@@ -14357,6 +16521,9 @@
       <c r="F436">
         <v>374</v>
       </c>
+      <c r="H436">
+        <v>11</v>
+      </c>
       <c r="I436">
         <f t="shared" si="18"/>
         <v>1.2042553191489362</v>
@@ -14389,6 +16556,9 @@
       <c r="F437">
         <v>362</v>
       </c>
+      <c r="H437">
+        <v>11</v>
+      </c>
       <c r="I437">
         <f t="shared" si="18"/>
         <v>1.3428571428571427</v>
@@ -14421,6 +16591,9 @@
       <c r="F438">
         <v>288</v>
       </c>
+      <c r="H438">
+        <v>11</v>
+      </c>
       <c r="I438">
         <f t="shared" si="18"/>
         <v>1.0049261083743843</v>
@@ -14453,6 +16626,9 @@
       <c r="F439">
         <v>385</v>
       </c>
+      <c r="H439">
+        <v>11</v>
+      </c>
       <c r="I439">
         <f t="shared" si="18"/>
         <v>1.625</v>
@@ -14485,6 +16661,9 @@
       <c r="F440">
         <v>318</v>
       </c>
+      <c r="H440">
+        <v>11</v>
+      </c>
       <c r="I440">
         <f t="shared" si="18"/>
         <v>1.4948979591836735</v>
@@ -14517,6 +16696,9 @@
       <c r="F441">
         <v>359</v>
       </c>
+      <c r="H441">
+        <v>11</v>
+      </c>
       <c r="I441">
         <f t="shared" si="18"/>
         <v>1.3397129186602872</v>
@@ -14549,6 +16731,9 @@
       <c r="F442">
         <v>391</v>
       </c>
+      <c r="H442">
+        <v>11</v>
+      </c>
       <c r="I442">
         <f t="shared" si="18"/>
         <v>1.5928853754940711</v>
@@ -14581,6 +16766,9 @@
       <c r="F443">
         <v>388</v>
       </c>
+      <c r="H443">
+        <v>11</v>
+      </c>
       <c r="I443">
         <f t="shared" si="18"/>
         <v>1.1031746031746033</v>
@@ -14613,6 +16801,9 @@
       <c r="F444">
         <v>311</v>
       </c>
+      <c r="H444">
+        <v>11</v>
+      </c>
       <c r="I444">
         <f t="shared" si="18"/>
         <v>1.6619718309859155</v>
@@ -14645,6 +16836,9 @@
       <c r="F445">
         <v>329</v>
       </c>
+      <c r="H445">
+        <v>11</v>
+      </c>
       <c r="I445">
         <f t="shared" si="18"/>
         <v>1.2829457364341086</v>
@@ -14677,6 +16871,9 @@
       <c r="F446">
         <v>334</v>
       </c>
+      <c r="H446">
+        <v>11</v>
+      </c>
       <c r="I446">
         <f t="shared" si="18"/>
         <v>1.751131221719457</v>
@@ -14709,6 +16906,9 @@
       <c r="F447">
         <v>287</v>
       </c>
+      <c r="H447">
+        <v>11</v>
+      </c>
       <c r="I447">
         <f t="shared" si="18"/>
         <v>1.3347639484978542</v>
@@ -14741,6 +16941,9 @@
       <c r="F448">
         <v>375</v>
       </c>
+      <c r="H448">
+        <v>11</v>
+      </c>
       <c r="I448">
         <f t="shared" si="18"/>
         <v>1.2815533980582525</v>
@@ -14773,6 +16976,9 @@
       <c r="F449">
         <v>280</v>
       </c>
+      <c r="H449">
+        <v>11</v>
+      </c>
       <c r="I449">
         <f t="shared" si="18"/>
         <v>1.201716738197425</v>
@@ -14805,6 +17011,9 @@
       <c r="F450">
         <v>343</v>
       </c>
+      <c r="H450">
+        <v>11</v>
+      </c>
       <c r="I450">
         <f t="shared" si="18"/>
         <v>1.2938144329896908</v>
@@ -14837,6 +17046,9 @@
       <c r="F451">
         <v>327</v>
       </c>
+      <c r="H451">
+        <v>11</v>
+      </c>
       <c r="I451">
         <f t="shared" ref="I451" si="21">D451/C451</f>
         <v>1.1856540084388185</v>
@@ -14852,5 +17064,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LP-Ergebnisse-Edge.xlsx
+++ b/LP-Ergebnisse-Edge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F22D9EB-DD3A-42DB-9E9F-1E2D819F2BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D1A76E-C815-404C-9D08-05258AC615DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,10 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -877,15 +876,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>111124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -921,8 +920,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5216525" y="663575"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5111750" y="663574"/>
+              <a:ext cx="4676775" cy="2930526"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1296,7 +1295,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">

--- a/LP-Ergebnisse-Edge.xlsx
+++ b/LP-Ergebnisse-Edge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D1A76E-C815-404C-9D08-05258AC615DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096F286-0D55-43A0-AA75-9C8EEE4289FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Experiment</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>greedy</t>
+  </si>
+  <si>
+    <t>b_n</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Varianz</t>
+  </si>
+  <si>
+    <t>o_r</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -875,16 +893,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -920,7 +938,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5111750" y="663574"/>
+              <a:off x="152400" y="511174"/>
               <a:ext cx="4676775" cy="2930526"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1271,15 +1289,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K451"/>
+  <dimension ref="A1:X451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1310,8 +1328,23 @@
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1345,8 +1378,23 @@
         <f>F2/C2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>MAX(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>VARA(I2:I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1380,8 +1428,23 @@
         <f t="shared" ref="K3:K66" si="2">F3/C3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(I52:I101)</f>
+        <v>1.162745106660755</v>
+      </c>
+      <c r="P3">
+        <f>MAX(I52:I101)</f>
+        <v>1.5874439461883407</v>
+      </c>
+      <c r="Q3">
+        <f>VARA(I52:I101)</f>
+        <v>3.8122723618708297E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1415,8 +1478,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(I102:I151)</f>
+        <v>1.1502010268540739</v>
+      </c>
+      <c r="P4">
+        <f>MAX(I102:I151)</f>
+        <v>1.4825870646766168</v>
+      </c>
+      <c r="Q4">
+        <f>VARA(I102:I151)</f>
+        <v>2.4428375648271612E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1450,8 +1528,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <f>N4+1</f>
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(I152:I201)</f>
+        <v>1.2239719237119531</v>
+      </c>
+      <c r="P5">
+        <f>MAX(I152:I201)</f>
+        <v>1.5463917525773196</v>
+      </c>
+      <c r="Q5">
+        <f>VARA(I152:I201)</f>
+        <v>3.4514229925284912E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1485,8 +1579,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="3">N5+1</f>
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(I202:I251)</f>
+        <v>1.2005873052025151</v>
+      </c>
+      <c r="P6">
+        <f>MAX(I202:I251)</f>
+        <v>1.5778688524590163</v>
+      </c>
+      <c r="Q6">
+        <f>VARA(I202:I251)</f>
+        <v>2.3329279971884383E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1520,8 +1630,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE(I252:I301)</f>
+        <v>1.2744231222965297</v>
+      </c>
+      <c r="P7">
+        <f>MAX(I252:I301)</f>
+        <v>1.6846473029045643</v>
+      </c>
+      <c r="Q7">
+        <f>VARA(I252:I301)</f>
+        <v>3.7514780768856268E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1555,8 +1681,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(I302:I351)</f>
+        <v>1.2747219920844084</v>
+      </c>
+      <c r="P8">
+        <f>MAX(I302:I351)</f>
+        <v>1.7832512315270936</v>
+      </c>
+      <c r="Q8">
+        <f>VARA(I302:I351)</f>
+        <v>3.8588949572952017E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1590,8 +1732,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE(I352:I401)</f>
+        <v>1.2451135546679089</v>
+      </c>
+      <c r="P9">
+        <f>MAX(I352:I401)</f>
+        <v>1.8854625550660793</v>
+      </c>
+      <c r="Q9">
+        <f>VARA(I352:I401)</f>
+        <v>2.5088036344576622E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1625,8 +1783,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(I402:I451)</f>
+        <v>1.3452000954774039</v>
+      </c>
+      <c r="P10">
+        <f>MAX(I402:I451)</f>
+        <v>1.8048780487804879</v>
+      </c>
+      <c r="Q10">
+        <f>VARA(I402:I451)</f>
+        <v>3.5351558957361875E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1661,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1696,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1730,8 +1904,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1765,8 +1969,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>MAX(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>VARA(J2:J51)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGE(K2:K51)</f>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f>MAX(Q2:Q51)</f>
+        <v>5.4991981641881682E-2</v>
+      </c>
+      <c r="X14">
+        <f>VARA(Q2:Q51)</f>
+        <v>2.539407438134714E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1800,8 +2034,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGE(J52:J101)</f>
+        <v>1.0952420570389243</v>
+      </c>
+      <c r="P15">
+        <f>MAX(J52:J101)</f>
+        <v>1.4764705882352942</v>
+      </c>
+      <c r="Q15">
+        <f>VARA(J52:J101)</f>
+        <v>1.4636100460555038E-2</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <f>AVERAGE(K52:K101)</f>
+        <v>1.0952420570389243</v>
+      </c>
+      <c r="W15">
+        <f>MAX(K52:K101)</f>
+        <v>1.4764705882352942</v>
+      </c>
+      <c r="X15">
+        <f>VARA(K52:K101)</f>
+        <v>1.4636100460555038E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1835,8 +2099,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(J102:J151)</f>
+        <v>1.1765158939873188</v>
+      </c>
+      <c r="P16">
+        <f>MAX(J102:J151)</f>
+        <v>1.7932692307692308</v>
+      </c>
+      <c r="Q16">
+        <f>VARA(J102:J151)</f>
+        <v>2.707429144851867E-2</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <f>AVERAGE(K102:K151)</f>
+        <v>1.2482555608352559</v>
+      </c>
+      <c r="W16">
+        <f>MAX(K102:K151)</f>
+        <v>1.6502463054187193</v>
+      </c>
+      <c r="X16">
+        <f>VARA(K102:K151)</f>
+        <v>3.1722358004713541E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1870,8 +2164,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <f>N16+1</f>
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(J152:J201)</f>
+        <v>1.2689472889826199</v>
+      </c>
+      <c r="P17">
+        <f>MAX(I164:I213)</f>
+        <v>1.5463917525773196</v>
+      </c>
+      <c r="Q17">
+        <f>VARA(I164:I213)</f>
+        <v>3.4195374640280905E-2</v>
+      </c>
+      <c r="U17">
+        <f>U16+1</f>
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <f>AVERAGE(K152:K201)</f>
+        <v>1.2674167887150529</v>
+      </c>
+      <c r="W17">
+        <f>MAX(K164:K213)</f>
+        <v>1.75</v>
+      </c>
+      <c r="X17">
+        <f>VARA(K164:K213)</f>
+        <v>3.9282793714800375E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1905,8 +2231,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <f t="shared" ref="N18:N22" si="4">N17+1</f>
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(I214:I263)</f>
+        <v>1.1967144885081613</v>
+      </c>
+      <c r="P18">
+        <f>MAX(J152:J201)</f>
+        <v>1.7638888888888888</v>
+      </c>
+      <c r="Q18">
+        <f>VARA(J152:J201)</f>
+        <v>3.8181886328073303E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U22" si="5">U17+1</f>
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <f>AVERAGE(K214:K263)</f>
+        <v>1.2454158514500666</v>
+      </c>
+      <c r="W18">
+        <f>MAX(K152:K201)</f>
+        <v>1.75</v>
+      </c>
+      <c r="X18">
+        <f>VARA(K152:K201)</f>
+        <v>3.6058333741515451E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1940,8 +2298,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE(J252:J301)</f>
+        <v>1.2896928525572802</v>
+      </c>
+      <c r="P19">
+        <f>MAX(J252:J301)</f>
+        <v>1.7487437185929648</v>
+      </c>
+      <c r="Q19">
+        <f>VARA(J252:J301)</f>
+        <v>3.1658626209887721E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <f>AVERAGE(K252:K301)</f>
+        <v>1.2551727224618503</v>
+      </c>
+      <c r="W19">
+        <f>MAX(K252:K301)</f>
+        <v>1.7395833333333333</v>
+      </c>
+      <c r="X19">
+        <f>VARA(K252:K301)</f>
+        <v>2.4693278178148727E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1975,8 +2365,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(J302:J351)</f>
+        <v>1.3268190198200989</v>
+      </c>
+      <c r="P20">
+        <f>MAX(J302:J351)</f>
+        <v>1.8349514563106797</v>
+      </c>
+      <c r="Q20">
+        <f>VARA(J302:J351)</f>
+        <v>5.0039573351685129E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="V20">
+        <f>AVERAGE(K302:K351)</f>
+        <v>1.3352404841558339</v>
+      </c>
+      <c r="W20">
+        <f>MAX(K302:K351)</f>
+        <v>1.766990291262136</v>
+      </c>
+      <c r="X20">
+        <f>VARA(K302:K351)</f>
+        <v>3.6832723055857566E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2010,8 +2432,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGE(J352:J401)</f>
+        <v>1.3959465077052753</v>
+      </c>
+      <c r="P21">
+        <f>MAX(J352:J401)</f>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="Q21">
+        <f>VARA(J352:J401)</f>
+        <v>5.4991981641881682E-2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <f>AVERAGE(K352:K401)</f>
+        <v>1.3940862749018539</v>
+      </c>
+      <c r="W21">
+        <f>MAX(K352:K401)</f>
+        <v>1.8272251308900525</v>
+      </c>
+      <c r="X21">
+        <f>VARA(K352:K401)</f>
+        <v>3.7949099209953374E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2045,8 +2499,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <f>AVERAGE(J402:J450)</f>
+        <v>1.4366309755404589</v>
+      </c>
+      <c r="P22">
+        <f>MAX(J402:J450)</f>
+        <v>1.9242424242424243</v>
+      </c>
+      <c r="Q22">
+        <f>VARA(J402:J450)</f>
+        <v>4.3646278744690882E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="V22">
+        <f>AVERAGE(K402:K450)</f>
+        <v>1.453432323864837</v>
+      </c>
+      <c r="W22">
+        <f>MAX(K402:K450)</f>
+        <v>1.9393939393939394</v>
+      </c>
+      <c r="X22">
+        <f>VARA(K402:K450)</f>
+        <v>4.5948751142650401E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2081,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2116,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2151,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2186,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2221,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2256,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2291,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2326,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2361,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3609,15 +4095,15 @@
         <v>4</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="3">D67/C67</f>
+        <f t="shared" ref="I67:I130" si="6">D67/C67</f>
         <v>1.5467289719626167</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="4">E67/C67</f>
+        <f t="shared" ref="J67:J130" si="7">E67/C67</f>
         <v>1.2009345794392523</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="5">F67/C67</f>
+        <f t="shared" ref="K67:K130" si="8">F67/C67</f>
         <v>1.2009345794392523</v>
       </c>
     </row>
@@ -3644,15 +4130,15 @@
         <v>4</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3679,15 +4165,15 @@
         <v>4</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3658536585365855</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1707317073170731</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1707317073170731</v>
       </c>
     </row>
@@ -3714,15 +4200,15 @@
         <v>4</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3749,15 +4235,15 @@
         <v>4</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5522388059701493</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2885572139303483</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2885572139303483</v>
       </c>
     </row>
@@ -3784,15 +4270,15 @@
         <v>4</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1341463414634145</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1341463414634145</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1341463414634145</v>
       </c>
     </row>
@@ -3819,15 +4305,15 @@
         <v>4</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3854,15 +4340,15 @@
         <v>4</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3889,15 +4375,15 @@
         <v>4</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4824561403508771</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0701754385964912</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0701754385964912</v>
       </c>
     </row>
@@ -3924,15 +4410,15 @@
         <v>4</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3959,15 +4445,15 @@
         <v>4</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4764705882352942</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4764705882352942</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4764705882352942</v>
       </c>
     </row>
@@ -3994,15 +4480,15 @@
         <v>4</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2171052631578947</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2039473684210527</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2039473684210527</v>
       </c>
     </row>
@@ -4029,15 +4515,15 @@
         <v>4</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4064,15 +4550,15 @@
         <v>4</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0193050193050193</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4099,15 +4585,15 @@
         <v>4</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4134,15 +4620,15 @@
         <v>4</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4169,15 +4655,15 @@
         <v>4</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4204,15 +4690,15 @@
         <v>4</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4207650273224044</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4207650273224044</v>
       </c>
       <c r="K84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4207650273224044</v>
       </c>
     </row>
@@ -4239,15 +4725,15 @@
         <v>4</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5874439461883407</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1748878923766817</v>
       </c>
       <c r="K85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1748878923766817</v>
       </c>
     </row>
@@ -4274,15 +4760,15 @@
         <v>4</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1581632653061225</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0663265306122449</v>
       </c>
       <c r="K86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0663265306122449</v>
       </c>
     </row>
@@ -4309,15 +4795,15 @@
         <v>4</v>
       </c>
       <c r="I87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2906976744186047</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0813953488372092</v>
       </c>
       <c r="K87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0813953488372092</v>
       </c>
     </row>
@@ -4344,15 +4830,15 @@
         <v>4</v>
       </c>
       <c r="I88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4379,15 +4865,15 @@
         <v>4</v>
       </c>
       <c r="I89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4414,15 +4900,15 @@
         <v>4</v>
       </c>
       <c r="I90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4449,15 +4935,15 @@
         <v>4</v>
       </c>
       <c r="I91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1014492753623188</v>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1014492753623188</v>
       </c>
       <c r="K91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1014492753623188</v>
       </c>
     </row>
@@ -4484,15 +4970,15 @@
         <v>4</v>
       </c>
       <c r="I92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4519,15 +5005,15 @@
         <v>4</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3025641025641026</v>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3025641025641026</v>
       </c>
       <c r="K93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3025641025641026</v>
       </c>
     </row>
@@ -4554,15 +5040,15 @@
         <v>4</v>
       </c>
       <c r="I94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3368983957219251</v>
       </c>
       <c r="K94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3368983957219251</v>
       </c>
     </row>
@@ -4589,15 +5075,15 @@
         <v>4</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0630630630630631</v>
       </c>
       <c r="J95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0630630630630631</v>
       </c>
       <c r="K95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0630630630630631</v>
       </c>
     </row>
@@ -4624,15 +5110,15 @@
         <v>4</v>
       </c>
       <c r="I96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1196581196581197</v>
       </c>
       <c r="J96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1196581196581197</v>
       </c>
       <c r="K96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1196581196581197</v>
       </c>
     </row>
@@ -4659,15 +5145,15 @@
         <v>4</v>
       </c>
       <c r="I97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2666666666666666</v>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="K97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
     </row>
@@ -4694,15 +5180,15 @@
         <v>4</v>
       </c>
       <c r="I98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3478260869565217</v>
       </c>
       <c r="J98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.067632850241546</v>
       </c>
       <c r="K98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.067632850241546</v>
       </c>
     </row>
@@ -4729,15 +5215,15 @@
         <v>4</v>
       </c>
       <c r="I99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4764,15 +5250,15 @@
         <v>4</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="K100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0909090909090908</v>
       </c>
     </row>
@@ -4799,15 +5285,15 @@
         <v>4</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4834,15 +5320,15 @@
         <v>5</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3354838709677419</v>
       </c>
       <c r="J102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1419354838709677</v>
       </c>
       <c r="K102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3354838709677419</v>
       </c>
     </row>
@@ -4869,15 +5355,15 @@
         <v>5</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3904761904761904</v>
       </c>
       <c r="K103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3904761904761904</v>
       </c>
     </row>
@@ -4904,15 +5390,15 @@
         <v>5</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4149377593360997</v>
       </c>
       <c r="J104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2531120331950207</v>
       </c>
       <c r="K104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2780082987551866</v>
       </c>
     </row>
@@ -4939,15 +5425,15 @@
         <v>5</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4495798319327731</v>
       </c>
       <c r="K105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4495798319327731</v>
       </c>
     </row>
@@ -4974,15 +5460,15 @@
         <v>5</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.230188679245283</v>
       </c>
       <c r="J106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.230188679245283</v>
       </c>
       <c r="K106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5009,15 +5495,15 @@
         <v>5</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1808510638297873</v>
       </c>
       <c r="J107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1808510638297873</v>
       </c>
       <c r="K107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5044,15 +5530,15 @@
         <v>5</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0738916256157636</v>
       </c>
       <c r="J108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0738916256157636</v>
       </c>
       <c r="K108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0738916256157636</v>
       </c>
     </row>
@@ -5079,15 +5565,15 @@
         <v>5</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3349753694581281</v>
       </c>
       <c r="J109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3349753694581281</v>
       </c>
       <c r="K109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0541871921182266</v>
       </c>
     </row>
@@ -5114,15 +5600,15 @@
         <v>5</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4360189573459716</v>
       </c>
       <c r="J110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2417061611374407</v>
       </c>
       <c r="K110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4218009478672986</v>
       </c>
     </row>
@@ -5149,15 +5635,15 @@
         <v>5</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5023041474654377</v>
       </c>
     </row>
@@ -5184,15 +5670,15 @@
         <v>5</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0591715976331362</v>
       </c>
       <c r="J112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0591715976331362</v>
       </c>
       <c r="K112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0591715976331362</v>
       </c>
     </row>
@@ -5219,15 +5705,15 @@
         <v>5</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4222222222222223</v>
       </c>
     </row>
@@ -5254,15 +5740,15 @@
         <v>5</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4825870646766168</v>
       </c>
       <c r="J114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4328358208955223</v>
       </c>
       <c r="K114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4825870646766168</v>
       </c>
     </row>
@@ -5289,15 +5775,15 @@
         <v>5</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0340909090909092</v>
       </c>
       <c r="J115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0340909090909092</v>
       </c>
       <c r="K115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
@@ -5324,15 +5810,15 @@
         <v>5</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7932692307692308</v>
       </c>
       <c r="K116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6153846153846154</v>
       </c>
     </row>
@@ -5359,15 +5845,15 @@
         <v>5</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1277777777777778</v>
       </c>
       <c r="K117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1277777777777778</v>
       </c>
     </row>
@@ -5394,15 +5880,15 @@
         <v>5</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2938775510204081</v>
       </c>
       <c r="J118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2938775510204081</v>
       </c>
       <c r="K118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2448979591836735</v>
       </c>
     </row>
@@ -5429,15 +5915,15 @@
         <v>5</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0479041916167664</v>
       </c>
       <c r="J119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0479041916167664</v>
       </c>
       <c r="K119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0479041916167664</v>
       </c>
     </row>
@@ -5464,15 +5950,15 @@
         <v>5</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0340909090909092</v>
       </c>
       <c r="J120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0340909090909092</v>
       </c>
       <c r="K120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0340909090909092</v>
       </c>
     </row>
@@ -5499,15 +5985,15 @@
         <v>5</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2569169960474309</v>
       </c>
       <c r="J121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1936758893280632</v>
       </c>
       <c r="K121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2569169960474309</v>
       </c>
     </row>
@@ -5534,15 +6020,15 @@
         <v>5</v>
       </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1687763713080168</v>
       </c>
       <c r="J122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1687763713080168</v>
       </c>
       <c r="K122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2278481012658229</v>
       </c>
     </row>
@@ -5569,15 +6055,15 @@
         <v>5</v>
       </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="J123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="K123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2850241545893719</v>
       </c>
     </row>
@@ -5604,15 +6090,15 @@
         <v>5</v>
       </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0298507462686568</v>
       </c>
       <c r="J124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0298507462686568</v>
       </c>
       <c r="K124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0298507462686568</v>
       </c>
     </row>
@@ -5639,15 +6125,15 @@
         <v>5</v>
       </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1827956989247312</v>
       </c>
       <c r="K125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1827956989247312</v>
       </c>
     </row>
@@ -5674,15 +6160,15 @@
         <v>5</v>
       </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2261904761904763</v>
       </c>
     </row>
@@ -5709,15 +6195,15 @@
         <v>5</v>
       </c>
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0932642487046633</v>
       </c>
       <c r="J127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0932642487046633</v>
       </c>
       <c r="K127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0932642487046633</v>
       </c>
     </row>
@@ -5744,15 +6230,15 @@
         <v>5</v>
       </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3359375</v>
       </c>
       <c r="J128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.140625</v>
       </c>
       <c r="K128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.21875</v>
       </c>
     </row>
@@ -5779,15 +6265,15 @@
         <v>5</v>
       </c>
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4070351758793971</v>
       </c>
       <c r="J129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4070351758793971</v>
       </c>
       <c r="K129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4170854271356783</v>
       </c>
     </row>
@@ -5814,15 +6300,15 @@
         <v>5</v>
       </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4108108108108108</v>
       </c>
       <c r="J130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4108108108108108</v>
       </c>
       <c r="K130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4108108108108108</v>
       </c>
     </row>
@@ -5849,15 +6335,15 @@
         <v>5</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="6">D131/C131</f>
+        <f t="shared" ref="I131:I194" si="9">D131/C131</f>
         <v>1</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="7">E131/C131</f>
+        <f t="shared" ref="J131:J194" si="10">E131/C131</f>
         <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="8">F131/C131</f>
+        <f t="shared" ref="K131:K194" si="11">F131/C131</f>
         <v>1.1866028708133971</v>
       </c>
     </row>
@@ -5884,15 +6370,15 @@
         <v>5</v>
       </c>
       <c r="I132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3463414634146342</v>
       </c>
       <c r="J132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3365853658536586</v>
       </c>
       <c r="K132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2878048780487805</v>
       </c>
     </row>
@@ -5919,15 +6405,15 @@
         <v>5</v>
       </c>
       <c r="I133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3195876288659794</v>
       </c>
       <c r="J133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3195876288659794</v>
       </c>
       <c r="K133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4329896907216495</v>
       </c>
     </row>
@@ -5954,15 +6440,15 @@
         <v>5</v>
       </c>
       <c r="I134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0946502057613168</v>
       </c>
       <c r="J134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0946502057613168</v>
       </c>
       <c r="K134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0946502057613168</v>
       </c>
     </row>
@@ -5989,15 +6475,15 @@
         <v>5</v>
       </c>
       <c r="I135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0282685512367491</v>
       </c>
       <c r="J135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0282685512367491</v>
       </c>
       <c r="K135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0176678445229681</v>
       </c>
     </row>
@@ -6024,15 +6510,15 @@
         <v>5</v>
       </c>
       <c r="I136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0074626865671641</v>
       </c>
       <c r="J136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0074626865671641</v>
       </c>
     </row>
@@ -6059,15 +6545,15 @@
         <v>5</v>
       </c>
       <c r="I137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.178082191780822</v>
       </c>
       <c r="J137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.178082191780822</v>
       </c>
       <c r="K137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4063926940639269</v>
       </c>
     </row>
@@ -6094,15 +6580,15 @@
         <v>5</v>
       </c>
       <c r="I138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1932367149758454</v>
       </c>
       <c r="J138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1932367149758454</v>
       </c>
       <c r="K138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3913043478260869</v>
       </c>
     </row>
@@ -6129,15 +6615,15 @@
         <v>5</v>
       </c>
       <c r="I139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6502463054187193</v>
       </c>
     </row>
@@ -6164,15 +6650,15 @@
         <v>5</v>
       </c>
       <c r="I140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4618473895582329</v>
       </c>
     </row>
@@ -6199,15 +6685,15 @@
         <v>5</v>
       </c>
       <c r="I141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1319999999999999</v>
       </c>
       <c r="J141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1319999999999999</v>
       </c>
       <c r="K141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.212</v>
       </c>
     </row>
@@ -6234,15 +6720,15 @@
         <v>5</v>
       </c>
       <c r="I142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1013215859030836</v>
       </c>
       <c r="J142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1013215859030836</v>
       </c>
       <c r="K142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1013215859030836</v>
       </c>
     </row>
@@ -6269,15 +6755,15 @@
         <v>5</v>
       </c>
       <c r="I143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2831050228310503</v>
       </c>
       <c r="J143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1050228310502284</v>
       </c>
       <c r="K143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2054794520547945</v>
       </c>
     </row>
@@ -6304,15 +6790,15 @@
         <v>5</v>
       </c>
       <c r="I144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.331858407079646</v>
       </c>
     </row>
@@ -6339,15 +6825,15 @@
         <v>5</v>
       </c>
       <c r="I145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2584269662921348</v>
       </c>
       <c r="J145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2584269662921348</v>
       </c>
       <c r="K145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2078651685393258</v>
       </c>
     </row>
@@ -6374,15 +6860,15 @@
         <v>5</v>
       </c>
       <c r="I146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2797202797202798</v>
       </c>
       <c r="J146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2797202797202798</v>
       </c>
       <c r="K146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3216783216783217</v>
       </c>
     </row>
@@ -6409,15 +6895,15 @@
         <v>5</v>
       </c>
       <c r="I147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0931899641577061</v>
       </c>
       <c r="J147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0931899641577061</v>
       </c>
       <c r="K147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6444,15 +6930,15 @@
         <v>5</v>
       </c>
       <c r="I148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6157407407407407</v>
       </c>
     </row>
@@ -6479,15 +6965,15 @@
         <v>5</v>
       </c>
       <c r="I149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1394230769230769</v>
       </c>
       <c r="K149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1394230769230769</v>
       </c>
     </row>
@@ -6514,15 +7000,15 @@
         <v>5</v>
       </c>
       <c r="I150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="K150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1959183673469387</v>
       </c>
     </row>
@@ -6549,15 +7035,15 @@
         <v>5</v>
       </c>
       <c r="I151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0895522388059702</v>
       </c>
       <c r="J151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0895522388059702</v>
       </c>
       <c r="K151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0895522388059702</v>
       </c>
     </row>
@@ -6584,15 +7070,15 @@
         <v>6</v>
       </c>
       <c r="I152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2611940298507462</v>
       </c>
       <c r="J152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1716417910447761</v>
       </c>
       <c r="K152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1716417910447761</v>
       </c>
     </row>
@@ -6619,15 +7105,15 @@
         <v>6</v>
       </c>
       <c r="I153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2450592885375493</v>
       </c>
       <c r="J153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0632411067193677</v>
       </c>
       <c r="K153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0632411067193677</v>
       </c>
     </row>
@@ -6654,15 +7140,15 @@
         <v>6</v>
       </c>
       <c r="I154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3701657458563536</v>
       </c>
       <c r="J154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3701657458563536</v>
       </c>
       <c r="K154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3701657458563536</v>
       </c>
     </row>
@@ -6689,15 +7175,15 @@
         <v>6</v>
       </c>
       <c r="I155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4396551724137931</v>
       </c>
       <c r="J155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2586206896551724</v>
       </c>
       <c r="K155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.375</v>
       </c>
     </row>
@@ -6724,15 +7210,15 @@
         <v>6</v>
       </c>
       <c r="I156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0732600732600732</v>
       </c>
       <c r="J156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.315018315018315</v>
       </c>
       <c r="K156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.315018315018315</v>
       </c>
     </row>
@@ -6759,15 +7245,15 @@
         <v>6</v>
       </c>
       <c r="I157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3823529411764706</v>
       </c>
       <c r="J157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3529411764705883</v>
       </c>
       <c r="K157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3529411764705883</v>
       </c>
     </row>
@@ -6794,15 +7280,15 @@
         <v>6</v>
       </c>
       <c r="I158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0267175572519085</v>
       </c>
       <c r="J158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0267175572519085</v>
       </c>
       <c r="K158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0267175572519085</v>
       </c>
     </row>
@@ -6829,15 +7315,15 @@
         <v>6</v>
       </c>
       <c r="I159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2818181818181817</v>
       </c>
       <c r="J159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2863636363636364</v>
       </c>
       <c r="K159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2863636363636364</v>
       </c>
     </row>
@@ -6864,15 +7350,15 @@
         <v>6</v>
       </c>
       <c r="I160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3766233766233766</v>
       </c>
       <c r="J160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1774891774891776</v>
       </c>
       <c r="K160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2467532467532467</v>
       </c>
     </row>
@@ -6899,15 +7385,15 @@
         <v>6</v>
       </c>
       <c r="I161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1072796934865901</v>
       </c>
       <c r="K161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1072796934865901</v>
       </c>
     </row>
@@ -6934,15 +7420,15 @@
         <v>6</v>
       </c>
       <c r="I162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0803212851405624</v>
       </c>
       <c r="K162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0803212851405624</v>
       </c>
     </row>
@@ -6969,15 +7455,15 @@
         <v>6</v>
       </c>
       <c r="I163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0354609929078014</v>
       </c>
       <c r="J163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0212765957446808</v>
       </c>
       <c r="K163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0212765957446808</v>
       </c>
     </row>
@@ -7004,15 +7490,15 @@
         <v>6</v>
       </c>
       <c r="I164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0760456273764258</v>
       </c>
       <c r="J164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0798479087452471</v>
       </c>
       <c r="K164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0798479087452471</v>
       </c>
     </row>
@@ -7039,15 +7525,15 @@
         <v>6</v>
       </c>
       <c r="I165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.123015873015873</v>
       </c>
       <c r="J165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1626984126984128</v>
       </c>
       <c r="K165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1626984126984128</v>
       </c>
     </row>
@@ -7074,15 +7560,15 @@
         <v>6</v>
       </c>
       <c r="I166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1368421052631579</v>
       </c>
       <c r="K166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0736842105263158</v>
       </c>
     </row>
@@ -7109,15 +7595,15 @@
         <v>6</v>
       </c>
       <c r="I167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5091743119266054</v>
       </c>
       <c r="J167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4816513761467891</v>
       </c>
       <c r="K167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4816513761467891</v>
       </c>
     </row>
@@ -7144,15 +7630,15 @@
         <v>6</v>
       </c>
       <c r="I168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3956834532374101</v>
       </c>
       <c r="J168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1474820143884892</v>
       </c>
       <c r="K168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1474820143884892</v>
       </c>
     </row>
@@ -7179,15 +7665,15 @@
         <v>6</v>
       </c>
       <c r="I169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5097087378640777</v>
       </c>
       <c r="J169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5097087378640777</v>
       </c>
       <c r="K169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5097087378640777</v>
       </c>
     </row>
@@ -7214,15 +7700,15 @@
         <v>6</v>
       </c>
       <c r="I170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4779116465863453</v>
       </c>
       <c r="J170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1927710843373494</v>
       </c>
       <c r="K170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1927710843373494</v>
       </c>
     </row>
@@ -7249,15 +7735,15 @@
         <v>6</v>
       </c>
       <c r="I171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4684210526315788</v>
       </c>
       <c r="J171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4947368421052631</v>
       </c>
       <c r="K171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4684210526315788</v>
       </c>
     </row>
@@ -7284,15 +7770,15 @@
         <v>6</v>
       </c>
       <c r="I172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3133640552995391</v>
       </c>
       <c r="J172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4147465437788018</v>
       </c>
       <c r="K172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4101382488479262</v>
       </c>
     </row>
@@ -7319,15 +7805,15 @@
         <v>6</v>
       </c>
       <c r="I173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0480349344978166</v>
       </c>
       <c r="J173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0480349344978166</v>
       </c>
       <c r="K173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0480349344978166</v>
       </c>
     </row>
@@ -7354,15 +7840,15 @@
         <v>6</v>
       </c>
       <c r="I174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2441860465116279</v>
       </c>
       <c r="K174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2441860465116279</v>
       </c>
     </row>
@@ -7389,15 +7875,15 @@
         <v>6</v>
       </c>
       <c r="I175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2205128205128206</v>
       </c>
       <c r="J175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="K175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1538461538461537</v>
       </c>
     </row>
@@ -7424,15 +7910,15 @@
         <v>6</v>
       </c>
       <c r="I176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="J176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2755555555555556</v>
       </c>
       <c r="K176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2755555555555556</v>
       </c>
     </row>
@@ -7459,15 +7945,15 @@
         <v>6</v>
       </c>
       <c r="I177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7638888888888888</v>
       </c>
       <c r="K177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
     </row>
@@ -7494,15 +7980,15 @@
         <v>6</v>
       </c>
       <c r="I178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2612612612612613</v>
       </c>
       <c r="J178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3738738738738738</v>
       </c>
       <c r="K178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3738738738738738</v>
       </c>
     </row>
@@ -7529,15 +8015,15 @@
         <v>6</v>
       </c>
       <c r="I179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3688888888888888</v>
       </c>
       <c r="J179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5733333333333333</v>
       </c>
       <c r="K179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5733333333333333</v>
       </c>
     </row>
@@ -7564,15 +8050,15 @@
         <v>6</v>
       </c>
       <c r="I180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0850202429149798</v>
       </c>
       <c r="J180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.263157894736842</v>
       </c>
       <c r="K180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.263157894736842</v>
       </c>
     </row>
@@ -7599,15 +8085,15 @@
         <v>6</v>
       </c>
       <c r="I181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5463917525773196</v>
       </c>
       <c r="J181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5463917525773196</v>
       </c>
       <c r="K181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3969072164948453</v>
       </c>
     </row>
@@ -7634,15 +8120,15 @@
         <v>6</v>
       </c>
       <c r="I182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0487804878048781</v>
       </c>
       <c r="J182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5658536585365854</v>
       </c>
       <c r="K182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5658536585365854</v>
       </c>
     </row>
@@ -7669,15 +8155,15 @@
         <v>6</v>
       </c>
       <c r="I183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0856031128404668</v>
       </c>
       <c r="J183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2178988326848248</v>
       </c>
       <c r="K183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2178988326848248</v>
       </c>
     </row>
@@ -7704,15 +8190,15 @@
         <v>6</v>
       </c>
       <c r="I184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4841269841269842</v>
       </c>
       <c r="J184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3650793650793651</v>
       </c>
       <c r="K184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3650793650793651</v>
       </c>
     </row>
@@ -7739,15 +8225,15 @@
         <v>6</v>
       </c>
       <c r="I185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4959349593495934</v>
       </c>
       <c r="K185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4959349593495934</v>
       </c>
     </row>
@@ -7774,15 +8260,15 @@
         <v>6</v>
       </c>
       <c r="I186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4427860696517414</v>
       </c>
       <c r="J186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4427860696517414</v>
       </c>
       <c r="K186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4427860696517414</v>
       </c>
     </row>
@@ -7809,15 +8295,15 @@
         <v>6</v>
       </c>
       <c r="I187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0866425992779782</v>
       </c>
       <c r="J187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1480144404332131</v>
       </c>
       <c r="K187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1480144404332131</v>
       </c>
     </row>
@@ -7844,15 +8330,15 @@
         <v>6</v>
       </c>
       <c r="I188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0615384615384615</v>
       </c>
       <c r="J188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0615384615384615</v>
       </c>
       <c r="K188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0615384615384615</v>
       </c>
     </row>
@@ -7879,15 +8365,15 @@
         <v>6</v>
       </c>
       <c r="I189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0068493150684932</v>
       </c>
       <c r="J189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0068493150684932</v>
       </c>
       <c r="K189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0068493150684932</v>
       </c>
     </row>
@@ -7914,15 +8400,15 @@
         <v>6</v>
       </c>
       <c r="I190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1318681318681318</v>
       </c>
       <c r="J190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1318681318681318</v>
       </c>
       <c r="K190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1043956043956045</v>
       </c>
     </row>
@@ -7949,15 +8435,15 @@
         <v>6</v>
       </c>
       <c r="I191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4008620689655173</v>
       </c>
       <c r="J191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3706896551724137</v>
       </c>
       <c r="K191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3706896551724137</v>
       </c>
     </row>
@@ -7984,15 +8470,15 @@
         <v>6</v>
       </c>
       <c r="I192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2616822429906542</v>
       </c>
       <c r="J192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1775700934579438</v>
       </c>
       <c r="K192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1775700934579438</v>
       </c>
     </row>
@@ -8019,15 +8505,15 @@
         <v>6</v>
       </c>
       <c r="I193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1660516605166051</v>
       </c>
       <c r="J193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0221402214022139</v>
       </c>
       <c r="K193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0221402214022139</v>
       </c>
     </row>
@@ -8054,15 +8540,15 @@
         <v>6</v>
       </c>
       <c r="I194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0405405405405406</v>
       </c>
       <c r="J194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0405405405405406</v>
       </c>
       <c r="K194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0405405405405406</v>
       </c>
     </row>
@@ -8089,15 +8575,15 @@
         <v>6</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="9">D195/C195</f>
+        <f t="shared" ref="I195:I258" si="12">D195/C195</f>
         <v>1.1044176706827309</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J258" si="10">E195/C195</f>
+        <f t="shared" ref="J195:J258" si="13">E195/C195</f>
         <v>1.321285140562249</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K258" si="11">F195/C195</f>
+        <f t="shared" ref="K195:K258" si="14">F195/C195</f>
         <v>1.321285140562249</v>
       </c>
     </row>
@@ -8124,15 +8610,15 @@
         <v>6</v>
       </c>
       <c r="I196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2011494252873562</v>
       </c>
       <c r="J196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.103448275862069</v>
       </c>
       <c r="K196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.103448275862069</v>
       </c>
     </row>
@@ -8159,15 +8645,15 @@
         <v>6</v>
       </c>
       <c r="I197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3163265306122449</v>
       </c>
       <c r="J197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5153061224489797</v>
       </c>
       <c r="K197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3163265306122449</v>
       </c>
     </row>
@@ -8194,15 +8680,15 @@
         <v>6</v>
       </c>
       <c r="I198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4608695652173913</v>
       </c>
       <c r="J198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1782608695652175</v>
       </c>
       <c r="K198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4</v>
       </c>
     </row>
@@ -8229,15 +8715,15 @@
         <v>6</v>
       </c>
       <c r="I199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -8264,15 +8750,15 @@
         <v>6</v>
       </c>
       <c r="I200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5219512195121951</v>
       </c>
       <c r="J200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4975609756097561</v>
       </c>
       <c r="K200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4975609756097561</v>
       </c>
     </row>
@@ -8299,15 +8785,15 @@
         <v>6</v>
       </c>
       <c r="I201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0363636363636364</v>
       </c>
       <c r="J201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6909090909090909</v>
       </c>
       <c r="K201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6909090909090909</v>
       </c>
     </row>
@@ -8334,15 +8820,15 @@
         <v>7</v>
       </c>
       <c r="I202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1860465116279071</v>
       </c>
       <c r="J202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -8369,15 +8855,15 @@
         <v>7</v>
       </c>
       <c r="I203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3740458015267176</v>
       </c>
       <c r="J203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2290076335877862</v>
       </c>
       <c r="K203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0916030534351144</v>
       </c>
     </row>
@@ -8404,15 +8890,15 @@
         <v>7</v>
       </c>
       <c r="I204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.308300395256917</v>
       </c>
       <c r="J204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3122529644268774</v>
       </c>
       <c r="K204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3913043478260869</v>
       </c>
     </row>
@@ -8439,15 +8925,15 @@
         <v>7</v>
       </c>
       <c r="I205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1724137931034482</v>
       </c>
       <c r="J205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0114942528735633</v>
       </c>
       <c r="K205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0114942528735633</v>
       </c>
     </row>
@@ -8474,15 +8960,15 @@
         <v>7</v>
       </c>
       <c r="I206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4034334763948497</v>
       </c>
       <c r="J206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3476394849785407</v>
       </c>
       <c r="K206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4034334763948497</v>
       </c>
     </row>
@@ -8509,15 +8995,15 @@
         <v>7</v>
       </c>
       <c r="I207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0474308300395256</v>
       </c>
       <c r="J207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0474308300395256</v>
       </c>
       <c r="K207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0474308300395256</v>
       </c>
     </row>
@@ -8544,15 +9030,15 @@
         <v>7</v>
       </c>
       <c r="I208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.25</v>
       </c>
       <c r="J208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.323076923076923</v>
       </c>
       <c r="K208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4</v>
       </c>
     </row>
@@ -8579,15 +9065,15 @@
         <v>7</v>
       </c>
       <c r="I209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4607843137254901</v>
       </c>
       <c r="J209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.338235294117647</v>
       </c>
       <c r="K209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.357843137254902</v>
       </c>
     </row>
@@ -8614,15 +9100,15 @@
         <v>7</v>
       </c>
       <c r="I210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4449339207048457</v>
       </c>
       <c r="J210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5418502202643172</v>
       </c>
       <c r="K210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5418502202643172</v>
       </c>
     </row>
@@ -8649,15 +9135,15 @@
         <v>7</v>
       </c>
       <c r="I211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0082644628099173</v>
       </c>
       <c r="J211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5537190082644627</v>
       </c>
       <c r="K211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5537190082644627</v>
       </c>
     </row>
@@ -8684,15 +9170,15 @@
         <v>7</v>
       </c>
       <c r="I212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.45</v>
       </c>
       <c r="J212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1909090909090909</v>
       </c>
       <c r="K212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3545454545454545</v>
       </c>
     </row>
@@ -8719,15 +9205,15 @@
         <v>7</v>
       </c>
       <c r="I213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1081081081081081</v>
       </c>
       <c r="J213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2702702702702702</v>
       </c>
       <c r="K213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2702702702702702</v>
       </c>
     </row>
@@ -8754,15 +9240,15 @@
         <v>7</v>
       </c>
       <c r="I214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.08</v>
       </c>
       <c r="J214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.288</v>
       </c>
       <c r="K214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3120000000000001</v>
       </c>
     </row>
@@ -8789,15 +9275,15 @@
         <v>7</v>
       </c>
       <c r="I215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0573770491803278</v>
       </c>
       <c r="J215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5368852459016393</v>
       </c>
       <c r="K215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5368852459016393</v>
       </c>
     </row>
@@ -8824,15 +9310,15 @@
         <v>7</v>
       </c>
       <c r="I216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0534351145038168</v>
       </c>
       <c r="J216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4312977099236641</v>
       </c>
       <c r="K216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4427480916030535</v>
       </c>
     </row>
@@ -8859,15 +9345,15 @@
         <v>7</v>
       </c>
       <c r="I217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4217391304347826</v>
       </c>
       <c r="J217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2956521739130435</v>
       </c>
       <c r="K217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2782608695652173</v>
       </c>
     </row>
@@ -8894,15 +9380,15 @@
         <v>7</v>
       </c>
       <c r="I218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2357414448669202</v>
       </c>
       <c r="J218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2357414448669202</v>
       </c>
       <c r="K218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2357414448669202</v>
       </c>
     </row>
@@ -8929,15 +9415,15 @@
         <v>7</v>
       </c>
       <c r="I219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0443548387096775</v>
       </c>
       <c r="J219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0443548387096775</v>
       </c>
       <c r="K219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3387096774193548</v>
       </c>
     </row>
@@ -8964,15 +9450,15 @@
         <v>7</v>
       </c>
       <c r="I220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0945945945945945</v>
       </c>
       <c r="J220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4954954954954955</v>
       </c>
       <c r="K220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4954954954954955</v>
       </c>
     </row>
@@ -8999,15 +9485,15 @@
         <v>7</v>
       </c>
       <c r="I221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.071969696969697</v>
       </c>
       <c r="J221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9034,15 +9520,15 @@
         <v>7</v>
       </c>
       <c r="I222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3565217391304347</v>
       </c>
       <c r="J222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
       <c r="K222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9069,15 +9555,15 @@
         <v>7</v>
       </c>
       <c r="I223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.196</v>
       </c>
       <c r="J223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.508</v>
       </c>
       <c r="K223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.272</v>
       </c>
     </row>
@@ -9104,15 +9590,15 @@
         <v>7</v>
       </c>
       <c r="I224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2073170731707317</v>
       </c>
       <c r="J224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3861788617886179</v>
       </c>
       <c r="K224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3861788617886179</v>
       </c>
     </row>
@@ -9139,15 +9625,15 @@
         <v>7</v>
       </c>
       <c r="I225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2489795918367348</v>
       </c>
       <c r="J225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3061224489795917</v>
       </c>
       <c r="K225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3061224489795917</v>
       </c>
     </row>
@@ -9174,15 +9660,15 @@
         <v>7</v>
       </c>
       <c r="I226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1442307692307692</v>
       </c>
       <c r="J226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0961538461538463</v>
       </c>
       <c r="K226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0961538461538463</v>
       </c>
     </row>
@@ -9209,15 +9695,15 @@
         <v>7</v>
       </c>
       <c r="I227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1187739463601531</v>
       </c>
       <c r="J227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1187739463601531</v>
       </c>
       <c r="K227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1187739463601531</v>
       </c>
     </row>
@@ -9244,15 +9730,15 @@
         <v>7</v>
       </c>
       <c r="I228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2623574144486691</v>
       </c>
       <c r="K228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2623574144486691</v>
       </c>
     </row>
@@ -9279,15 +9765,15 @@
         <v>7</v>
       </c>
       <c r="I229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1411290322580645</v>
       </c>
       <c r="K229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1411290322580645</v>
       </c>
     </row>
@@ -9314,15 +9800,15 @@
         <v>7</v>
       </c>
       <c r="I230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.029535864978903</v>
       </c>
       <c r="J230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.371308016877637</v>
       </c>
       <c r="K230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.371308016877637</v>
       </c>
     </row>
@@ -9349,15 +9835,15 @@
         <v>7</v>
       </c>
       <c r="I231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1946564885496183</v>
       </c>
       <c r="J231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1984732824427482</v>
       </c>
       <c r="K231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1984732824427482</v>
       </c>
     </row>
@@ -9384,15 +9870,15 @@
         <v>7</v>
       </c>
       <c r="I232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3484162895927603</v>
       </c>
       <c r="J232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3348416289592759</v>
       </c>
       <c r="K232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3484162895927603</v>
       </c>
     </row>
@@ -9419,15 +9905,15 @@
         <v>7</v>
       </c>
       <c r="I233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0047169811320755</v>
       </c>
       <c r="J233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0377358490566038</v>
       </c>
       <c r="K233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1132075471698113</v>
       </c>
     </row>
@@ -9454,15 +9940,15 @@
         <v>7</v>
       </c>
       <c r="I234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3083333333333333</v>
       </c>
       <c r="J234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3083333333333333</v>
       </c>
       <c r="K234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3083333333333333</v>
       </c>
     </row>
@@ -9489,15 +9975,15 @@
         <v>7</v>
       </c>
       <c r="I235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1940298507462686</v>
       </c>
       <c r="J235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.25</v>
       </c>
       <c r="K235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3022388059701493</v>
       </c>
     </row>
@@ -9524,15 +10010,15 @@
         <v>7</v>
       </c>
       <c r="I236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2431372549019608</v>
       </c>
       <c r="J236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1725490196078432</v>
       </c>
       <c r="K236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1725490196078432</v>
       </c>
     </row>
@@ -9559,15 +10045,15 @@
         <v>7</v>
       </c>
       <c r="I237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.032258064516129</v>
       </c>
       <c r="J237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0913978494623655</v>
       </c>
       <c r="K237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0913978494623655</v>
       </c>
     </row>
@@ -9594,15 +10080,15 @@
         <v>7</v>
       </c>
       <c r="I238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.534412955465587</v>
       </c>
       <c r="J238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3886639676113359</v>
       </c>
       <c r="K238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4048582995951417</v>
       </c>
     </row>
@@ -9629,15 +10115,15 @@
         <v>7</v>
       </c>
       <c r="I239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1021505376344085</v>
       </c>
       <c r="J239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1021505376344085</v>
       </c>
       <c r="K239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1021505376344085</v>
       </c>
     </row>
@@ -9664,15 +10150,15 @@
         <v>7</v>
       </c>
       <c r="I240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1083333333333334</v>
       </c>
       <c r="J240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1083333333333334</v>
       </c>
       <c r="K240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1083333333333334</v>
       </c>
     </row>
@@ -9699,15 +10185,15 @@
         <v>7</v>
       </c>
       <c r="I241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3886462882096069</v>
       </c>
       <c r="J241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2882096069868996</v>
       </c>
       <c r="K241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1746724890829694</v>
       </c>
     </row>
@@ -9734,15 +10220,15 @@
         <v>7</v>
       </c>
       <c r="I242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.128654970760234</v>
       </c>
       <c r="J242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0877192982456141</v>
       </c>
       <c r="K242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0877192982456141</v>
       </c>
     </row>
@@ -9769,15 +10255,15 @@
         <v>7</v>
       </c>
       <c r="I243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1389961389961389</v>
       </c>
       <c r="J243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1312741312741312</v>
       </c>
       <c r="K243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1312741312741312</v>
       </c>
     </row>
@@ -9804,15 +10290,15 @@
         <v>7</v>
       </c>
       <c r="I244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2192513368983957</v>
       </c>
       <c r="J244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1978609625668448</v>
       </c>
       <c r="K244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2032085561497325</v>
       </c>
     </row>
@@ -9839,15 +10325,15 @@
         <v>7</v>
       </c>
       <c r="I245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5778688524590163</v>
       </c>
       <c r="J245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.430327868852459</v>
       </c>
       <c r="K245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.430327868852459</v>
       </c>
     </row>
@@ -9874,15 +10360,15 @@
         <v>7</v>
       </c>
       <c r="I246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3217391304347825</v>
       </c>
       <c r="J246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2391304347826086</v>
       </c>
       <c r="K246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1608695652173913</v>
       </c>
     </row>
@@ -9909,15 +10395,15 @@
         <v>7</v>
       </c>
       <c r="I247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0538461538461539</v>
       </c>
       <c r="J247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.023076923076923</v>
       </c>
       <c r="K247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.023076923076923</v>
       </c>
     </row>
@@ -9944,15 +10430,15 @@
         <v>7</v>
       </c>
       <c r="I248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2213740458015268</v>
       </c>
       <c r="J248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0648854961832062</v>
       </c>
       <c r="K248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0610687022900764</v>
       </c>
     </row>
@@ -9979,15 +10465,15 @@
         <v>7</v>
       </c>
       <c r="I249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0422535211267605</v>
       </c>
       <c r="J249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0422535211267605</v>
       </c>
       <c r="K249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0422535211267605</v>
       </c>
     </row>
@@ -10014,15 +10500,15 @@
         <v>7</v>
       </c>
       <c r="I250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2029520295202951</v>
       </c>
       <c r="J250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0442804428044281</v>
       </c>
       <c r="K250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0442804428044281</v>
       </c>
     </row>
@@ -10049,15 +10535,15 @@
         <v>7</v>
       </c>
       <c r="I251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0890052356020943</v>
       </c>
       <c r="J251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3874345549738221</v>
       </c>
       <c r="K251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3874345549738221</v>
       </c>
     </row>
@@ -10084,15 +10570,15 @@
         <v>8</v>
       </c>
       <c r="I252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0038759689922481</v>
       </c>
       <c r="J252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1007751937984496</v>
       </c>
       <c r="K252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1007751937984496</v>
       </c>
     </row>
@@ -10119,15 +10605,15 @@
         <v>8</v>
       </c>
       <c r="I253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.48</v>
       </c>
       <c r="J253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4550000000000001</v>
       </c>
       <c r="K253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.37</v>
       </c>
     </row>
@@ -10154,15 +10640,15 @@
         <v>8</v>
       </c>
       <c r="I254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0579710144927537</v>
       </c>
       <c r="J254">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1920289855072463</v>
       </c>
       <c r="K254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1920289855072463</v>
       </c>
     </row>
@@ -10189,15 +10675,15 @@
         <v>8</v>
       </c>
       <c r="I255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5778894472361809</v>
       </c>
       <c r="J255">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7487437185929648</v>
       </c>
       <c r="K255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5175879396984924</v>
       </c>
     </row>
@@ -10224,15 +10710,15 @@
         <v>8</v>
       </c>
       <c r="I256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1288659793814433</v>
       </c>
       <c r="J256">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5412371134020619</v>
       </c>
       <c r="K256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5412371134020619</v>
       </c>
     </row>
@@ -10259,15 +10745,15 @@
         <v>8</v>
       </c>
       <c r="I257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2295719844357977</v>
       </c>
       <c r="J257">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3151750972762646</v>
       </c>
       <c r="K257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3151750972762646</v>
       </c>
     </row>
@@ -10294,15 +10780,15 @@
         <v>8</v>
       </c>
       <c r="I258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1132075471698113</v>
       </c>
       <c r="J258">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5896226415094339</v>
       </c>
       <c r="K258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5896226415094339</v>
       </c>
     </row>
@@ -10329,15 +10815,15 @@
         <v>8</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259:I322" si="12">D259/C259</f>
+        <f t="shared" ref="I259:I322" si="15">D259/C259</f>
         <v>1</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259:J322" si="13">E259/C259</f>
+        <f t="shared" ref="J259:J322" si="16">E259/C259</f>
         <v>1</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:K322" si="14">F259/C259</f>
+        <f t="shared" ref="K259:K322" si="17">F259/C259</f>
         <v>1</v>
       </c>
     </row>
@@ -10364,15 +10850,15 @@
         <v>8</v>
       </c>
       <c r="I260">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6846473029045643</v>
       </c>
       <c r="J260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5269709543568464</v>
       </c>
       <c r="K260">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1991701244813278</v>
       </c>
     </row>
@@ -10399,15 +10885,15 @@
         <v>8</v>
       </c>
       <c r="I261">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3395348837209302</v>
       </c>
       <c r="J261">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3488372093023255</v>
       </c>
       <c r="K261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2976744186046512</v>
       </c>
     </row>
@@ -10434,15 +10920,15 @@
         <v>8</v>
       </c>
       <c r="I262">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3152709359605912</v>
       </c>
       <c r="J262">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3152709359605912</v>
       </c>
       <c r="K262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2610837438423645</v>
       </c>
     </row>
@@ -10469,15 +10955,15 @@
         <v>8</v>
       </c>
       <c r="I263">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0892857142857142</v>
       </c>
       <c r="J263">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1964285714285714</v>
       </c>
       <c r="K263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1964285714285714</v>
       </c>
     </row>
@@ -10504,15 +10990,15 @@
         <v>8</v>
       </c>
       <c r="I264">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J264">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0663265306122449</v>
       </c>
       <c r="K264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0663265306122449</v>
       </c>
     </row>
@@ -10539,15 +11025,15 @@
         <v>8</v>
       </c>
       <c r="I265">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0166666666666666</v>
       </c>
       <c r="J265">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0458333333333334</v>
       </c>
       <c r="K265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0458333333333334</v>
       </c>
     </row>
@@ -10574,15 +11060,15 @@
         <v>8</v>
       </c>
       <c r="I266">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4409090909090909</v>
       </c>
       <c r="J266">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5045454545454546</v>
       </c>
       <c r="K266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2363636363636363</v>
       </c>
     </row>
@@ -10609,15 +11095,15 @@
         <v>8</v>
       </c>
       <c r="I267">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3913043478260869</v>
       </c>
       <c r="J267">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3695652173913044</v>
       </c>
       <c r="K267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3739130434782609</v>
       </c>
     </row>
@@ -10644,15 +11130,15 @@
         <v>8</v>
       </c>
       <c r="I268">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5441860465116279</v>
       </c>
       <c r="J268">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2651162790697674</v>
       </c>
       <c r="K268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2651162790697674</v>
       </c>
     </row>
@@ -10679,15 +11165,15 @@
         <v>8</v>
       </c>
       <c r="I269">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="J269">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -10714,15 +11200,15 @@
         <v>8</v>
       </c>
       <c r="I270">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.430622009569378</v>
       </c>
       <c r="J270">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3301435406698565</v>
       </c>
       <c r="K270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3301435406698565</v>
       </c>
     </row>
@@ -10749,15 +11235,15 @@
         <v>8</v>
       </c>
       <c r="I271">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1134453781512605</v>
       </c>
       <c r="J271">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3109243697478992</v>
       </c>
       <c r="K271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3235294117647058</v>
       </c>
     </row>
@@ -10784,15 +11270,15 @@
         <v>8</v>
       </c>
       <c r="I272">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.167300380228137</v>
       </c>
       <c r="J272">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1520912547528517</v>
       </c>
       <c r="K272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0532319391634981</v>
       </c>
     </row>
@@ -10819,15 +11305,15 @@
         <v>8</v>
       </c>
       <c r="I273">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1074380165289257</v>
       </c>
       <c r="J273">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.21900826446281</v>
       </c>
       <c r="K273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3264462809917354</v>
       </c>
     </row>
@@ -10854,15 +11340,15 @@
         <v>8</v>
       </c>
       <c r="I274">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3041666666666667</v>
       </c>
       <c r="J274">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2916666666666667</v>
       </c>
       <c r="K274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2916666666666667</v>
       </c>
     </row>
@@ -10889,15 +11375,15 @@
         <v>8</v>
       </c>
       <c r="I275">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1358024691358024</v>
       </c>
       <c r="J275">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1358024691358024</v>
       </c>
       <c r="K275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1358024691358024</v>
       </c>
     </row>
@@ -10924,15 +11410,15 @@
         <v>8</v>
       </c>
       <c r="I276">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4475138121546962</v>
       </c>
       <c r="J276">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.430939226519337</v>
       </c>
       <c r="K276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.430939226519337</v>
       </c>
     </row>
@@ -10959,15 +11445,15 @@
         <v>8</v>
       </c>
       <c r="I277">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4341085271317831</v>
       </c>
       <c r="J277">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2441860465116279</v>
       </c>
       <c r="K277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1976744186046511</v>
       </c>
     </row>
@@ -10994,15 +11480,15 @@
         <v>8</v>
       </c>
       <c r="I278">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.403361344537815</v>
       </c>
       <c r="J278">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2184873949579831</v>
       </c>
       <c r="K278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1302521008403361</v>
       </c>
     </row>
@@ -11029,15 +11515,15 @@
         <v>8</v>
       </c>
       <c r="I279">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.594142259414226</v>
       </c>
       <c r="J279">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2426778242677825</v>
       </c>
       <c r="K279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2552301255230125</v>
       </c>
     </row>
@@ -11064,15 +11550,15 @@
         <v>8</v>
       </c>
       <c r="I280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1466666666666667</v>
       </c>
       <c r="J280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1466666666666667</v>
       </c>
       <c r="K280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1733333333333333</v>
       </c>
     </row>
@@ -11099,15 +11585,15 @@
         <v>8</v>
       </c>
       <c r="I281">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1793721973094171</v>
       </c>
       <c r="J281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4394618834080717</v>
       </c>
       <c r="K281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3228699551569507</v>
       </c>
     </row>
@@ -11134,15 +11620,15 @@
         <v>8</v>
       </c>
       <c r="I282">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2053231939163498</v>
       </c>
       <c r="J282">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.520912547528517</v>
       </c>
       <c r="K282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4068441064638784</v>
       </c>
     </row>
@@ -11169,15 +11655,15 @@
         <v>8</v>
       </c>
       <c r="I283">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6820276497695852</v>
       </c>
       <c r="J283">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6267281105990783</v>
       </c>
       <c r="K283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5253456221198156</v>
       </c>
     </row>
@@ -11204,15 +11690,15 @@
         <v>8</v>
       </c>
       <c r="I284">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.527027027027027</v>
       </c>
       <c r="J284">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3243243243243243</v>
       </c>
       <c r="K284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1981981981981982</v>
       </c>
     </row>
@@ -11239,15 +11725,15 @@
         <v>8</v>
       </c>
       <c r="I285">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1268656716417911</v>
       </c>
       <c r="J285">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.041044776119403</v>
       </c>
       <c r="K285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.041044776119403</v>
       </c>
     </row>
@@ -11274,15 +11760,15 @@
         <v>8</v>
       </c>
       <c r="I286">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0104166666666667</v>
       </c>
       <c r="J286">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6614583333333333</v>
       </c>
       <c r="K286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7395833333333333</v>
       </c>
     </row>
@@ -11309,15 +11795,15 @@
         <v>8</v>
       </c>
       <c r="I287">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.537037037037037</v>
       </c>
       <c r="J287">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.412037037037037</v>
       </c>
       <c r="K287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2731481481481481</v>
       </c>
     </row>
@@ -11344,15 +11830,15 @@
         <v>8</v>
       </c>
       <c r="I288">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4602510460251046</v>
       </c>
       <c r="J288">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2677824267782427</v>
       </c>
       <c r="K288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1966527196652719</v>
       </c>
     </row>
@@ -11379,15 +11865,15 @@
         <v>8</v>
       </c>
       <c r="I289">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4304347826086956</v>
       </c>
       <c r="J289">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2260869565217392</v>
       </c>
       <c r="K289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2826086956521738</v>
       </c>
     </row>
@@ -11414,15 +11900,15 @@
         <v>8</v>
       </c>
       <c r="I290">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3980582524271845</v>
       </c>
       <c r="J290">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3689320388349515</v>
       </c>
       <c r="K290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3495145631067962</v>
       </c>
     </row>
@@ -11449,15 +11935,15 @@
         <v>8</v>
       </c>
       <c r="I291">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1754385964912282</v>
       </c>
       <c r="J291">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1842105263157894</v>
       </c>
       <c r="K291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1842105263157894</v>
       </c>
     </row>
@@ -11484,15 +11970,15 @@
         <v>8</v>
       </c>
       <c r="I292">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.028</v>
       </c>
       <c r="J292">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.028</v>
       </c>
       <c r="K292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.028</v>
       </c>
     </row>
@@ -11519,15 +12005,15 @@
         <v>8</v>
       </c>
       <c r="I293">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2039215686274509</v>
       </c>
       <c r="J293">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1529411764705881</v>
       </c>
       <c r="K293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1529411764705881</v>
       </c>
     </row>
@@ -11554,15 +12040,15 @@
         <v>8</v>
       </c>
       <c r="I294">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1485148514851484</v>
       </c>
       <c r="J294">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3118811881188119</v>
       </c>
       <c r="K294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3118811881188119</v>
       </c>
     </row>
@@ -11589,15 +12075,15 @@
         <v>8</v>
       </c>
       <c r="I295">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.403225806451613</v>
       </c>
       <c r="J295">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0887096774193548</v>
       </c>
       <c r="K295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0887096774193548</v>
       </c>
     </row>
@@ -11624,15 +12110,15 @@
         <v>8</v>
       </c>
       <c r="I296">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2846153846153847</v>
       </c>
       <c r="J296">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1730769230769231</v>
       </c>
       <c r="K296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1730769230769231</v>
       </c>
     </row>
@@ -11659,15 +12145,15 @@
         <v>8</v>
       </c>
       <c r="I297">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0992366412213741</v>
       </c>
       <c r="J297">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1526717557251909</v>
       </c>
       <c r="K297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1526717557251909</v>
       </c>
     </row>
@@ -11694,15 +12180,15 @@
         <v>8</v>
       </c>
       <c r="I298">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2472324723247232</v>
       </c>
       <c r="J298">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2214022140221403</v>
       </c>
       <c r="K298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2214022140221403</v>
       </c>
     </row>
@@ -11729,15 +12215,15 @@
         <v>8</v>
       </c>
       <c r="I299">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2334801762114538</v>
       </c>
       <c r="J299">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4185022026431717</v>
       </c>
       <c r="K299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4185022026431717</v>
       </c>
     </row>
@@ -11764,15 +12250,15 @@
         <v>8</v>
       </c>
       <c r="I300">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1367521367521367</v>
       </c>
       <c r="J300">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="K300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2521367521367521</v>
       </c>
     </row>
@@ -11799,15 +12285,15 @@
         <v>8</v>
       </c>
       <c r="I301">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4192139737991267</v>
       </c>
       <c r="J301">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2270742358078603</v>
       </c>
       <c r="K301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.222707423580786</v>
       </c>
     </row>
@@ -11834,15 +12320,15 @@
         <v>9</v>
       </c>
       <c r="I302">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3643724696356276</v>
       </c>
       <c r="J302">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2064777327935223</v>
       </c>
       <c r="K302">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2064777327935223</v>
       </c>
     </row>
@@ -11869,15 +12355,15 @@
         <v>9</v>
       </c>
       <c r="I303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.380281690140845</v>
       </c>
       <c r="J303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.352112676056338</v>
       </c>
       <c r="K303">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4366197183098592</v>
       </c>
     </row>
@@ -11904,15 +12390,15 @@
         <v>9</v>
       </c>
       <c r="I304">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5866666666666667</v>
       </c>
       <c r="J304">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5511111111111111</v>
       </c>
       <c r="K304">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4266666666666667</v>
       </c>
     </row>
@@ -11939,15 +12425,15 @@
         <v>9</v>
       </c>
       <c r="I305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0717299578059072</v>
       </c>
       <c r="J305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0717299578059072</v>
       </c>
       <c r="K305">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0717299578059072</v>
       </c>
     </row>
@@ -11974,15 +12460,15 @@
         <v>9</v>
       </c>
       <c r="I306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4930875576036866</v>
       </c>
       <c r="J306">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4930875576036866</v>
       </c>
       <c r="K306">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2995391705069124</v>
       </c>
     </row>
@@ -12009,15 +12495,15 @@
         <v>9</v>
       </c>
       <c r="I307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.99259259259259258</v>
       </c>
       <c r="J307">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.325925925925926</v>
       </c>
       <c r="K307">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5777777777777777</v>
       </c>
     </row>
@@ -12044,15 +12530,15 @@
         <v>9</v>
       </c>
       <c r="I308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1571428571428573</v>
       </c>
       <c r="J308">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1523809523809523</v>
       </c>
       <c r="K308">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0666666666666667</v>
       </c>
     </row>
@@ -12079,15 +12565,15 @@
         <v>9</v>
       </c>
       <c r="I309">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.7832512315270936</v>
       </c>
       <c r="J309">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.7487684729064039</v>
       </c>
       <c r="K309">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6157635467980296</v>
       </c>
     </row>
@@ -12114,15 +12600,15 @@
         <v>9</v>
       </c>
       <c r="I310">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="J310">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.8238095238095238</v>
       </c>
       <c r="K310">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3571428571428572</v>
       </c>
     </row>
@@ -12149,15 +12635,15 @@
         <v>9</v>
       </c>
       <c r="I311">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3940677966101696</v>
       </c>
       <c r="J311">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1610169491525424</v>
       </c>
       <c r="K311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3728813559322033</v>
       </c>
     </row>
@@ -12184,15 +12670,15 @@
         <v>9</v>
       </c>
       <c r="I312">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2168674698795181</v>
       </c>
       <c r="J312">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2168674698795181</v>
       </c>
       <c r="K312">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2048192771084338</v>
       </c>
     </row>
@@ -12219,15 +12705,15 @@
         <v>9</v>
       </c>
       <c r="I313">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2890995260663507</v>
       </c>
       <c r="J313">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2890995260663507</v>
       </c>
       <c r="K313">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6113744075829384</v>
       </c>
     </row>
@@ -12254,15 +12740,15 @@
         <v>9</v>
       </c>
       <c r="I314">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4093023255813955</v>
       </c>
       <c r="J314">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5348837209302326</v>
       </c>
       <c r="K314">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5069767441860464</v>
       </c>
     </row>
@@ -12289,15 +12775,15 @@
         <v>9</v>
       </c>
       <c r="I315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.203125</v>
       </c>
       <c r="J315">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.046875</v>
       </c>
       <c r="K315">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.15234375</v>
       </c>
     </row>
@@ -12324,15 +12810,15 @@
         <v>9</v>
       </c>
       <c r="I316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2183908045977012</v>
       </c>
       <c r="J316">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0919540229885059</v>
       </c>
       <c r="K316">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.157088122605364</v>
       </c>
     </row>
@@ -12359,15 +12845,15 @@
         <v>9</v>
       </c>
       <c r="I317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J317">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.736842105263158</v>
       </c>
       <c r="K317">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6507177033492824</v>
       </c>
     </row>
@@ -12394,15 +12880,15 @@
         <v>9</v>
       </c>
       <c r="I318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="J318">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0470588235294118</v>
       </c>
       <c r="K318">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0784313725490196</v>
       </c>
     </row>
@@ -12429,15 +12915,15 @@
         <v>9</v>
       </c>
       <c r="I319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3085501858736059</v>
       </c>
       <c r="J319">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0743494423791822</v>
       </c>
       <c r="K319">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4349442379182156</v>
       </c>
     </row>
@@ -12464,15 +12950,15 @@
         <v>9</v>
       </c>
       <c r="I320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2401960784313726</v>
       </c>
       <c r="J320">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4411764705882353</v>
       </c>
       <c r="K320">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6519607843137254</v>
       </c>
     </row>
@@ -12499,15 +12985,15 @@
         <v>9</v>
       </c>
       <c r="I321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6553398058252426</v>
       </c>
       <c r="J321">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.8349514563106797</v>
       </c>
       <c r="K321">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.766990291262136</v>
       </c>
     </row>
@@ -12534,15 +13020,15 @@
         <v>9</v>
       </c>
       <c r="I322">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3781512605042017</v>
       </c>
       <c r="J322">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2016806722689075</v>
       </c>
       <c r="K322">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2016806722689075</v>
       </c>
     </row>
@@ -12569,15 +13055,15 @@
         <v>9</v>
       </c>
       <c r="I323">
-        <f t="shared" ref="I323:I386" si="15">D323/C323</f>
+        <f t="shared" ref="I323:I386" si="18">D323/C323</f>
         <v>1.0454545454545454</v>
       </c>
       <c r="J323">
-        <f t="shared" ref="J323:J386" si="16">E323/C323</f>
+        <f t="shared" ref="J323:J386" si="19">E323/C323</f>
         <v>1.3801652892561984</v>
       </c>
       <c r="K323">
-        <f t="shared" ref="K323:K386" si="17">F323/C323</f>
+        <f t="shared" ref="K323:K386" si="20">F323/C323</f>
         <v>1.1239669421487604</v>
       </c>
     </row>
@@ -12604,15 +13090,15 @@
         <v>9</v>
       </c>
       <c r="I324">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.7198067632850242</v>
       </c>
       <c r="J324">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="K324">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5072463768115942</v>
       </c>
     </row>
@@ -12639,15 +13125,15 @@
         <v>9</v>
       </c>
       <c r="I325">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4907063197026023</v>
       </c>
       <c r="J325">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2342007434944238</v>
       </c>
       <c r="K325">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1152416356877324</v>
       </c>
     </row>
@@ -12674,15 +13160,15 @@
         <v>9</v>
       </c>
       <c r="I326">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2798165137614679</v>
       </c>
       <c r="J326">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.426605504587156</v>
       </c>
       <c r="K326">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4036697247706422</v>
       </c>
     </row>
@@ -12709,15 +13195,15 @@
         <v>9</v>
       </c>
       <c r="I327">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3070866141732282</v>
       </c>
       <c r="J327">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0551181102362204</v>
       </c>
       <c r="K327">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2559055118110236</v>
       </c>
     </row>
@@ -12744,15 +13230,15 @@
         <v>9</v>
       </c>
       <c r="I328">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1826923076923077</v>
       </c>
       <c r="J328">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1586538461538463</v>
       </c>
       <c r="K328">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1586538461538463</v>
       </c>
     </row>
@@ -12779,15 +13265,15 @@
         <v>9</v>
       </c>
       <c r="I329">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3679653679653681</v>
       </c>
       <c r="J329">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7359307359307359</v>
       </c>
       <c r="K329">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5238095238095237</v>
       </c>
     </row>
@@ -12814,15 +13300,15 @@
         <v>9</v>
       </c>
       <c r="I330">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0743494423791822</v>
       </c>
       <c r="J330">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0743494423791822</v>
       </c>
       <c r="K330">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0743494423791822</v>
       </c>
     </row>
@@ -12849,15 +13335,15 @@
         <v>9</v>
       </c>
       <c r="I331">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0459770114942528</v>
       </c>
       <c r="J331">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1685823754789273</v>
       </c>
       <c r="K331">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2183908045977012</v>
       </c>
     </row>
@@ -12884,15 +13370,15 @@
         <v>9</v>
       </c>
       <c r="I332">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6940639269406392</v>
       </c>
       <c r="J332">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6849315068493151</v>
       </c>
       <c r="K332">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6027397260273972</v>
       </c>
     </row>
@@ -12919,15 +13405,15 @@
         <v>9</v>
       </c>
       <c r="I333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2137096774193548</v>
       </c>
       <c r="J333">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4153225806451613</v>
       </c>
       <c r="K333">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3951612903225807</v>
       </c>
     </row>
@@ -12954,15 +13440,15 @@
         <v>9</v>
       </c>
       <c r="I334">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1797235023041475</v>
       </c>
       <c r="J334">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.400921658986175</v>
       </c>
       <c r="K334">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3732718894009217</v>
       </c>
     </row>
@@ -12989,15 +13475,15 @@
         <v>9</v>
       </c>
       <c r="I335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3188976377952757</v>
       </c>
       <c r="J335">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2637795275590551</v>
       </c>
       <c r="K335">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.295275590551181</v>
       </c>
     </row>
@@ -13024,15 +13510,15 @@
         <v>9</v>
       </c>
       <c r="I336">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4385964912280702</v>
       </c>
       <c r="J336">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2017543859649122</v>
       </c>
       <c r="K336">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3377192982456141</v>
       </c>
     </row>
@@ -13059,15 +13545,15 @@
         <v>9</v>
       </c>
       <c r="I337">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="J337">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="K337">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2714285714285714</v>
       </c>
     </row>
@@ -13094,15 +13580,15 @@
         <v>9</v>
       </c>
       <c r="I338">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0491803278688525</v>
       </c>
       <c r="J338">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3442622950819672</v>
       </c>
       <c r="K338">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1912568306010929</v>
       </c>
     </row>
@@ -13129,15 +13615,15 @@
         <v>9</v>
       </c>
       <c r="I339">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0121951219512195</v>
       </c>
       <c r="J339">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5731707317073171</v>
       </c>
       <c r="K339">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3130081300813008</v>
       </c>
     </row>
@@ -13164,15 +13650,15 @@
         <v>9</v>
       </c>
       <c r="I340">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3565217391304347</v>
       </c>
       <c r="J340">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3739130434782609</v>
       </c>
       <c r="K340">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6086956521739131</v>
       </c>
     </row>
@@ -13199,15 +13685,15 @@
         <v>9</v>
       </c>
       <c r="I341">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1875</v>
       </c>
       <c r="J341">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.01953125</v>
       </c>
       <c r="K341">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.01953125</v>
       </c>
     </row>
@@ -13234,15 +13720,15 @@
         <v>9</v>
       </c>
       <c r="I342">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4482758620689655</v>
       </c>
       <c r="J342">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3922413793103448</v>
       </c>
       <c r="K342">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2887931034482758</v>
       </c>
     </row>
@@ -13269,15 +13755,15 @@
         <v>9</v>
       </c>
       <c r="I343">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1908396946564885</v>
       </c>
       <c r="J343">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1221374045801527</v>
       </c>
       <c r="K343">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1793893129770991</v>
       </c>
     </row>
@@ -13304,15 +13790,15 @@
         <v>9</v>
       </c>
       <c r="I344">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.345</v>
       </c>
       <c r="J344">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.32</v>
       </c>
       <c r="K344">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.175</v>
       </c>
     </row>
@@ -13339,15 +13825,15 @@
         <v>9</v>
       </c>
       <c r="I345">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J345">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6451612903225807</v>
       </c>
       <c r="K345">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6866359447004609</v>
       </c>
     </row>
@@ -13374,15 +13860,15 @@
         <v>9</v>
       </c>
       <c r="I346">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.069672131147541</v>
       </c>
       <c r="J346">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.069672131147541</v>
       </c>
       <c r="K346">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2418032786885247</v>
       </c>
     </row>
@@ -13409,15 +13895,15 @@
         <v>9</v>
       </c>
       <c r="I347">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2209302325581395</v>
       </c>
       <c r="J347">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1317829457364341</v>
       </c>
       <c r="K347">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1976744186046511</v>
       </c>
     </row>
@@ -13444,15 +13930,15 @@
         <v>9</v>
       </c>
       <c r="I348">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3316062176165804</v>
       </c>
       <c r="J348">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2279792746113989</v>
       </c>
       <c r="K348">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2279792746113989</v>
       </c>
     </row>
@@ -13479,15 +13965,15 @@
         <v>9</v>
       </c>
       <c r="I349">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1377952755905512</v>
       </c>
       <c r="J349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1377952755905512</v>
       </c>
       <c r="K349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5196850393700787</v>
       </c>
     </row>
@@ -13514,15 +14000,15 @@
         <v>9</v>
       </c>
       <c r="I350">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0743494423791822</v>
       </c>
       <c r="J350">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3457249070631969</v>
       </c>
       <c r="K350">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.237918215613383</v>
       </c>
     </row>
@@ -13549,15 +14035,15 @@
         <v>9</v>
       </c>
       <c r="I351">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.073076923076923</v>
       </c>
       <c r="J351">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2192307692307693</v>
       </c>
       <c r="K351">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3692307692307693</v>
       </c>
     </row>
@@ -13584,15 +14070,15 @@
         <v>10</v>
       </c>
       <c r="I352">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2453703703703705</v>
       </c>
       <c r="J352">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4675925925925926</v>
       </c>
       <c r="K352">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5694444444444444</v>
       </c>
     </row>
@@ -13619,15 +14105,15 @@
         <v>10</v>
       </c>
       <c r="I353">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3793103448275863</v>
       </c>
       <c r="J353">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4039408866995073</v>
       </c>
       <c r="K353">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.625615763546798</v>
       </c>
     </row>
@@ -13654,15 +14140,15 @@
         <v>10</v>
       </c>
       <c r="I354">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1198347107438016</v>
       </c>
       <c r="J354">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2727272727272727</v>
       </c>
       <c r="K354">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2727272727272727</v>
       </c>
     </row>
@@ -13689,15 +14175,15 @@
         <v>10</v>
       </c>
       <c r="I355">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3710407239819005</v>
       </c>
       <c r="J355">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1809954751131222</v>
       </c>
       <c r="K355">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3574660633484164</v>
       </c>
     </row>
@@ -13724,15 +14210,15 @@
         <v>10</v>
       </c>
       <c r="I356">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2426778242677825</v>
       </c>
       <c r="J356">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.405857740585774</v>
       </c>
       <c r="K356">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2594142259414225</v>
       </c>
     </row>
@@ -13759,15 +14245,15 @@
         <v>10</v>
       </c>
       <c r="I357">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="J357">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0939849624060149</v>
       </c>
       <c r="K357">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1992481203007519</v>
       </c>
     </row>
@@ -13794,15 +14280,15 @@
         <v>10</v>
       </c>
       <c r="I358">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1641025641025642</v>
       </c>
       <c r="J358">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.9230769230769231</v>
       </c>
       <c r="K358">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7487179487179487</v>
       </c>
     </row>
@@ -13829,15 +14315,15 @@
         <v>10</v>
       </c>
       <c r="I359">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0880829015544042</v>
       </c>
       <c r="J359">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3626943005181347</v>
       </c>
       <c r="K359">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2227979274611398</v>
       </c>
     </row>
@@ -13864,15 +14350,15 @@
         <v>10</v>
       </c>
       <c r="I360">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0251046025104602</v>
       </c>
       <c r="J360">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5481171548117154</v>
       </c>
       <c r="K360">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5481171548117154</v>
       </c>
     </row>
@@ -13899,15 +14385,15 @@
         <v>10</v>
       </c>
       <c r="I361">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3488372093023255</v>
       </c>
       <c r="J361">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2046511627906977</v>
       </c>
       <c r="K361">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3162790697674418</v>
       </c>
     </row>
@@ -13934,15 +14420,15 @@
         <v>10</v>
       </c>
       <c r="I362">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.25</v>
       </c>
       <c r="J362">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.528688524590164</v>
       </c>
       <c r="K362">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4426229508196722</v>
       </c>
     </row>
@@ -13969,15 +14455,15 @@
         <v>10</v>
       </c>
       <c r="I363">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0103626943005182</v>
       </c>
       <c r="J363">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7927461139896372</v>
       </c>
       <c r="K363">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4041450777202074</v>
       </c>
     </row>
@@ -14004,15 +14490,15 @@
         <v>10</v>
       </c>
       <c r="I364">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2352941176470589</v>
       </c>
       <c r="J364">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5429864253393666</v>
       </c>
       <c r="K364">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5701357466063348</v>
       </c>
     </row>
@@ -14039,15 +14525,15 @@
         <v>10</v>
       </c>
       <c r="I365">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1435643564356435</v>
       </c>
       <c r="J365">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.8118811881188119</v>
       </c>
       <c r="K365">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7920792079207921</v>
       </c>
     </row>
@@ -14074,15 +14560,15 @@
         <v>10</v>
       </c>
       <c r="I366">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.34</v>
       </c>
       <c r="J366">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7350000000000001</v>
       </c>
       <c r="K366">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7350000000000001</v>
       </c>
     </row>
@@ -14109,15 +14595,15 @@
         <v>10</v>
       </c>
       <c r="I367">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2627450980392156</v>
       </c>
       <c r="J367">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2313725490196079</v>
       </c>
       <c r="K367">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2313725490196079</v>
       </c>
     </row>
@@ -14144,15 +14630,15 @@
         <v>10</v>
       </c>
       <c r="I368">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.065040650406504</v>
       </c>
       <c r="J368">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.065040650406504</v>
       </c>
       <c r="K368">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0081300813008129</v>
       </c>
     </row>
@@ -14179,15 +14665,15 @@
         <v>10</v>
       </c>
       <c r="I369">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0134529147982063</v>
       </c>
       <c r="J369">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3901345291479821</v>
       </c>
       <c r="K369">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5426008968609866</v>
       </c>
     </row>
@@ -14214,15 +14700,15 @@
         <v>10</v>
       </c>
       <c r="I370">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3664921465968587</v>
       </c>
       <c r="J370">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.8272251308900525</v>
       </c>
       <c r="K370">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8272251308900525</v>
       </c>
     </row>
@@ -14249,15 +14735,15 @@
         <v>10</v>
       </c>
       <c r="I371">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2050209205020921</v>
       </c>
       <c r="J371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1757322175732217</v>
       </c>
       <c r="K371">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1882845188284519</v>
       </c>
     </row>
@@ -14284,15 +14770,15 @@
         <v>10</v>
       </c>
       <c r="I372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.393574297188755</v>
       </c>
       <c r="J372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2730923694779117</v>
       </c>
       <c r="K372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2048192771084338</v>
       </c>
     </row>
@@ -14319,15 +14805,15 @@
         <v>10</v>
       </c>
       <c r="I373">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1911764705882353</v>
       </c>
       <c r="J373">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5784313725490196</v>
       </c>
       <c r="K373">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5588235294117647</v>
       </c>
     </row>
@@ -14354,15 +14840,15 @@
         <v>10</v>
       </c>
       <c r="I374">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4</v>
       </c>
       <c r="J374">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1632653061224489</v>
       </c>
       <c r="K374">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2204081632653061</v>
       </c>
     </row>
@@ -14389,15 +14875,15 @@
         <v>10</v>
       </c>
       <c r="I375">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3480176211453745</v>
       </c>
       <c r="J375">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4317180616740088</v>
       </c>
       <c r="K375">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4317180616740088</v>
       </c>
     </row>
@@ -14424,15 +14910,15 @@
         <v>10</v>
       </c>
       <c r="I376">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.8854625550660793</v>
       </c>
       <c r="J376">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.841409691629956</v>
       </c>
       <c r="K376">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6255506607929515</v>
       </c>
     </row>
@@ -14459,15 +14945,15 @@
         <v>10</v>
       </c>
       <c r="I377">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2059925093632959</v>
       </c>
       <c r="J377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2059925093632959</v>
       </c>
       <c r="K377">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1198501872659177</v>
       </c>
     </row>
@@ -14494,15 +14980,15 @@
         <v>10</v>
       </c>
       <c r="I378">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1904761904761905</v>
       </c>
       <c r="J378">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0735930735930737</v>
       </c>
       <c r="K378">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1904761904761905</v>
       </c>
     </row>
@@ -14529,15 +15015,15 @@
         <v>10</v>
       </c>
       <c r="I379">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2363636363636363</v>
       </c>
       <c r="J379">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1772727272727272</v>
       </c>
       <c r="K379">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1772727272727272</v>
       </c>
     </row>
@@ -14564,15 +15050,15 @@
         <v>10</v>
       </c>
       <c r="I380">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3224299065420562</v>
       </c>
       <c r="J380">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.294392523364486</v>
       </c>
       <c r="K380">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.294392523364486</v>
       </c>
     </row>
@@ -14599,15 +15085,15 @@
         <v>10</v>
       </c>
       <c r="I381">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4009009009009008</v>
       </c>
       <c r="J381">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2612612612612613</v>
       </c>
       <c r="K381">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2612612612612613</v>
       </c>
     </row>
@@ -14634,15 +15120,15 @@
         <v>10</v>
       </c>
       <c r="I382">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3258928571428572</v>
       </c>
       <c r="J382">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3258928571428572</v>
       </c>
       <c r="K382">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3258928571428572</v>
       </c>
     </row>
@@ -14669,15 +15155,15 @@
         <v>10</v>
       </c>
       <c r="I383">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="J383">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6173913043478261</v>
       </c>
       <c r="K383">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6173913043478261</v>
       </c>
     </row>
@@ -14704,15 +15190,15 @@
         <v>10</v>
       </c>
       <c r="I384">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3490566037735849</v>
       </c>
       <c r="J384">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3726415094339623</v>
       </c>
       <c r="K384">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3160377358490567</v>
       </c>
     </row>
@@ -14739,15 +15225,15 @@
         <v>10</v>
       </c>
       <c r="I385">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2084942084942085</v>
       </c>
       <c r="J385">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1351351351351351</v>
       </c>
       <c r="K385">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1621621621621621</v>
       </c>
     </row>
@@ -14774,15 +15260,15 @@
         <v>10</v>
       </c>
       <c r="I386">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.06</v>
       </c>
       <c r="J386">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1519999999999999</v>
       </c>
       <c r="K386">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3640000000000001</v>
       </c>
     </row>
@@ -14809,15 +15295,15 @@
         <v>10</v>
       </c>
       <c r="I387">
-        <f t="shared" ref="I387:I450" si="18">D387/C387</f>
+        <f t="shared" ref="I387:I450" si="21">D387/C387</f>
         <v>1.3706896551724137</v>
       </c>
       <c r="J387">
-        <f t="shared" ref="J387:J450" si="19">E387/C387</f>
+        <f t="shared" ref="J387:J450" si="22">E387/C387</f>
         <v>1.3146551724137931</v>
       </c>
       <c r="K387">
-        <f t="shared" ref="K387:K450" si="20">F387/C387</f>
+        <f t="shared" ref="K387:K450" si="23">F387/C387</f>
         <v>1.4181034482758621</v>
       </c>
     </row>
@@ -14844,15 +15330,15 @@
         <v>10</v>
       </c>
       <c r="I388">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2945736434108528</v>
       </c>
       <c r="J388">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6356589147286822</v>
       </c>
       <c r="K388">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4651162790697674</v>
       </c>
     </row>
@@ -14879,15 +15365,15 @@
         <v>10</v>
       </c>
       <c r="I389">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2610619469026549</v>
       </c>
       <c r="J389">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.247787610619469</v>
       </c>
       <c r="K389">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.247787610619469</v>
       </c>
     </row>
@@ -14914,15 +15400,15 @@
         <v>10</v>
       </c>
       <c r="I390">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0720000000000001</v>
       </c>
       <c r="J390">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.264</v>
       </c>
       <c r="K390">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.264</v>
       </c>
     </row>
@@ -14949,15 +15435,15 @@
         <v>10</v>
       </c>
       <c r="I391">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1157894736842104</v>
       </c>
       <c r="J391">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5526315789473684</v>
       </c>
       <c r="K391">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5526315789473684</v>
       </c>
     </row>
@@ -14984,15 +15470,15 @@
         <v>10</v>
       </c>
       <c r="I392">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0352941176470589</v>
       </c>
       <c r="J392">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0117647058823529</v>
       </c>
       <c r="K392">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3058823529411765</v>
       </c>
     </row>
@@ -15019,15 +15505,15 @@
         <v>10</v>
       </c>
       <c r="I393">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1208333333333333</v>
       </c>
       <c r="J393">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4875</v>
       </c>
       <c r="K393">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4875</v>
       </c>
     </row>
@@ -15054,15 +15540,15 @@
         <v>10</v>
       </c>
       <c r="I394">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1325757575757576</v>
       </c>
       <c r="J394">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2462121212121211</v>
       </c>
       <c r="K394">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.196969696969697</v>
       </c>
     </row>
@@ -15089,15 +15575,15 @@
         <v>10</v>
       </c>
       <c r="I395">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3155339805825244</v>
       </c>
       <c r="J395">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3398058252427185</v>
       </c>
       <c r="K395">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3495145631067962</v>
       </c>
     </row>
@@ -15124,15 +15610,15 @@
         <v>10</v>
       </c>
       <c r="I396">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3284313725490196</v>
       </c>
       <c r="J396">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8529411764705883</v>
       </c>
       <c r="K396">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7696078431372548</v>
       </c>
     </row>
@@ -15159,15 +15645,15 @@
         <v>10</v>
       </c>
       <c r="I397">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1965811965811965</v>
       </c>
       <c r="J397">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2008547008547008</v>
       </c>
       <c r="K397">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2264957264957266</v>
       </c>
     </row>
@@ -15194,15 +15680,15 @@
         <v>10</v>
       </c>
       <c r="I398">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4838709677419355</v>
       </c>
       <c r="J398">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4654377880184333</v>
       </c>
       <c r="K398">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4377880184331797</v>
       </c>
     </row>
@@ -15229,15 +15715,15 @@
         <v>10</v>
       </c>
       <c r="I399">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0503875968992249</v>
       </c>
       <c r="J399">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4147286821705427</v>
       </c>
       <c r="K399">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4147286821705427</v>
       </c>
     </row>
@@ -15264,15 +15750,15 @@
         <v>10</v>
       </c>
       <c r="I400">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5076923076923077</v>
       </c>
       <c r="J400">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.641025641025641</v>
       </c>
       <c r="K400">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5384615384615385</v>
       </c>
     </row>
@@ -15299,15 +15785,15 @@
         <v>10</v>
       </c>
       <c r="I401">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="J401">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2543859649122806</v>
       </c>
       <c r="K401">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2982456140350878</v>
       </c>
     </row>
@@ -15334,15 +15820,15 @@
         <v>11</v>
       </c>
       <c r="I402">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1411290322580645</v>
       </c>
       <c r="J402">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2379032258064515</v>
       </c>
       <c r="K402">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2943548387096775</v>
       </c>
     </row>
@@ -15369,15 +15855,15 @@
         <v>11</v>
       </c>
       <c r="I403">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4351851851851851</v>
       </c>
       <c r="J403">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4953703703703705</v>
       </c>
       <c r="K403">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4953703703703705</v>
       </c>
     </row>
@@ -15404,15 +15890,15 @@
         <v>11</v>
       </c>
       <c r="I404">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4747474747474747</v>
       </c>
       <c r="J404">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9242424242424243</v>
       </c>
       <c r="K404">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9393939393939394</v>
       </c>
     </row>
@@ -15439,15 +15925,15 @@
         <v>11</v>
       </c>
       <c r="I405">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1535087719298245</v>
       </c>
       <c r="J405">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.368421052631579</v>
       </c>
       <c r="K405">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5701754385964912</v>
       </c>
     </row>
@@ -15474,15 +15960,15 @@
         <v>11</v>
       </c>
       <c r="I406">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.48</v>
       </c>
       <c r="J406">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2</v>
       </c>
       <c r="K406">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.452</v>
       </c>
     </row>
@@ -15509,15 +15995,15 @@
         <v>11</v>
       </c>
       <c r="I407">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6020408163265305</v>
       </c>
       <c r="J407">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5357142857142858</v>
       </c>
       <c r="K407">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5204081632653061</v>
       </c>
     </row>
@@ -15544,15 +16030,15 @@
         <v>11</v>
       </c>
       <c r="I408">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2592592592592593</v>
       </c>
       <c r="J408">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3703703703703705</v>
       </c>
       <c r="K408">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3539094650205761</v>
       </c>
     </row>
@@ -15579,15 +16065,15 @@
         <v>11</v>
       </c>
       <c r="I409">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1551724137931034</v>
       </c>
       <c r="J409">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2327586206896552</v>
       </c>
       <c r="K409">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1853448275862069</v>
       </c>
     </row>
@@ -15614,15 +16100,15 @@
         <v>11</v>
       </c>
       <c r="I410">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2123552123552124</v>
       </c>
       <c r="J410">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2972972972972974</v>
       </c>
       <c r="K410">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4015444015444016</v>
       </c>
     </row>
@@ -15649,15 +16135,15 @@
         <v>11</v>
       </c>
       <c r="I411">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3012552301255229</v>
       </c>
       <c r="J411">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5146443514644352</v>
       </c>
       <c r="K411">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.506276150627615</v>
       </c>
     </row>
@@ -15684,15 +16170,15 @@
         <v>11</v>
       </c>
       <c r="I412">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.8048780487804879</v>
       </c>
       <c r="J412">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6878048780487804</v>
       </c>
       <c r="K412">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7317073170731707</v>
       </c>
     </row>
@@ -15719,15 +16205,15 @@
         <v>11</v>
       </c>
       <c r="I413">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3794642857142858</v>
       </c>
       <c r="J413">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3839285714285714</v>
       </c>
       <c r="K413">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3035714285714286</v>
       </c>
     </row>
@@ -15754,15 +16240,15 @@
         <v>11</v>
       </c>
       <c r="I414">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1003717472118959</v>
       </c>
       <c r="J414">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2230483271375465</v>
       </c>
       <c r="K414">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.204460966542751</v>
       </c>
     </row>
@@ -15789,15 +16275,15 @@
         <v>11</v>
       </c>
       <c r="I415">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5114942528735633</v>
       </c>
       <c r="J415">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7183908045977012</v>
       </c>
       <c r="K415">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7183908045977012</v>
       </c>
     </row>
@@ -15824,15 +16310,15 @@
         <v>11</v>
       </c>
       <c r="I416">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2463768115942029</v>
       </c>
       <c r="J416">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3429951690821256</v>
       </c>
       <c r="K416">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3671497584541064</v>
       </c>
     </row>
@@ -15859,15 +16345,15 @@
         <v>11</v>
       </c>
       <c r="I417">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2592592592592593</v>
       </c>
       <c r="J417">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2181069958847737</v>
       </c>
       <c r="K417">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2839506172839505</v>
       </c>
     </row>
@@ -15894,15 +16380,15 @@
         <v>11</v>
       </c>
       <c r="I418">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3130081300813008</v>
       </c>
       <c r="J418">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1788617886178863</v>
       </c>
       <c r="K418">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.556910569105691</v>
       </c>
     </row>
@@ -15929,15 +16415,15 @@
         <v>11</v>
       </c>
       <c r="I419">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6080402010050252</v>
       </c>
       <c r="J419">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8542713567839195</v>
       </c>
       <c r="K419">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8442211055276383</v>
       </c>
     </row>
@@ -15964,15 +16450,15 @@
         <v>11</v>
       </c>
       <c r="I420">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1015625</v>
       </c>
       <c r="J420">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.57421875</v>
       </c>
       <c r="K420">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4609375</v>
       </c>
     </row>
@@ -15999,15 +16485,15 @@
         <v>11</v>
       </c>
       <c r="I421">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3209876543209877</v>
       </c>
       <c r="J421">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4938271604938271</v>
       </c>
       <c r="K421">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4897119341563787</v>
       </c>
     </row>
@@ -16034,15 +16520,15 @@
         <v>11</v>
       </c>
       <c r="I422">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3577235772357723</v>
       </c>
       <c r="J422">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1382113821138211</v>
       </c>
       <c r="K422">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1422764227642277</v>
       </c>
     </row>
@@ -16069,15 +16555,15 @@
         <v>11</v>
       </c>
       <c r="I423">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1842105263157894</v>
       </c>
       <c r="J423">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5307017543859649</v>
       </c>
       <c r="K423">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3070175438596492</v>
       </c>
     </row>
@@ -16104,15 +16590,15 @@
         <v>11</v>
       </c>
       <c r="I424">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3080357142857142</v>
       </c>
       <c r="J424">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3080357142857142</v>
       </c>
       <c r="K424">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3080357142857142</v>
       </c>
     </row>
@@ -16139,15 +16625,15 @@
         <v>11</v>
       </c>
       <c r="I425">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1975308641975309</v>
       </c>
       <c r="J425">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4567901234567902</v>
       </c>
       <c r="K425">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1522633744855968</v>
       </c>
     </row>
@@ -16174,15 +16660,15 @@
         <v>11</v>
       </c>
       <c r="I426">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4457831325301205</v>
       </c>
       <c r="J426">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2168674698795181</v>
       </c>
       <c r="K426">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2168674698795181</v>
       </c>
     </row>
@@ -16209,15 +16695,15 @@
         <v>11</v>
       </c>
       <c r="I427">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6730769230769231</v>
       </c>
       <c r="J427">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6778846153846154</v>
       </c>
       <c r="K427">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4903846153846154</v>
       </c>
     </row>
@@ -16244,15 +16730,15 @@
         <v>11</v>
       </c>
       <c r="I428">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3441295546558705</v>
       </c>
       <c r="J428">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3117408906882591</v>
       </c>
       <c r="K428">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3117408906882591</v>
       </c>
     </row>
@@ -16279,15 +16765,15 @@
         <v>11</v>
       </c>
       <c r="I429">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3484162895927603</v>
       </c>
       <c r="J429">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5067873303167421</v>
       </c>
       <c r="K429">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -16314,15 +16800,15 @@
         <v>11</v>
       </c>
       <c r="I430">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="J430">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3601694915254237</v>
       </c>
       <c r="K430">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2118644067796611</v>
       </c>
     </row>
@@ -16349,15 +16835,15 @@
         <v>11</v>
       </c>
       <c r="I431">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.54</v>
       </c>
       <c r="J431">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.375</v>
       </c>
       <c r="K431">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.625</v>
       </c>
     </row>
@@ -16384,15 +16870,15 @@
         <v>11</v>
       </c>
       <c r="I432">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2874015748031495</v>
       </c>
       <c r="J432">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2559055118110236</v>
       </c>
       <c r="K432">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2874015748031495</v>
       </c>
     </row>
@@ -16419,15 +16905,15 @@
         <v>11</v>
       </c>
       <c r="I433">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="J433">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1148936170212767</v>
       </c>
       <c r="K433">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1531914893617021</v>
       </c>
     </row>
@@ -16454,15 +16940,15 @@
         <v>11</v>
       </c>
       <c r="I434">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4356846473029046</v>
       </c>
       <c r="J434">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4149377593360997</v>
       </c>
       <c r="K434">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3029045643153527</v>
       </c>
     </row>
@@ -16489,15 +16975,15 @@
         <v>11</v>
       </c>
       <c r="I435">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2037735849056603</v>
       </c>
       <c r="J435">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1924528301886792</v>
       </c>
       <c r="K435">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2150943396226415</v>
       </c>
     </row>
@@ -16524,15 +17010,15 @@
         <v>11</v>
       </c>
       <c r="I436">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2042553191489362</v>
       </c>
       <c r="J436">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3531914893617021</v>
       </c>
       <c r="K436">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5914893617021277</v>
       </c>
     </row>
@@ -16559,15 +17045,15 @@
         <v>11</v>
       </c>
       <c r="I437">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3428571428571427</v>
       </c>
       <c r="J437">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8047619047619048</v>
       </c>
       <c r="K437">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7238095238095239</v>
       </c>
     </row>
@@ -16594,15 +17080,15 @@
         <v>11</v>
       </c>
       <c r="I438">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0049261083743843</v>
       </c>
       <c r="J438">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4729064039408868</v>
       </c>
       <c r="K438">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4187192118226601</v>
       </c>
     </row>
@@ -16629,15 +17115,15 @@
         <v>11</v>
       </c>
       <c r="I439">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.625</v>
       </c>
       <c r="J439">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.89</v>
       </c>
       <c r="K439">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.925</v>
       </c>
     </row>
@@ -16664,15 +17150,15 @@
         <v>11</v>
       </c>
       <c r="I440">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4948979591836735</v>
       </c>
       <c r="J440">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6122448979591837</v>
       </c>
       <c r="K440">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6224489795918366</v>
       </c>
     </row>
@@ -16699,15 +17185,15 @@
         <v>11</v>
       </c>
       <c r="I441">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3397129186602872</v>
       </c>
       <c r="J441">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7320574162679425</v>
       </c>
       <c r="K441">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7177033492822966</v>
       </c>
     </row>
@@ -16734,15 +17220,15 @@
         <v>11</v>
       </c>
       <c r="I442">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5928853754940711</v>
       </c>
       <c r="J442">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5454545454545454</v>
       </c>
       <c r="K442">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5454545454545454</v>
       </c>
     </row>
@@ -16769,15 +17255,15 @@
         <v>11</v>
       </c>
       <c r="I443">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1031746031746033</v>
       </c>
       <c r="J443">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5357142857142858</v>
       </c>
       <c r="K443">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5396825396825398</v>
       </c>
     </row>
@@ -16804,15 +17290,15 @@
         <v>11</v>
       </c>
       <c r="I444">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6619718309859155</v>
       </c>
       <c r="J444">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4460093896713615</v>
       </c>
       <c r="K444">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.460093896713615</v>
       </c>
     </row>
@@ -16839,15 +17325,15 @@
         <v>11</v>
       </c>
       <c r="I445">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2829457364341086</v>
       </c>
       <c r="J445">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.306201550387597</v>
       </c>
       <c r="K445">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2751937984496124</v>
       </c>
     </row>
@@ -16874,15 +17360,15 @@
         <v>11</v>
       </c>
       <c r="I446">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.751131221719457</v>
       </c>
       <c r="J446">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3665158371040724</v>
       </c>
       <c r="K446">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5113122171945701</v>
       </c>
     </row>
@@ -16909,15 +17395,15 @@
         <v>11</v>
       </c>
       <c r="I447">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3347639484978542</v>
       </c>
       <c r="J447">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2446351931330473</v>
       </c>
       <c r="K447">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2317596566523605</v>
       </c>
     </row>
@@ -16944,15 +17430,15 @@
         <v>11</v>
       </c>
       <c r="I448">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2815533980582525</v>
       </c>
       <c r="J448">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4029126213592233</v>
       </c>
       <c r="K448">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8203883495145632</v>
       </c>
     </row>
@@ -16979,15 +17465,15 @@
         <v>11</v>
       </c>
       <c r="I449">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.201716738197425</v>
       </c>
       <c r="J449">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.201716738197425</v>
       </c>
       <c r="K449">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.201716738197425</v>
       </c>
     </row>
@@ -17014,15 +17500,15 @@
         <v>11</v>
       </c>
       <c r="I450">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2938144329896908</v>
       </c>
       <c r="J450">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.768041237113402</v>
       </c>
       <c r="K450">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.768041237113402</v>
       </c>
     </row>
@@ -17049,15 +17535,15 @@
         <v>11</v>
       </c>
       <c r="I451">
-        <f t="shared" ref="I451" si="21">D451/C451</f>
+        <f t="shared" ref="I451" si="24">D451/C451</f>
         <v>1.1856540084388185</v>
       </c>
       <c r="J451">
-        <f t="shared" ref="J451" si="22">E451/C451</f>
+        <f t="shared" ref="J451" si="25">E451/C451</f>
         <v>1.1856540084388185</v>
       </c>
       <c r="K451">
-        <f t="shared" ref="K451" si="23">F451/C451</f>
+        <f t="shared" ref="K451" si="26">F451/C451</f>
         <v>1.379746835443038</v>
       </c>
     </row>

--- a/LP-Ergebnisse-Edge.xlsx
+++ b/LP-Ergebnisse-Edge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096F286-0D55-43A0-AA75-9C8EEE4289FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A8975-7431-42B0-BCE5-25AB17BEEA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,58 +171,84 @@
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
-        <cx:txData>
-          <cx:v>Vergleich FTP-Algorithmen in LP - Randdaten</cx:v>
-        </cx:txData>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Vergleich FTP-Algorithmen in L</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>∞</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> - Randdaten</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
       </cx:tx>
-      <cx:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Vergleich FTP-Algorithmen in LP - Randdaten</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
@@ -1291,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
